--- a/Crop_pollination_database_Bloom-Crowder.xlsx
+++ b/Crop_pollination_database_Bloom-Crowder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liesl\Documents\Crowder_Lab_Docs\Bartomeus_crop_pollination_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD28E79-0CEB-4125-8579-49E95BF8AB59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5759F4-9B4A-487D-8989-CD2903440AD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="208">
   <si>
     <t>Color code for variables</t>
   </si>
@@ -651,6 +651,27 @@
   </si>
   <si>
     <t>Megachile_perihirta</t>
+  </si>
+  <si>
+    <t>Strawberry</t>
+  </si>
+  <si>
+    <t>Albion</t>
+  </si>
+  <si>
+    <t>Organic</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>richness_estimator_method</t>
+  </si>
+  <si>
+    <t>Chao1</t>
   </si>
 </sst>
 </file>
@@ -660,7 +681,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-300A]#,##0.00;[Red][$$-300A]\-#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -699,6 +720,11 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1065,9 +1091,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1077,6 +1100,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel Built-in Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
@@ -2515,7 +2539,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="65" t="s">
+      <c r="A44" s="64" t="s">
         <v>69</v>
       </c>
       <c r="B44" s="29" t="s">
@@ -2526,7 +2550,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="65"/>
+      <c r="A45" s="64"/>
       <c r="B45" s="30" t="s">
         <v>72</v>
       </c>
@@ -2535,7 +2559,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
+      <c r="A46" s="64"/>
       <c r="B46" s="31" t="s">
         <v>74</v>
       </c>
@@ -2544,7 +2568,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="65"/>
+      <c r="A47" s="64"/>
       <c r="B47" s="31" t="s">
         <v>76</v>
       </c>
@@ -2553,7 +2577,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="65"/>
+      <c r="A48" s="64"/>
       <c r="B48" s="31" t="s">
         <v>78</v>
       </c>
@@ -2562,7 +2586,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="65"/>
+      <c r="A49" s="64"/>
       <c r="B49" s="32" t="s">
         <v>80</v>
       </c>
@@ -2571,7 +2595,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="66" t="s">
+      <c r="A50" s="65" t="s">
         <v>82</v>
       </c>
       <c r="B50" s="33" t="s">
@@ -2582,7 +2606,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="66"/>
+      <c r="A51" s="65"/>
       <c r="B51" s="34" t="s">
         <v>85</v>
       </c>
@@ -2591,7 +2615,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="66"/>
+      <c r="A52" s="65"/>
       <c r="B52" s="34" t="s">
         <v>87</v>
       </c>
@@ -2600,7 +2624,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="66"/>
+      <c r="A53" s="65"/>
       <c r="B53" s="34" t="s">
         <v>89</v>
       </c>
@@ -2609,7 +2633,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="66"/>
+      <c r="A54" s="65"/>
       <c r="B54" s="35" t="s">
         <v>22</v>
       </c>
@@ -2618,7 +2642,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="66"/>
+      <c r="A55" s="65"/>
       <c r="B55" s="35" t="s">
         <v>92</v>
       </c>
@@ -2627,7 +2651,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="66"/>
+      <c r="A56" s="65"/>
       <c r="B56" s="35" t="s">
         <v>94</v>
       </c>
@@ -2636,7 +2660,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="66"/>
+      <c r="A57" s="65"/>
       <c r="B57" s="35" t="s">
         <v>96</v>
       </c>
@@ -2645,7 +2669,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="66"/>
+      <c r="A58" s="65"/>
       <c r="B58" s="35" t="s">
         <v>98</v>
       </c>
@@ -2654,7 +2678,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="66"/>
+      <c r="A59" s="65"/>
       <c r="B59" s="35" t="s">
         <v>100</v>
       </c>
@@ -2663,7 +2687,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="66"/>
+      <c r="A60" s="65"/>
       <c r="B60" s="35" t="s">
         <v>102</v>
       </c>
@@ -2672,7 +2696,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="66"/>
+      <c r="A61" s="65"/>
       <c r="B61" s="35" t="s">
         <v>104</v>
       </c>
@@ -2681,7 +2705,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="66"/>
+      <c r="A62" s="65"/>
       <c r="B62" s="35" t="s">
         <v>106</v>
       </c>
@@ -2690,7 +2714,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="66"/>
+      <c r="A63" s="65"/>
       <c r="B63" s="35" t="s">
         <v>108</v>
       </c>
@@ -2699,7 +2723,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="66"/>
+      <c r="A64" s="65"/>
       <c r="B64" s="34" t="s">
         <v>110</v>
       </c>
@@ -2708,7 +2732,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A65" s="66"/>
+      <c r="A65" s="65"/>
       <c r="B65" s="34" t="s">
         <v>24</v>
       </c>
@@ -2717,7 +2741,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A66" s="66"/>
+      <c r="A66" s="65"/>
       <c r="B66" s="36" t="s">
         <v>26</v>
       </c>
@@ -2726,7 +2750,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A67" s="67" t="s">
+      <c r="A67" s="66" t="s">
         <v>114</v>
       </c>
       <c r="B67" s="37" t="s">
@@ -2737,7 +2761,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="67"/>
+      <c r="A68" s="66"/>
       <c r="B68" s="38" t="s">
         <v>117</v>
       </c>
@@ -2746,7 +2770,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="67" t="s">
+      <c r="A69" s="66" t="s">
         <v>119</v>
       </c>
       <c r="B69" s="39" t="s">
@@ -2757,7 +2781,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="67"/>
+      <c r="A70" s="66"/>
       <c r="B70" s="39" t="s">
         <v>122</v>
       </c>
@@ -2766,7 +2790,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="67"/>
+      <c r="A71" s="66"/>
       <c r="B71" s="39" t="s">
         <v>124</v>
       </c>
@@ -2775,7 +2799,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="67"/>
+      <c r="A72" s="66"/>
       <c r="B72" s="39" t="s">
         <v>126</v>
       </c>
@@ -2784,7 +2808,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="67"/>
+      <c r="A73" s="66"/>
       <c r="B73" s="39" t="s">
         <v>128</v>
       </c>
@@ -2793,7 +2817,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="67"/>
+      <c r="A74" s="66"/>
       <c r="B74" s="39" t="s">
         <v>130</v>
       </c>
@@ -2802,7 +2826,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="67"/>
+      <c r="A75" s="66"/>
       <c r="B75" s="39" t="s">
         <v>132</v>
       </c>
@@ -2811,7 +2835,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="67"/>
+      <c r="A76" s="66"/>
       <c r="B76" s="39" t="s">
         <v>134</v>
       </c>
@@ -2820,7 +2844,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="67"/>
+      <c r="A77" s="66"/>
       <c r="B77" s="39" t="s">
         <v>136</v>
       </c>
@@ -2829,7 +2853,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="67"/>
+      <c r="A78" s="66"/>
       <c r="B78" s="40" t="s">
         <v>138</v>
       </c>
@@ -2893,7 +2917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BL148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -7070,10 +7094,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMJ5"/>
+  <dimension ref="A1:AMH33"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AB20" sqref="AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7092,41 +7116,39 @@
     <col min="25" max="25" width="11.33203125" style="47" customWidth="1"/>
     <col min="26" max="26" width="13" style="47" customWidth="1"/>
     <col min="27" max="27" width="28" style="47" customWidth="1"/>
-    <col min="28" max="28" width="26.33203125" style="47" customWidth="1"/>
-    <col min="29" max="29" width="32.5546875" style="47" customWidth="1"/>
-    <col min="30" max="30" width="20" style="47" customWidth="1"/>
+    <col min="28" max="28" width="32.5546875" style="47" customWidth="1"/>
+    <col min="29" max="29" width="11.5546875" style="47"/>
+    <col min="30" max="30" width="12.6640625" style="47" customWidth="1"/>
     <col min="31" max="31" width="11.5546875" style="47"/>
     <col min="32" max="32" width="12.6640625" style="47" customWidth="1"/>
-    <col min="33" max="33" width="11.5546875" style="47"/>
-    <col min="34" max="34" width="12.6640625" style="47" customWidth="1"/>
-    <col min="35" max="35" width="12.44140625" style="47" customWidth="1"/>
-    <col min="36" max="36" width="15.109375" style="47" customWidth="1"/>
-    <col min="37" max="37" width="15.33203125" style="47" customWidth="1"/>
-    <col min="38" max="38" width="11.5546875" style="47"/>
-    <col min="39" max="39" width="14.5546875" style="47" customWidth="1"/>
-    <col min="40" max="40" width="12.6640625" style="47" customWidth="1"/>
-    <col min="41" max="41" width="11.5546875" style="47"/>
-    <col min="42" max="42" width="19.109375" style="47" customWidth="1"/>
-    <col min="43" max="43" width="18.109375" style="47" customWidth="1"/>
-    <col min="44" max="44" width="20.33203125" style="47" customWidth="1"/>
-    <col min="45" max="46" width="14.88671875" style="47" customWidth="1"/>
-    <col min="47" max="47" width="14.33203125" style="47" customWidth="1"/>
-    <col min="48" max="48" width="15.5546875" style="47" customWidth="1"/>
-    <col min="49" max="49" width="14" style="47" customWidth="1"/>
-    <col min="50" max="50" width="17" style="47" customWidth="1"/>
-    <col min="51" max="51" width="17.44140625" style="47" customWidth="1"/>
-    <col min="52" max="52" width="12.6640625" style="47" customWidth="1"/>
-    <col min="53" max="53" width="15.6640625" style="47" customWidth="1"/>
-    <col min="54" max="54" width="13.77734375" style="47" customWidth="1"/>
-    <col min="55" max="55" width="11.88671875" style="47" customWidth="1"/>
-    <col min="56" max="56" width="20" style="47" customWidth="1"/>
-    <col min="57" max="57" width="17.6640625" style="47" customWidth="1"/>
-    <col min="58" max="58" width="23.44140625" style="47" customWidth="1"/>
-    <col min="59" max="72" width="11.5546875" style="47"/>
-    <col min="73" max="1024" width="11.5546875" style="43"/>
+    <col min="33" max="33" width="12.44140625" style="47" customWidth="1"/>
+    <col min="34" max="34" width="15.109375" style="47" customWidth="1"/>
+    <col min="35" max="35" width="15.33203125" style="47" customWidth="1"/>
+    <col min="36" max="36" width="11.5546875" style="47"/>
+    <col min="37" max="37" width="14.5546875" style="47" customWidth="1"/>
+    <col min="38" max="38" width="12.6640625" style="47" customWidth="1"/>
+    <col min="39" max="39" width="11.5546875" style="47"/>
+    <col min="40" max="40" width="19.109375" style="47" customWidth="1"/>
+    <col min="41" max="41" width="18.109375" style="47" customWidth="1"/>
+    <col min="42" max="42" width="20.33203125" style="47" customWidth="1"/>
+    <col min="43" max="44" width="14.88671875" style="47" customWidth="1"/>
+    <col min="45" max="45" width="14.33203125" style="47" customWidth="1"/>
+    <col min="46" max="46" width="15.5546875" style="47" customWidth="1"/>
+    <col min="47" max="47" width="14" style="47" customWidth="1"/>
+    <col min="48" max="48" width="17" style="47" customWidth="1"/>
+    <col min="49" max="49" width="17.44140625" style="47" customWidth="1"/>
+    <col min="50" max="50" width="12.6640625" style="47" customWidth="1"/>
+    <col min="51" max="51" width="15.6640625" style="47" customWidth="1"/>
+    <col min="52" max="52" width="13.77734375" style="47" customWidth="1"/>
+    <col min="53" max="53" width="11.88671875" style="47" customWidth="1"/>
+    <col min="54" max="54" width="20" style="47" customWidth="1"/>
+    <col min="55" max="55" width="17.6640625" style="47" customWidth="1"/>
+    <col min="56" max="56" width="23.44140625" style="47" customWidth="1"/>
+    <col min="57" max="70" width="11.5546875" style="47"/>
+    <col min="71" max="1022" width="11.5546875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="63" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" s="63" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>11</v>
       </c>
@@ -7209,111 +7231,1346 @@
         <v>83</v>
       </c>
       <c r="AB1" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC1" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD1" s="56" t="s">
-        <v>89</v>
+        <v>206</v>
+      </c>
+      <c r="AC1" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" s="57" t="s">
+        <v>92</v>
       </c>
       <c r="AE1" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF1" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG1" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH1" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI1" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ1" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK1" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL1" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM1" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN1" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO1" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP1" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ1" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR1" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS1" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT1" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU1" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV1" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW1" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX1" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY1" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="AZ1" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA1" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB1" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="BC1" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD1" s="62" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2">
+        <v>47.57</v>
+      </c>
+      <c r="H2">
+        <v>-122.316</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>2016</v>
+      </c>
+      <c r="L2"/>
+      <c r="M2" s="67">
+        <v>5.6118857142857141</v>
+      </c>
+      <c r="N2" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q2" s="67">
+        <v>6.1421888888888887</v>
+      </c>
+      <c r="U2" s="67">
+        <v>1.1875</v>
+      </c>
+      <c r="AB2" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC2" s="47">
+        <v>14</v>
+      </c>
+      <c r="AD2">
+        <v>9</v>
+      </c>
+      <c r="AE2">
+        <v>5</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3">
+        <v>47.57</v>
+      </c>
+      <c r="H3">
+        <v>-122.316</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>2016</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3" s="67">
+        <v>10.862214285714286</v>
+      </c>
+      <c r="N3" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q3" s="67">
+        <v>7.7476750000000001</v>
+      </c>
+      <c r="U3" s="67">
+        <v>1.2666666666666666</v>
+      </c>
+      <c r="AB3" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC3" s="47">
+        <v>69</v>
+      </c>
+      <c r="AD3">
+        <v>34</v>
+      </c>
+      <c r="AE3">
+        <v>29</v>
+      </c>
+      <c r="AF3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4">
+        <v>47.057000000000002</v>
+      </c>
+      <c r="H4">
+        <v>-122.97</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>2016</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4" s="67">
+        <v>5.8545222222222213</v>
+      </c>
+      <c r="N4" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q4" s="67">
+        <v>5.2898111111111108</v>
+      </c>
+      <c r="U4" s="67">
+        <v>1.2777777777777777</v>
+      </c>
+      <c r="AB4" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC4" s="47">
+        <v>37</v>
+      </c>
+      <c r="AD4">
+        <v>31</v>
+      </c>
+      <c r="AE4">
+        <v>6</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="7"/>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5">
+        <v>47.057000000000002</v>
+      </c>
+      <c r="H5">
+        <v>-122.97</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>2016</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5" s="67">
+        <v>8.8196363636363646</v>
+      </c>
+      <c r="N5" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q5" s="67">
+        <v>6.2266999999999992</v>
+      </c>
+      <c r="U5" s="67">
+        <v>1.2380952380952381</v>
+      </c>
+      <c r="AB5" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC5" s="47">
+        <v>20</v>
+      </c>
+      <c r="AD5">
+        <v>15</v>
+      </c>
+      <c r="AE5">
+        <v>3</v>
+      </c>
+      <c r="AF5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G6">
+        <v>47.677999999999997</v>
+      </c>
+      <c r="H6">
+        <v>-121.949</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>2016</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6" s="67">
+        <v>9.2455200000000008</v>
+      </c>
+      <c r="N6" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q6" s="67">
+        <v>10.522675</v>
+      </c>
+      <c r="U6" s="67">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AB6" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC6" s="47">
+        <v>104</v>
+      </c>
+      <c r="AD6">
+        <v>92</v>
+      </c>
+      <c r="AE6">
+        <v>5</v>
+      </c>
+      <c r="AF6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G7">
+        <v>47.677999999999997</v>
+      </c>
+      <c r="H7">
+        <v>-121.949</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <v>2016</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7" s="67">
+        <v>3.8835888888888892</v>
+      </c>
+      <c r="N7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q7" s="67">
+        <v>6.7374714285714292</v>
+      </c>
+      <c r="U7" s="67">
+        <v>1.125</v>
+      </c>
+      <c r="AB7" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC7" s="47">
+        <v>19</v>
+      </c>
+      <c r="AD7">
+        <v>10</v>
+      </c>
+      <c r="AE7">
+        <v>6</v>
+      </c>
+      <c r="AF7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G8">
+        <v>47.063000000000002</v>
+      </c>
+      <c r="H8">
+        <v>-122.926</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>2016</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8" s="67">
+        <v>3.768675</v>
+      </c>
+      <c r="N8" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q8" s="67">
+        <v>3.5709999999999997</v>
+      </c>
+      <c r="U8" s="67">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC8" s="47">
+        <v>14</v>
+      </c>
+      <c r="AD8">
+        <v>8</v>
+      </c>
+      <c r="AE8">
+        <v>2</v>
+      </c>
+      <c r="AF8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" t="s">
+        <v>204</v>
+      </c>
+      <c r="G9">
+        <v>47.063000000000002</v>
+      </c>
+      <c r="H9">
+        <v>-122.926</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>2016</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9" s="67">
+        <v>7.9502777777777789</v>
+      </c>
+      <c r="N9" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q9" s="67">
+        <v>6.390371428571429</v>
+      </c>
+      <c r="U9" s="67">
+        <v>1.1875</v>
+      </c>
+      <c r="AB9" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC9" s="47">
+        <v>41</v>
+      </c>
+      <c r="AD9">
+        <v>38</v>
+      </c>
+      <c r="AE9">
+        <v>3</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G10">
+        <v>48.542999999999999</v>
+      </c>
+      <c r="H10">
+        <v>-122.413</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>2016</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10" s="67">
+        <v>5.2620499999999995</v>
+      </c>
+      <c r="N10" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q10" s="67">
+        <v>3.910571428571429</v>
+      </c>
+      <c r="U10" s="67">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC10" s="47">
+        <v>51</v>
+      </c>
+      <c r="AD10">
+        <v>37</v>
+      </c>
+      <c r="AE10">
+        <v>10</v>
+      </c>
+      <c r="AF10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A11" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11">
+        <v>48.542999999999999</v>
+      </c>
+      <c r="H11">
+        <v>-122.413</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>2016</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11" s="67">
+        <v>10.254822222222224</v>
+      </c>
+      <c r="N11" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q11" s="67">
+        <v>6.5193111111111115</v>
+      </c>
+      <c r="U11" s="67">
+        <v>1.2777777777777777</v>
+      </c>
+      <c r="AB11" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC11" s="47">
+        <v>38</v>
+      </c>
+      <c r="AD11">
+        <v>13</v>
+      </c>
+      <c r="AE11">
         <v>22</v>
       </c>
-      <c r="AF1" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG1" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH1" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI1" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ1" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK1" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="AL1" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM1" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="AN1" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="AO1" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP1" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="AQ1" s="59" t="s">
+      <c r="AF11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G12">
+        <v>47.561999999999998</v>
+      </c>
+      <c r="H12">
+        <v>-122.303</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12">
+        <v>2016</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12" s="67">
+        <v>6.5736363636363624</v>
+      </c>
+      <c r="N12" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q12" s="67">
+        <v>6.0828181818181823</v>
+      </c>
+      <c r="U12" s="67">
+        <v>1.2727272727272727</v>
+      </c>
+      <c r="AB12" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC12" s="47">
+        <v>20</v>
+      </c>
+      <c r="AD12">
+        <v>15</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A13" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13">
+        <v>47.561999999999998</v>
+      </c>
+      <c r="H13">
+        <v>-122.303</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <v>2016</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13" s="67">
+        <v>4.5059249999999995</v>
+      </c>
+      <c r="N13" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q13" s="67">
+        <v>4.3149100000000002</v>
+      </c>
+      <c r="U13" s="67">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AB13" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC13" s="47">
+        <v>56</v>
+      </c>
+      <c r="AD13">
+        <v>52</v>
+      </c>
+      <c r="AE13">
+        <v>3</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" t="s">
+        <v>204</v>
+      </c>
+      <c r="G14">
+        <v>47.542999999999999</v>
+      </c>
+      <c r="H14">
+        <v>-122.28700000000001</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="K14">
+        <v>2016</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14" s="67">
+        <v>8.9757142857142842</v>
+      </c>
+      <c r="N14" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q14" s="67">
+        <v>7.195442857142857</v>
+      </c>
+      <c r="U14" s="67">
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="AB14" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC14" s="47">
+        <v>39</v>
+      </c>
+      <c r="AD14">
         <v>26</v>
       </c>
-      <c r="AR1" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="AS1" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT1" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="AU1" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="AV1" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="AW1" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="AX1" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="AY1" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ1" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="BA1" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="BB1" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="BC1" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="BD1" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="BE1" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="BF1" s="62" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="D5" s="64"/>
-      <c r="AP5" s="7"/>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" t="s">
+        <v>203</v>
+      </c>
+      <c r="F15" t="s">
+        <v>204</v>
+      </c>
+      <c r="G15">
+        <v>47.542999999999999</v>
+      </c>
+      <c r="H15">
+        <v>-122.28700000000001</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <v>2016</v>
+      </c>
+      <c r="L15"/>
+      <c r="M15" s="67">
+        <v>7.0438571428571422</v>
+      </c>
+      <c r="N15" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q15" s="67">
+        <v>7.0031999999999996</v>
+      </c>
+      <c r="U15" s="67">
+        <v>1.0625</v>
+      </c>
+      <c r="AB15" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC15" s="47">
+        <v>16</v>
+      </c>
+      <c r="AD15">
+        <v>16</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" t="s">
+        <v>204</v>
+      </c>
+      <c r="G16">
+        <v>47.670999999999999</v>
+      </c>
+      <c r="H16">
+        <v>-121.976</v>
+      </c>
+      <c r="I16">
+        <v>7</v>
+      </c>
+      <c r="J16">
+        <v>8</v>
+      </c>
+      <c r="K16">
+        <v>2016</v>
+      </c>
+      <c r="L16"/>
+      <c r="M16" s="67">
+        <v>8.1656181818181821</v>
+      </c>
+      <c r="N16" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q16" s="67">
+        <v>6.8472125000000004</v>
+      </c>
+      <c r="U16" s="67">
+        <v>1.5789473684210527</v>
+      </c>
+      <c r="AB16" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC16" s="47">
+        <v>30</v>
+      </c>
+      <c r="AD16">
+        <v>21</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17" t="s">
+        <v>204</v>
+      </c>
+      <c r="G17">
+        <v>47.670999999999999</v>
+      </c>
+      <c r="H17">
+        <v>-121.976</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
+      <c r="J17">
+        <v>8</v>
+      </c>
+      <c r="K17">
+        <v>2016</v>
+      </c>
+      <c r="L17"/>
+      <c r="M17" s="67">
+        <v>8.4420000000000002</v>
+      </c>
+      <c r="N17" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q17" s="67">
+        <v>7.9361374999999992</v>
+      </c>
+      <c r="U17" s="67">
+        <v>1.2941176470588236</v>
+      </c>
+      <c r="AB17" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC17" s="47">
+        <v>25</v>
+      </c>
+      <c r="AD17">
+        <v>16</v>
+      </c>
+      <c r="AE17">
+        <v>9</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" s="43"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="N18"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" s="43"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="N19"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" s="43"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="43"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" s="43"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" s="43"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="N23"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A24" s="43"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="N24"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25" s="43"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A26" s="43"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="N26"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A27" s="43"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="N27"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28" s="43"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="N28"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" s="43"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="N29"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A30" s="43"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="N30"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A31" s="43"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="N31"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A32" s="43"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="N32"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="43"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="N33"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>

--- a/Crop_pollination_database_Bloom-Crowder.xlsx
+++ b/Crop_pollination_database_Bloom-Crowder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liesl\Documents\Crowder_Lab_Docs\Bartomeus_crop_pollination_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5759F4-9B4A-487D-8989-CD2903440AD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4969D30C-15DB-4840-9017-8EA72004B858}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="214">
   <si>
     <t>Color code for variables</t>
   </si>
@@ -509,21 +509,12 @@
     <t>Bloom_Crowder_Strawberry</t>
   </si>
   <si>
-    <t>site_1</t>
-  </si>
-  <si>
-    <t>other_wild_bees</t>
-  </si>
-  <si>
     <t>sweep_net</t>
   </si>
   <si>
     <t>honeybee</t>
   </si>
   <si>
-    <t>blue_vane_trap</t>
-  </si>
-  <si>
     <t>3 blue vane traps</t>
   </si>
   <si>
@@ -551,18 +542,12 @@
     <t>site_8</t>
   </si>
   <si>
-    <t>site_10</t>
-  </si>
-  <si>
     <t>site_13</t>
   </si>
   <si>
     <t>site_18</t>
   </si>
   <si>
-    <t>site_20</t>
-  </si>
-  <si>
     <t>site_23</t>
   </si>
   <si>
@@ -575,9 +560,6 @@
     <t>site_26</t>
   </si>
   <si>
-    <t>site_28</t>
-  </si>
-  <si>
     <t>site_29</t>
   </si>
   <si>
@@ -587,15 +569,9 @@
     <t>site_31</t>
   </si>
   <si>
-    <t>site_33</t>
-  </si>
-  <si>
     <t>site_34</t>
   </si>
   <si>
-    <t>site_35</t>
-  </si>
-  <si>
     <t>site_36</t>
   </si>
   <si>
@@ -672,6 +648,48 @@
   </si>
   <si>
     <t>Chao1</t>
+  </si>
+  <si>
+    <t>blue_vane</t>
+  </si>
+  <si>
+    <t>Colletes_cfkincaidii</t>
+  </si>
+  <si>
+    <t>other_wild_bee</t>
+  </si>
+  <si>
+    <t>Halictus_tripartitus</t>
+  </si>
+  <si>
+    <t>Bombus_mixtus</t>
+  </si>
+  <si>
+    <t>Lasioglossum_olympiae</t>
+  </si>
+  <si>
+    <t>Lasioglossum_spC10</t>
+  </si>
+  <si>
+    <t>Lasioglossum_incompletumgroup</t>
+  </si>
+  <si>
+    <t>Lasioglossum_spC1</t>
+  </si>
+  <si>
+    <t>Anthidium_edwardsii</t>
+  </si>
+  <si>
+    <t>Melissodes_microsticta</t>
+  </si>
+  <si>
+    <t>Halictus_confusus</t>
+  </si>
+  <si>
+    <t>Lasioglossum_avalonense</t>
+  </si>
+  <si>
+    <t>Halictus_spH5</t>
   </si>
 </sst>
 </file>
@@ -910,7 +928,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1046,12 +1064,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1091,6 +1103,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1100,7 +1113,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel Built-in Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
@@ -2539,7 +2551,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="64" t="s">
+      <c r="A44" s="63" t="s">
         <v>69</v>
       </c>
       <c r="B44" s="29" t="s">
@@ -2550,7 +2562,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
+      <c r="A45" s="63"/>
       <c r="B45" s="30" t="s">
         <v>72</v>
       </c>
@@ -2559,7 +2571,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
+      <c r="A46" s="63"/>
       <c r="B46" s="31" t="s">
         <v>74</v>
       </c>
@@ -2568,7 +2580,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
+      <c r="A47" s="63"/>
       <c r="B47" s="31" t="s">
         <v>76</v>
       </c>
@@ -2577,7 +2589,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="64"/>
+      <c r="A48" s="63"/>
       <c r="B48" s="31" t="s">
         <v>78</v>
       </c>
@@ -2586,7 +2598,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="64"/>
+      <c r="A49" s="63"/>
       <c r="B49" s="32" t="s">
         <v>80</v>
       </c>
@@ -2595,7 +2607,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="65" t="s">
+      <c r="A50" s="64" t="s">
         <v>82</v>
       </c>
       <c r="B50" s="33" t="s">
@@ -2606,7 +2618,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="65"/>
+      <c r="A51" s="64"/>
       <c r="B51" s="34" t="s">
         <v>85</v>
       </c>
@@ -2615,7 +2627,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="65"/>
+      <c r="A52" s="64"/>
       <c r="B52" s="34" t="s">
         <v>87</v>
       </c>
@@ -2624,7 +2636,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="65"/>
+      <c r="A53" s="64"/>
       <c r="B53" s="34" t="s">
         <v>89</v>
       </c>
@@ -2633,7 +2645,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="65"/>
+      <c r="A54" s="64"/>
       <c r="B54" s="35" t="s">
         <v>22</v>
       </c>
@@ -2642,7 +2654,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="65"/>
+      <c r="A55" s="64"/>
       <c r="B55" s="35" t="s">
         <v>92</v>
       </c>
@@ -2651,7 +2663,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="65"/>
+      <c r="A56" s="64"/>
       <c r="B56" s="35" t="s">
         <v>94</v>
       </c>
@@ -2660,7 +2672,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="65"/>
+      <c r="A57" s="64"/>
       <c r="B57" s="35" t="s">
         <v>96</v>
       </c>
@@ -2669,7 +2681,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="65"/>
+      <c r="A58" s="64"/>
       <c r="B58" s="35" t="s">
         <v>98</v>
       </c>
@@ -2678,7 +2690,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="65"/>
+      <c r="A59" s="64"/>
       <c r="B59" s="35" t="s">
         <v>100</v>
       </c>
@@ -2687,7 +2699,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="65"/>
+      <c r="A60" s="64"/>
       <c r="B60" s="35" t="s">
         <v>102</v>
       </c>
@@ -2696,7 +2708,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="65"/>
+      <c r="A61" s="64"/>
       <c r="B61" s="35" t="s">
         <v>104</v>
       </c>
@@ -2705,7 +2717,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="65"/>
+      <c r="A62" s="64"/>
       <c r="B62" s="35" t="s">
         <v>106</v>
       </c>
@@ -2714,7 +2726,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="65"/>
+      <c r="A63" s="64"/>
       <c r="B63" s="35" t="s">
         <v>108</v>
       </c>
@@ -2723,7 +2735,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="65"/>
+      <c r="A64" s="64"/>
       <c r="B64" s="34" t="s">
         <v>110</v>
       </c>
@@ -2732,7 +2744,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A65" s="65"/>
+      <c r="A65" s="64"/>
       <c r="B65" s="34" t="s">
         <v>24</v>
       </c>
@@ -2741,7 +2753,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A66" s="65"/>
+      <c r="A66" s="64"/>
       <c r="B66" s="36" t="s">
         <v>26</v>
       </c>
@@ -2750,7 +2762,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A67" s="66" t="s">
+      <c r="A67" s="65" t="s">
         <v>114</v>
       </c>
       <c r="B67" s="37" t="s">
@@ -2761,7 +2773,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="66"/>
+      <c r="A68" s="65"/>
       <c r="B68" s="38" t="s">
         <v>117</v>
       </c>
@@ -2770,7 +2782,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="66" t="s">
+      <c r="A69" s="65" t="s">
         <v>119</v>
       </c>
       <c r="B69" s="39" t="s">
@@ -2781,7 +2793,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="66"/>
+      <c r="A70" s="65"/>
       <c r="B70" s="39" t="s">
         <v>122</v>
       </c>
@@ -2790,7 +2802,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="66"/>
+      <c r="A71" s="65"/>
       <c r="B71" s="39" t="s">
         <v>124</v>
       </c>
@@ -2799,7 +2811,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="66"/>
+      <c r="A72" s="65"/>
       <c r="B72" s="39" t="s">
         <v>126</v>
       </c>
@@ -2808,7 +2820,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="66"/>
+      <c r="A73" s="65"/>
       <c r="B73" s="39" t="s">
         <v>128</v>
       </c>
@@ -2817,7 +2829,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="66"/>
+      <c r="A74" s="65"/>
       <c r="B74" s="39" t="s">
         <v>130</v>
       </c>
@@ -2826,7 +2838,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="66"/>
+      <c r="A75" s="65"/>
       <c r="B75" s="39" t="s">
         <v>132</v>
       </c>
@@ -2835,7 +2847,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="66"/>
+      <c r="A76" s="65"/>
       <c r="B76" s="39" t="s">
         <v>134</v>
       </c>
@@ -2844,7 +2856,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="66"/>
+      <c r="A77" s="65"/>
       <c r="B77" s="39" t="s">
         <v>136</v>
       </c>
@@ -2853,7 +2865,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="66"/>
+      <c r="A78" s="65"/>
       <c r="B78" s="40" t="s">
         <v>138</v>
       </c>
@@ -2915,10 +2927,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BL148"/>
+  <dimension ref="A1:BL161"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L158" sqref="L158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2976,248 +2988,254 @@
       <c r="A2" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="D2" s="43" t="s">
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="43">
-        <v>1</v>
-      </c>
-      <c r="G2" s="43">
-        <v>50</v>
-      </c>
-      <c r="H2" s="43">
-        <v>1</v>
+      <c r="E2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D3" s="43" t="s">
+      <c r="B3" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F3" s="43">
-        <v>1</v>
-      </c>
-      <c r="G3" s="43">
-        <v>50</v>
-      </c>
-      <c r="H3" s="43">
-        <v>9</v>
-      </c>
-      <c r="J3" s="43" t="s">
-        <v>158</v>
+      <c r="C3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="F4" s="43">
-        <v>14</v>
-      </c>
-      <c r="G4" s="43">
-        <v>50</v>
-      </c>
-      <c r="H4" s="43">
-        <v>1</v>
-      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5" s="43">
-        <v>1</v>
-      </c>
-      <c r="G5" s="43">
-        <v>50</v>
-      </c>
-      <c r="H5" s="43">
-        <v>9</v>
-      </c>
-      <c r="J5" s="43" t="s">
-        <v>161</v>
+      <c r="E5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="J5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" t="s">
         <v>159</v>
       </c>
-      <c r="C6" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F6" s="43">
-        <v>1</v>
-      </c>
-      <c r="G6" s="43">
-        <v>50</v>
-      </c>
-      <c r="H6" s="43">
-        <v>9</v>
-      </c>
-      <c r="J6" s="43" t="s">
-        <v>158</v>
+      <c r="E6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="43">
-        <v>7</v>
-      </c>
-      <c r="G7" s="43">
-        <v>50</v>
-      </c>
-      <c r="H7" s="43">
-        <v>1</v>
-      </c>
+      <c r="E7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F8" s="43">
-        <v>1</v>
-      </c>
-      <c r="G8" s="43">
-        <v>50</v>
-      </c>
-      <c r="H8" s="43">
-        <v>9</v>
-      </c>
-      <c r="J8" s="43" t="s">
-        <v>158</v>
-      </c>
+      <c r="B8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="J8"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="F9" s="43">
-        <v>4</v>
-      </c>
-      <c r="G9" s="43">
-        <v>50</v>
-      </c>
-      <c r="H9" s="43">
-        <v>1</v>
+      <c r="B9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="J9" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E10" s="43" t="s">
+      <c r="B10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" t="s">
         <v>157</v>
       </c>
-      <c r="F10" s="43">
-        <v>1</v>
-      </c>
-      <c r="G10" s="43">
-        <v>50</v>
-      </c>
-      <c r="H10" s="43">
-        <v>9</v>
-      </c>
-      <c r="J10" s="43" t="s">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3225,86 +3243,86 @@
       <c r="A11" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E11" s="43" t="s">
+      <c r="B11" t="s">
         <v>160</v>
       </c>
-      <c r="F11" s="43">
-        <v>3</v>
-      </c>
-      <c r="G11" s="43">
-        <v>50</v>
-      </c>
-      <c r="H11" s="43">
-        <v>9</v>
-      </c>
-      <c r="J11" s="43" t="s">
-        <v>161</v>
+      <c r="C11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E12" s="43" t="s">
+      <c r="B12" t="s">
         <v>160</v>
       </c>
-      <c r="F12" s="43">
+      <c r="C12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12">
         <v>3</v>
       </c>
-      <c r="G12" s="43">
-        <v>50</v>
-      </c>
-      <c r="H12" s="43">
-        <v>9</v>
-      </c>
-      <c r="J12" s="43" t="s">
-        <v>161</v>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+      <c r="J12" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E13" s="43" t="s">
+      <c r="B13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" t="s">
         <v>157</v>
       </c>
-      <c r="F13" s="43">
-        <v>1</v>
-      </c>
-      <c r="G13" s="43">
-        <v>50</v>
-      </c>
-      <c r="H13" s="43">
-        <v>9</v>
-      </c>
-      <c r="J13" s="43" t="s">
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="J13" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3312,109 +3330,111 @@
       <c r="A14" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B14" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="E14" s="49" t="s">
+      <c r="B14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" t="s">
+        <v>200</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="J14" t="s">
         <v>155</v>
-      </c>
-      <c r="F14" s="43">
-        <v>30</v>
-      </c>
-      <c r="G14" s="43">
-        <v>50</v>
-      </c>
-      <c r="H14" s="43">
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="F15" s="43">
-        <v>1</v>
-      </c>
-      <c r="G15" s="43">
-        <v>50</v>
-      </c>
-      <c r="H15" s="43">
-        <v>1</v>
-      </c>
+      <c r="B15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15">
+        <v>30</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="J15"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="E16" s="50" t="s">
+      <c r="B16" t="s">
         <v>160</v>
       </c>
-      <c r="F16" s="43">
-        <v>3</v>
-      </c>
-      <c r="G16" s="43">
-        <v>50</v>
-      </c>
-      <c r="H16" s="43">
-        <v>9</v>
-      </c>
-      <c r="J16" s="43" t="s">
-        <v>161</v>
-      </c>
+      <c r="C16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>50</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="J16"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B17" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="E17" s="50" t="s">
+      <c r="B17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" t="s">
         <v>157</v>
       </c>
-      <c r="F17" s="43">
-        <v>15</v>
-      </c>
-      <c r="G17" s="43">
-        <v>50</v>
-      </c>
-      <c r="H17" s="43">
-        <v>9</v>
-      </c>
-      <c r="J17" s="43" t="s">
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>50</v>
+      </c>
+      <c r="H17">
+        <v>9</v>
+      </c>
+      <c r="J17" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3422,138 +3442,140 @@
       <c r="A18" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B18" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="E18" s="50" t="s">
+      <c r="B18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" t="s">
+        <v>200</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>50</v>
+      </c>
+      <c r="H18">
+        <v>9</v>
+      </c>
+      <c r="J18" t="s">
         <v>155</v>
-      </c>
-      <c r="F18" s="43">
-        <v>10</v>
-      </c>
-      <c r="G18" s="43">
-        <v>50</v>
-      </c>
-      <c r="H18" s="43">
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B19" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="D19" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="E19" s="50" t="s">
+      <c r="B19" t="s">
         <v>160</v>
       </c>
-      <c r="F19" s="43">
-        <v>1</v>
-      </c>
-      <c r="G19" s="43">
-        <v>50</v>
-      </c>
-      <c r="H19" s="43">
-        <v>9</v>
-      </c>
-      <c r="J19" s="43" t="s">
-        <v>161</v>
-      </c>
+      <c r="C19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="J19"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B20" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="F20" s="43">
-        <v>1</v>
-      </c>
-      <c r="G20" s="43">
-        <v>50</v>
-      </c>
-      <c r="H20" s="43">
-        <v>1</v>
+      <c r="B20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>50</v>
+      </c>
+      <c r="H20">
+        <v>9</v>
+      </c>
+      <c r="J20" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B21" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E21" s="43" t="s">
+      <c r="B21" t="s">
         <v>160</v>
       </c>
-      <c r="F21" s="43">
-        <v>2</v>
-      </c>
-      <c r="G21" s="43">
-        <v>50</v>
-      </c>
-      <c r="H21" s="43">
-        <v>9</v>
-      </c>
-      <c r="J21" s="43" t="s">
-        <v>161</v>
-      </c>
+      <c r="C21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>50</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="J21"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B22" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E22" s="43" t="s">
+      <c r="B22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" t="s">
         <v>157</v>
       </c>
-      <c r="F22" s="43">
-        <v>4</v>
-      </c>
-      <c r="G22" s="43">
-        <v>50</v>
-      </c>
-      <c r="H22" s="43">
-        <v>9</v>
-      </c>
-      <c r="J22" s="43" t="s">
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>50</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+      <c r="J22" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3561,277 +3583,277 @@
       <c r="A23" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B23" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E23" s="43" t="s">
+      <c r="B23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>50</v>
+      </c>
+      <c r="H23">
+        <v>9</v>
+      </c>
+      <c r="J23" t="s">
         <v>155</v>
-      </c>
-      <c r="F23" s="43">
-        <v>25</v>
-      </c>
-      <c r="G23" s="43">
-        <v>50</v>
-      </c>
-      <c r="H23" s="43">
-        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B24" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E24" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="F24" s="43">
-        <v>6</v>
-      </c>
-      <c r="G24" s="43">
-        <v>50</v>
-      </c>
-      <c r="H24" s="43">
-        <v>1</v>
-      </c>
+      <c r="B24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24">
+        <v>49</v>
+      </c>
+      <c r="G24">
+        <v>50</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="J24"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B25" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E25" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25" s="43">
-        <v>6</v>
-      </c>
-      <c r="G25" s="43">
-        <v>50</v>
-      </c>
-      <c r="H25" s="43">
-        <v>9</v>
-      </c>
-      <c r="J25" s="43" t="s">
+      <c r="B25" t="s">
         <v>161</v>
+      </c>
+      <c r="C25" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>50</v>
+      </c>
+      <c r="H25">
+        <v>9</v>
+      </c>
+      <c r="J25" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B26" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E26" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F26" s="43">
-        <v>2</v>
-      </c>
-      <c r="G26" s="43">
-        <v>50</v>
-      </c>
-      <c r="H26" s="43">
-        <v>9</v>
-      </c>
-      <c r="J26" s="43" t="s">
-        <v>158</v>
-      </c>
+      <c r="B26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26">
+        <v>18</v>
+      </c>
+      <c r="G26">
+        <v>50</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="J26"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B27" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E27" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="F27" s="43">
+      <c r="B27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27">
         <v>7</v>
       </c>
-      <c r="G27" s="43">
-        <v>50</v>
-      </c>
-      <c r="H27" s="43">
-        <v>1</v>
-      </c>
+      <c r="G27">
+        <v>50</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="J27"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B28" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E28" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="F28" s="43">
-        <v>2</v>
-      </c>
-      <c r="G28" s="43">
-        <v>50</v>
-      </c>
-      <c r="H28" s="43">
-        <v>1</v>
-      </c>
+      <c r="B28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>50</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="J28"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E29" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F29" s="43">
-        <v>1</v>
-      </c>
-      <c r="G29" s="43">
-        <v>50</v>
-      </c>
-      <c r="H29" s="43">
-        <v>9</v>
-      </c>
-      <c r="J29" s="43" t="s">
+      <c r="B29" t="s">
         <v>161</v>
       </c>
+      <c r="C29" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29" t="s">
+        <v>202</v>
+      </c>
+      <c r="E29" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>50</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="J29"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B30" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E30" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F30" s="43">
-        <v>1</v>
-      </c>
-      <c r="G30" s="43">
-        <v>50</v>
-      </c>
-      <c r="H30" s="43">
-        <v>9</v>
-      </c>
-      <c r="J30" s="43" t="s">
+      <c r="B30" t="s">
         <v>161</v>
       </c>
+      <c r="C30" t="s">
+        <v>206</v>
+      </c>
+      <c r="D30" t="s">
+        <v>202</v>
+      </c>
+      <c r="E30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>50</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="J30"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B31" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="C31" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E31" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F31" s="43">
-        <v>1</v>
-      </c>
-      <c r="G31" s="43">
-        <v>50</v>
-      </c>
-      <c r="H31" s="43">
-        <v>9</v>
-      </c>
-      <c r="J31" s="43" t="s">
+      <c r="B31" t="s">
         <v>161</v>
+      </c>
+      <c r="C31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" t="s">
+        <v>202</v>
+      </c>
+      <c r="E31" t="s">
+        <v>200</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>50</v>
+      </c>
+      <c r="H31">
+        <v>9</v>
+      </c>
+      <c r="J31" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="C32" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="D32" s="43" t="s">
+      <c r="B32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" t="s">
         <v>154</v>
       </c>
-      <c r="E32" s="43" t="s">
+      <c r="E32" t="s">
         <v>157</v>
       </c>
-      <c r="F32" s="43">
-        <v>1</v>
-      </c>
-      <c r="G32" s="43">
-        <v>50</v>
-      </c>
-      <c r="H32" s="43">
-        <v>9</v>
-      </c>
-      <c r="J32" s="43" t="s">
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32">
+        <v>50</v>
+      </c>
+      <c r="H32">
+        <v>9</v>
+      </c>
+      <c r="J32" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3839,199 +3861,194 @@
       <c r="A33" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B33" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="C33" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="D33" s="43" t="s">
+      <c r="B33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" t="s">
         <v>154</v>
       </c>
-      <c r="E33" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F33" s="43">
-        <v>1</v>
-      </c>
-      <c r="G33" s="43">
-        <v>50</v>
-      </c>
-      <c r="H33" s="43">
-        <v>9</v>
-      </c>
-      <c r="J33" s="43" t="s">
-        <v>161</v>
+      <c r="E33" t="s">
+        <v>200</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>50</v>
+      </c>
+      <c r="H33">
+        <v>9</v>
+      </c>
+      <c r="J33" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B34" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="D34" s="43" t="s">
+      <c r="B34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" t="s">
         <v>154</v>
       </c>
-      <c r="E34" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F34" s="43">
-        <v>1</v>
-      </c>
-      <c r="G34" s="43">
-        <v>50</v>
-      </c>
-      <c r="H34" s="43">
-        <v>9</v>
-      </c>
-      <c r="J34" s="43" t="s">
-        <v>158</v>
-      </c>
+      <c r="E34" t="s">
+        <v>153</v>
+      </c>
+      <c r="F34">
+        <v>21</v>
+      </c>
+      <c r="G34">
+        <v>50</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="J34"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B35" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="C35" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D35" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E35" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F35" s="43">
-        <v>19</v>
-      </c>
-      <c r="G35" s="43">
-        <v>50</v>
-      </c>
-      <c r="H35" s="43">
-        <v>9</v>
-      </c>
-      <c r="J35" s="43" t="s">
-        <v>161</v>
-      </c>
+      <c r="B35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" t="s">
+        <v>153</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>50</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="J35"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B36" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="C36" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D36" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E36" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F36" s="43">
-        <v>17</v>
-      </c>
-      <c r="G36" s="43">
-        <v>50</v>
-      </c>
-      <c r="H36" s="43">
-        <v>9</v>
-      </c>
-      <c r="J36" s="43" t="s">
-        <v>158</v>
-      </c>
+      <c r="B36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" t="s">
+        <v>159</v>
+      </c>
+      <c r="E36" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>50</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="J36"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B37" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="C37" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D37" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E37" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="F37" s="43">
-        <v>56</v>
-      </c>
-      <c r="G37" s="43">
-        <v>50</v>
-      </c>
-      <c r="H37" s="43">
-        <v>1</v>
+      <c r="B37" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E37" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>50</v>
+      </c>
+      <c r="H37">
+        <v>9</v>
+      </c>
+      <c r="J37" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B38" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="C38" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="D38" s="43" t="s">
+      <c r="B38" t="s">
         <v>162</v>
       </c>
-      <c r="E38" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F38" s="43">
-        <v>1</v>
-      </c>
-      <c r="G38" s="43">
-        <v>50</v>
-      </c>
-      <c r="H38" s="43">
-        <v>9</v>
-      </c>
-      <c r="J38" s="43" t="s">
-        <v>161</v>
-      </c>
+      <c r="C38" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" t="s">
+        <v>153</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>50</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="J38"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B39" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="D39" s="43" t="s">
+      <c r="B39" t="s">
         <v>162</v>
       </c>
-      <c r="E39" s="43" t="s">
+      <c r="C39" t="s">
+        <v>181</v>
+      </c>
+      <c r="D39" t="s">
+        <v>202</v>
+      </c>
+      <c r="E39" t="s">
         <v>157</v>
       </c>
-      <c r="F39" s="43">
-        <v>2</v>
-      </c>
-      <c r="G39" s="43">
-        <v>50</v>
-      </c>
-      <c r="H39" s="43">
-        <v>9</v>
-      </c>
-      <c r="J39" s="43" t="s">
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>50</v>
+      </c>
+      <c r="H39">
+        <v>9</v>
+      </c>
+      <c r="J39" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4039,225 +4056,229 @@
       <c r="A40" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B40" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="C40" s="43" t="s">
-        <v>193</v>
-      </c>
-      <c r="D40" s="43" t="s">
+      <c r="B40" t="s">
         <v>162</v>
       </c>
-      <c r="E40" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="F40" s="43">
-        <v>1</v>
-      </c>
-      <c r="G40" s="43">
-        <v>50</v>
-      </c>
-      <c r="H40" s="43">
-        <v>1</v>
+      <c r="C40" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40" t="s">
+        <v>202</v>
+      </c>
+      <c r="E40" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>50</v>
+      </c>
+      <c r="H40">
+        <v>9</v>
+      </c>
+      <c r="J40" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B41" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="C41" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D41" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E41" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F41" s="43">
-        <v>1</v>
-      </c>
-      <c r="G41" s="43">
-        <v>50</v>
-      </c>
-      <c r="H41" s="43">
-        <v>9</v>
-      </c>
-      <c r="J41" s="43" t="s">
-        <v>158</v>
+      <c r="B41" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" t="s">
+        <v>202</v>
+      </c>
+      <c r="E41" t="s">
+        <v>200</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>50</v>
+      </c>
+      <c r="H41">
+        <v>9</v>
+      </c>
+      <c r="J41" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B42" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="C42" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="D42" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E42" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="F42" s="43">
-        <v>1</v>
-      </c>
-      <c r="G42" s="43">
-        <v>50</v>
-      </c>
-      <c r="H42" s="43">
-        <v>1</v>
+      <c r="B42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" t="s">
+        <v>184</v>
+      </c>
+      <c r="D42" t="s">
+        <v>202</v>
+      </c>
+      <c r="E42" t="s">
+        <v>157</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>50</v>
+      </c>
+      <c r="H42">
+        <v>9</v>
+      </c>
+      <c r="J42" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B43" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="C43" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="D43" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E43" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F43" s="43">
-        <v>1</v>
-      </c>
-      <c r="G43" s="43">
-        <v>50</v>
-      </c>
-      <c r="H43" s="43">
-        <v>9</v>
-      </c>
-      <c r="J43" s="43" t="s">
-        <v>161</v>
+      <c r="B43" t="s">
+        <v>163</v>
+      </c>
+      <c r="C43" t="s">
+        <v>184</v>
+      </c>
+      <c r="D43" t="s">
+        <v>202</v>
+      </c>
+      <c r="E43" t="s">
+        <v>200</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>50</v>
+      </c>
+      <c r="H43">
+        <v>9</v>
+      </c>
+      <c r="J43" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B44" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="D44" s="43" t="s">
+      <c r="B44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" t="s">
         <v>154</v>
       </c>
-      <c r="E44" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F44" s="43">
-        <v>1</v>
-      </c>
-      <c r="G44" s="43">
-        <v>50</v>
-      </c>
-      <c r="H44" s="43">
-        <v>9</v>
-      </c>
-      <c r="J44" s="43" t="s">
-        <v>161</v>
+      <c r="E44" t="s">
+        <v>157</v>
+      </c>
+      <c r="F44">
+        <v>19</v>
+      </c>
+      <c r="G44">
+        <v>50</v>
+      </c>
+      <c r="H44">
+        <v>9</v>
+      </c>
+      <c r="J44" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B45" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="C45" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="D45" s="43" t="s">
+      <c r="B45" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" t="s">
         <v>154</v>
       </c>
-      <c r="E45" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F45" s="43">
-        <v>1</v>
-      </c>
-      <c r="G45" s="43">
-        <v>50</v>
-      </c>
-      <c r="H45" s="43">
-        <v>9</v>
-      </c>
-      <c r="J45" s="43" t="s">
-        <v>158</v>
+      <c r="E45" t="s">
+        <v>200</v>
+      </c>
+      <c r="F45">
+        <v>17</v>
+      </c>
+      <c r="G45">
+        <v>50</v>
+      </c>
+      <c r="H45">
+        <v>9</v>
+      </c>
+      <c r="J45" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B46" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="C46" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="D46" s="43" t="s">
+      <c r="B46" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" t="s">
+        <v>176</v>
+      </c>
+      <c r="D46" t="s">
         <v>154</v>
       </c>
-      <c r="E46" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F46" s="43">
-        <v>1</v>
-      </c>
-      <c r="G46" s="43">
-        <v>50</v>
-      </c>
-      <c r="H46" s="43">
-        <v>9</v>
-      </c>
-      <c r="J46" s="43" t="s">
-        <v>161</v>
-      </c>
+      <c r="E46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F46">
+        <v>56</v>
+      </c>
+      <c r="G46">
+        <v>50</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="J46"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B47" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="C47" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="D47" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E47" s="43" t="s">
+      <c r="B47" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" t="s">
+        <v>159</v>
+      </c>
+      <c r="E47" t="s">
         <v>157</v>
       </c>
-      <c r="F47" s="43">
-        <v>2</v>
-      </c>
-      <c r="G47" s="43">
-        <v>50</v>
-      </c>
-      <c r="H47" s="43">
-        <v>9</v>
-      </c>
-      <c r="J47" s="43" t="s">
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>50</v>
+      </c>
+      <c r="H47">
+        <v>9</v>
+      </c>
+      <c r="J47" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4265,141 +4286,140 @@
       <c r="A48" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B48" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="C48" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D48" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E48" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F48" s="43">
-        <v>1</v>
-      </c>
-      <c r="G48" s="43">
-        <v>50</v>
-      </c>
-      <c r="H48" s="43">
-        <v>9</v>
-      </c>
-      <c r="J48" s="43" t="s">
-        <v>161</v>
+      <c r="B48" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48" t="s">
+        <v>159</v>
+      </c>
+      <c r="E48" t="s">
+        <v>200</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>50</v>
+      </c>
+      <c r="H48">
+        <v>9</v>
+      </c>
+      <c r="J48" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B49" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="C49" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D49" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E49" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F49" s="43">
-        <v>3</v>
-      </c>
-      <c r="G49" s="43">
-        <v>50</v>
-      </c>
-      <c r="H49" s="43">
-        <v>9</v>
-      </c>
-      <c r="J49" s="43" t="s">
-        <v>158</v>
-      </c>
+      <c r="B49" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" t="s">
+        <v>185</v>
+      </c>
+      <c r="D49" t="s">
+        <v>159</v>
+      </c>
+      <c r="E49" t="s">
+        <v>153</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>50</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="J49"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B50" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="C50" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D50" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E50" s="43" t="s">
+      <c r="B50" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" t="s">
+        <v>159</v>
+      </c>
+      <c r="E50" t="s">
+        <v>200</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>50</v>
+      </c>
+      <c r="H50">
+        <v>9</v>
+      </c>
+      <c r="J50" t="s">
         <v>155</v>
-      </c>
-      <c r="F50" s="43">
-        <v>7</v>
-      </c>
-      <c r="G50" s="43">
-        <v>50</v>
-      </c>
-      <c r="H50" s="43">
-        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B51" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="C51" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="D51" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E51" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F51" s="43">
-        <v>1</v>
-      </c>
-      <c r="G51" s="43">
-        <v>50</v>
-      </c>
-      <c r="H51" s="43">
-        <v>9</v>
-      </c>
-      <c r="J51" s="43" t="s">
-        <v>158</v>
-      </c>
+      <c r="B51" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" t="s">
+        <v>181</v>
+      </c>
+      <c r="D51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E51" t="s">
+        <v>153</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>50</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="J51"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B52" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="C52" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="D52" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E52" s="43" t="s">
+      <c r="B52" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D52" t="s">
+        <v>202</v>
+      </c>
+      <c r="E52" t="s">
         <v>157</v>
       </c>
-      <c r="F52" s="43">
-        <v>2</v>
-      </c>
-      <c r="G52" s="43">
-        <v>50</v>
-      </c>
-      <c r="H52" s="43">
-        <v>9</v>
-      </c>
-      <c r="J52" s="43" t="s">
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>50</v>
+      </c>
+      <c r="H52">
+        <v>9</v>
+      </c>
+      <c r="J52" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4407,112 +4427,115 @@
       <c r="A53" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B53" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="C53" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D53" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E53" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F53" s="43">
-        <v>2</v>
-      </c>
-      <c r="G53" s="43">
-        <v>50</v>
-      </c>
-      <c r="H53" s="43">
-        <v>9</v>
-      </c>
-      <c r="J53" s="43" t="s">
-        <v>161</v>
+      <c r="B53" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" t="s">
+        <v>187</v>
+      </c>
+      <c r="D53" t="s">
+        <v>202</v>
+      </c>
+      <c r="E53" t="s">
+        <v>157</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>50</v>
+      </c>
+      <c r="H53">
+        <v>9</v>
+      </c>
+      <c r="J53" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B54" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="C54" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D54" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E54" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F54" s="43">
-        <v>1</v>
-      </c>
-      <c r="G54" s="43">
-        <v>50</v>
-      </c>
-      <c r="H54" s="43">
-        <v>9</v>
-      </c>
-      <c r="J54" s="43" t="s">
-        <v>158</v>
+      <c r="B54" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" t="s">
+        <v>188</v>
+      </c>
+      <c r="D54" t="s">
+        <v>202</v>
+      </c>
+      <c r="E54" t="s">
+        <v>200</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>50</v>
+      </c>
+      <c r="H54">
+        <v>9</v>
+      </c>
+      <c r="J54" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B55" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="C55" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D55" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E55" s="43" t="s">
+      <c r="B55" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" t="s">
+        <v>175</v>
+      </c>
+      <c r="D55" t="s">
+        <v>202</v>
+      </c>
+      <c r="E55" t="s">
+        <v>200</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>50</v>
+      </c>
+      <c r="H55">
+        <v>9</v>
+      </c>
+      <c r="J55" t="s">
         <v>155</v>
-      </c>
-      <c r="F55" s="43">
-        <v>7</v>
-      </c>
-      <c r="G55" s="43">
-        <v>50</v>
-      </c>
-      <c r="H55" s="43">
-        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B56" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="C56" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D56" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E56" s="43" t="s">
+      <c r="B56" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" t="s">
+        <v>154</v>
+      </c>
+      <c r="E56" t="s">
         <v>157</v>
       </c>
-      <c r="F56" s="43">
-        <v>3</v>
-      </c>
-      <c r="G56" s="43">
-        <v>50</v>
-      </c>
-      <c r="H56" s="43">
-        <v>9</v>
-      </c>
-      <c r="J56" s="43" t="s">
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>50</v>
+      </c>
+      <c r="H56">
+        <v>9</v>
+      </c>
+      <c r="J56" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4520,329 +4543,337 @@
       <c r="A57" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B57" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="C57" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D57" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E57" s="43" t="s">
+      <c r="B57" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57" t="s">
+        <v>176</v>
+      </c>
+      <c r="D57" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57" t="s">
+        <v>200</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>50</v>
+      </c>
+      <c r="H57">
+        <v>9</v>
+      </c>
+      <c r="J57" t="s">
         <v>155</v>
-      </c>
-      <c r="F57" s="43">
-        <v>3</v>
-      </c>
-      <c r="G57" s="43">
-        <v>50</v>
-      </c>
-      <c r="H57" s="43">
-        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B58" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="C58" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="D58" s="43" t="s">
+      <c r="B58" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" t="s">
+        <v>176</v>
+      </c>
+      <c r="D58" t="s">
         <v>154</v>
       </c>
-      <c r="E58" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F58" s="43">
-        <v>1</v>
-      </c>
-      <c r="G58" s="43">
-        <v>50</v>
-      </c>
-      <c r="H58" s="43">
-        <v>9</v>
-      </c>
-      <c r="J58" s="43" t="s">
-        <v>161</v>
-      </c>
+      <c r="E58" t="s">
+        <v>153</v>
+      </c>
+      <c r="F58">
+        <v>16</v>
+      </c>
+      <c r="G58">
+        <v>50</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="J58"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B59" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="C59" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="D59" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E59" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F59" s="43">
-        <v>4</v>
-      </c>
-      <c r="G59" s="43">
-        <v>50</v>
-      </c>
-      <c r="H59" s="43">
-        <v>9</v>
-      </c>
-      <c r="J59" s="43" t="s">
-        <v>158</v>
-      </c>
+      <c r="B59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" t="s">
+        <v>182</v>
+      </c>
+      <c r="D59" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59" t="s">
+        <v>153</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+      <c r="G59">
+        <v>50</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="J59"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B60" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="C60" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D60" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E60" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="F60" s="43">
-        <v>8</v>
-      </c>
-      <c r="G60" s="43">
-        <v>50</v>
-      </c>
-      <c r="H60" s="43">
-        <v>1</v>
+      <c r="B60" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" t="s">
+        <v>159</v>
+      </c>
+      <c r="E60" t="s">
+        <v>157</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>50</v>
+      </c>
+      <c r="H60">
+        <v>9</v>
+      </c>
+      <c r="J60" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B61" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="C61" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="D61" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E61" s="43" t="s">
+      <c r="B61" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" t="s">
+        <v>177</v>
+      </c>
+      <c r="D61" t="s">
+        <v>159</v>
+      </c>
+      <c r="E61" t="s">
+        <v>200</v>
+      </c>
+      <c r="F61">
+        <v>7</v>
+      </c>
+      <c r="G61">
+        <v>50</v>
+      </c>
+      <c r="H61">
+        <v>9</v>
+      </c>
+      <c r="J61" t="s">
         <v>155</v>
-      </c>
-      <c r="F61" s="43">
-        <v>1</v>
-      </c>
-      <c r="G61" s="43">
-        <v>50</v>
-      </c>
-      <c r="H61" s="43">
-        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B62" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="C62" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D62" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E62" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="F62" s="43">
-        <v>1</v>
-      </c>
-      <c r="G62" s="43">
-        <v>50</v>
-      </c>
-      <c r="H62" s="43">
-        <v>1</v>
-      </c>
+      <c r="B62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62" t="s">
+        <v>159</v>
+      </c>
+      <c r="E62" t="s">
+        <v>153</v>
+      </c>
+      <c r="F62">
+        <v>11</v>
+      </c>
+      <c r="G62">
+        <v>50</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="J62"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B63" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="C63" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D63" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E63" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F63" s="43">
-        <v>2</v>
-      </c>
-      <c r="G63" s="43">
-        <v>50</v>
-      </c>
-      <c r="H63" s="43">
-        <v>9</v>
-      </c>
-      <c r="J63" s="43" t="s">
-        <v>161</v>
-      </c>
+      <c r="B63" t="s">
+        <v>164</v>
+      </c>
+      <c r="C63" t="s">
+        <v>180</v>
+      </c>
+      <c r="D63" t="s">
+        <v>202</v>
+      </c>
+      <c r="E63" t="s">
+        <v>153</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>50</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="J63"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B64" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="C64" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D64" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E64" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="F64" s="43">
-        <v>1</v>
-      </c>
-      <c r="G64" s="43">
-        <v>50</v>
-      </c>
-      <c r="H64" s="43">
-        <v>1</v>
+      <c r="B64" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" t="s">
+        <v>207</v>
+      </c>
+      <c r="D64" t="s">
+        <v>202</v>
+      </c>
+      <c r="E64" t="s">
+        <v>157</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>50</v>
+      </c>
+      <c r="H64">
+        <v>9</v>
+      </c>
+      <c r="J64" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B65" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="C65" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D65" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E65" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F65" s="43">
-        <v>8</v>
-      </c>
-      <c r="G65" s="43">
-        <v>50</v>
-      </c>
-      <c r="H65" s="43">
-        <v>9</v>
-      </c>
-      <c r="J65" s="43" t="s">
-        <v>161</v>
+      <c r="B65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C65" t="s">
+        <v>189</v>
+      </c>
+      <c r="D65" t="s">
+        <v>202</v>
+      </c>
+      <c r="E65" t="s">
+        <v>157</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>50</v>
+      </c>
+      <c r="H65">
+        <v>9</v>
+      </c>
+      <c r="J65" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B66" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="C66" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D66" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E66" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F66" s="43">
-        <v>4</v>
-      </c>
-      <c r="G66" s="43">
-        <v>50</v>
-      </c>
-      <c r="H66" s="43">
-        <v>9</v>
-      </c>
-      <c r="J66" s="43" t="s">
-        <v>158</v>
-      </c>
+      <c r="B66" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" t="s">
+        <v>208</v>
+      </c>
+      <c r="D66" t="s">
+        <v>202</v>
+      </c>
+      <c r="E66" t="s">
+        <v>153</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>50</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="J66"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B67" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="C67" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D67" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E67" s="43" t="s">
+      <c r="B67" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" t="s">
+        <v>175</v>
+      </c>
+      <c r="D67" t="s">
+        <v>202</v>
+      </c>
+      <c r="E67" t="s">
+        <v>200</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+      <c r="G67">
+        <v>50</v>
+      </c>
+      <c r="H67">
+        <v>9</v>
+      </c>
+      <c r="J67" t="s">
         <v>155</v>
-      </c>
-      <c r="F67" s="43">
-        <v>4</v>
-      </c>
-      <c r="G67" s="43">
-        <v>50</v>
-      </c>
-      <c r="H67" s="43">
-        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B68" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="C68" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D68" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E68" s="43" t="s">
+      <c r="B68" t="s">
+        <v>165</v>
+      </c>
+      <c r="C68" t="s">
+        <v>209</v>
+      </c>
+      <c r="D68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E68" t="s">
         <v>157</v>
       </c>
-      <c r="F68" s="43">
-        <v>3</v>
-      </c>
-      <c r="G68" s="43">
-        <v>50</v>
-      </c>
-      <c r="H68" s="43">
-        <v>9</v>
-      </c>
-      <c r="J68" s="43" t="s">
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>50</v>
+      </c>
+      <c r="H68">
+        <v>9</v>
+      </c>
+      <c r="J68" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4850,361 +4881,362 @@
       <c r="A69" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B69" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="C69" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D69" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E69" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="F69" s="43">
-        <v>1</v>
-      </c>
-      <c r="G69" s="43">
-        <v>50</v>
-      </c>
-      <c r="H69" s="43">
-        <v>1</v>
-      </c>
+      <c r="B69" t="s">
+        <v>165</v>
+      </c>
+      <c r="C69" t="s">
+        <v>176</v>
+      </c>
+      <c r="D69" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" t="s">
+        <v>153</v>
+      </c>
+      <c r="F69">
+        <v>9</v>
+      </c>
+      <c r="G69">
+        <v>50</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="J69"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B70" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="C70" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="D70" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E70" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F70" s="43">
-        <v>2</v>
-      </c>
-      <c r="G70" s="43">
-        <v>50</v>
-      </c>
-      <c r="H70" s="43">
-        <v>9</v>
-      </c>
-      <c r="J70" s="43" t="s">
-        <v>161</v>
-      </c>
+      <c r="B70" t="s">
+        <v>165</v>
+      </c>
+      <c r="C70" t="s">
+        <v>182</v>
+      </c>
+      <c r="D70" t="s">
+        <v>159</v>
+      </c>
+      <c r="E70" t="s">
+        <v>153</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>50</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="J70"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B71" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="C71" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D71" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E71" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F71" s="43">
-        <v>2</v>
-      </c>
-      <c r="G71" s="43">
-        <v>50</v>
-      </c>
-      <c r="H71" s="43">
-        <v>9</v>
-      </c>
-      <c r="J71" s="43" t="s">
-        <v>161</v>
+      <c r="B71" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71" t="s">
+        <v>177</v>
+      </c>
+      <c r="D71" t="s">
+        <v>159</v>
+      </c>
+      <c r="E71" t="s">
+        <v>200</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <v>50</v>
+      </c>
+      <c r="H71">
+        <v>9</v>
+      </c>
+      <c r="J71" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B72" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="C72" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D72" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E72" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F72" s="43">
-        <v>3</v>
-      </c>
-      <c r="G72" s="43">
-        <v>50</v>
-      </c>
-      <c r="H72" s="43">
-        <v>9</v>
-      </c>
-      <c r="J72" s="43" t="s">
-        <v>158</v>
-      </c>
+      <c r="B72" t="s">
+        <v>165</v>
+      </c>
+      <c r="C72" t="s">
+        <v>177</v>
+      </c>
+      <c r="D72" t="s">
+        <v>159</v>
+      </c>
+      <c r="E72" t="s">
+        <v>153</v>
+      </c>
+      <c r="F72">
+        <v>11</v>
+      </c>
+      <c r="G72">
+        <v>50</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="J72"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B73" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="C73" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D73" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E73" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="F73" s="43">
-        <v>33</v>
-      </c>
-      <c r="G73" s="43">
-        <v>50</v>
-      </c>
-      <c r="H73" s="43">
-        <v>1</v>
-      </c>
+      <c r="B73" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73" t="s">
+        <v>180</v>
+      </c>
+      <c r="D73" t="s">
+        <v>202</v>
+      </c>
+      <c r="E73" t="s">
+        <v>153</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>50</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="J73"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B74" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="C74" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="D74" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E74" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="F74" s="43">
-        <v>1</v>
-      </c>
-      <c r="G74" s="43">
-        <v>50</v>
-      </c>
-      <c r="H74" s="43">
-        <v>1</v>
-      </c>
+      <c r="B74" t="s">
+        <v>165</v>
+      </c>
+      <c r="C74" t="s">
+        <v>192</v>
+      </c>
+      <c r="D74" t="s">
+        <v>202</v>
+      </c>
+      <c r="E74" t="s">
+        <v>153</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>50</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="J74"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B75" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="C75" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D75" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E75" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F75" s="43">
-        <v>1</v>
-      </c>
-      <c r="G75" s="43">
-        <v>50</v>
-      </c>
-      <c r="H75" s="43">
-        <v>9</v>
-      </c>
-      <c r="J75" s="43" t="s">
-        <v>158</v>
+      <c r="B75" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" t="s">
+        <v>210</v>
+      </c>
+      <c r="D75" t="s">
+        <v>202</v>
+      </c>
+      <c r="E75" t="s">
+        <v>200</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>50</v>
+      </c>
+      <c r="H75">
+        <v>9</v>
+      </c>
+      <c r="J75" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B76" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="C76" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D76" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E76" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="F76" s="43">
-        <v>1</v>
-      </c>
-      <c r="G76" s="43">
-        <v>50</v>
-      </c>
-      <c r="H76" s="43">
-        <v>1</v>
+      <c r="B76" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76" t="s">
+        <v>176</v>
+      </c>
+      <c r="D76" t="s">
+        <v>154</v>
+      </c>
+      <c r="E76" t="s">
+        <v>157</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>50</v>
+      </c>
+      <c r="H76">
+        <v>9</v>
+      </c>
+      <c r="J76" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C77" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="D77" s="43" t="s">
+      <c r="B77" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" t="s">
+        <v>176</v>
+      </c>
+      <c r="D77" t="s">
         <v>154</v>
       </c>
-      <c r="E77" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F77" s="43">
-        <v>1</v>
-      </c>
-      <c r="G77" s="43">
-        <v>50</v>
-      </c>
-      <c r="H77" s="43">
-        <v>9</v>
-      </c>
-      <c r="J77" s="43" t="s">
-        <v>161</v>
+      <c r="E77" t="s">
+        <v>200</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <v>50</v>
+      </c>
+      <c r="H77">
+        <v>9</v>
+      </c>
+      <c r="J77" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B78" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C78" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="D78" s="43" t="s">
+      <c r="B78" t="s">
+        <v>166</v>
+      </c>
+      <c r="C78" t="s">
+        <v>176</v>
+      </c>
+      <c r="D78" t="s">
         <v>154</v>
       </c>
-      <c r="E78" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F78" s="43">
-        <v>1</v>
-      </c>
-      <c r="G78" s="43">
-        <v>50</v>
-      </c>
-      <c r="H78" s="43">
-        <v>9</v>
-      </c>
-      <c r="J78" s="43" t="s">
-        <v>158</v>
-      </c>
+      <c r="E78" t="s">
+        <v>153</v>
+      </c>
+      <c r="F78">
+        <v>48</v>
+      </c>
+      <c r="G78">
+        <v>50</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="J78"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B79" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C79" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="D79" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E79" s="43" t="s">
+      <c r="B79" t="s">
+        <v>166</v>
+      </c>
+      <c r="C79" t="s">
+        <v>179</v>
+      </c>
+      <c r="D79" t="s">
+        <v>159</v>
+      </c>
+      <c r="E79" t="s">
+        <v>200</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>50</v>
+      </c>
+      <c r="H79">
+        <v>9</v>
+      </c>
+      <c r="J79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" s="43">
-        <v>1</v>
-      </c>
-      <c r="G79" s="43">
-        <v>50</v>
-      </c>
-      <c r="H79" s="43">
-        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B80" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C80" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D80" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E80" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F80" s="43">
-        <v>2</v>
-      </c>
-      <c r="G80" s="43">
-        <v>50</v>
-      </c>
-      <c r="H80" s="43">
-        <v>9</v>
-      </c>
-      <c r="J80" s="43" t="s">
-        <v>161</v>
-      </c>
+      <c r="B80" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" t="s">
+        <v>179</v>
+      </c>
+      <c r="D80" t="s">
+        <v>159</v>
+      </c>
+      <c r="E80" t="s">
+        <v>153</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>50</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="J80"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B81" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C81" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D81" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E81" s="43" t="s">
+      <c r="B81" t="s">
+        <v>166</v>
+      </c>
+      <c r="C81" t="s">
+        <v>177</v>
+      </c>
+      <c r="D81" t="s">
+        <v>159</v>
+      </c>
+      <c r="E81" t="s">
         <v>157</v>
       </c>
-      <c r="F81" s="43">
-        <v>1</v>
-      </c>
-      <c r="G81" s="43">
-        <v>50</v>
-      </c>
-      <c r="H81" s="43">
-        <v>9</v>
-      </c>
-      <c r="J81" s="43" t="s">
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>50</v>
+      </c>
+      <c r="H81">
+        <v>9</v>
+      </c>
+      <c r="J81" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5212,109 +5244,111 @@
       <c r="A82" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B82" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C82" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D82" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E82" s="43" t="s">
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" t="s">
+        <v>177</v>
+      </c>
+      <c r="D82" t="s">
+        <v>159</v>
+      </c>
+      <c r="E82" t="s">
+        <v>200</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>50</v>
+      </c>
+      <c r="H82">
+        <v>9</v>
+      </c>
+      <c r="J82" t="s">
         <v>155</v>
-      </c>
-      <c r="F82" s="43">
-        <v>34</v>
-      </c>
-      <c r="G82" s="43">
-        <v>50</v>
-      </c>
-      <c r="H82" s="43">
-        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B83" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C83" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="D83" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E83" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F83" s="43">
-        <v>1</v>
-      </c>
-      <c r="G83" s="43">
-        <v>50</v>
-      </c>
-      <c r="H83" s="43">
-        <v>9</v>
-      </c>
-      <c r="J83" s="43" t="s">
-        <v>158</v>
-      </c>
+      <c r="B83" t="s">
+        <v>166</v>
+      </c>
+      <c r="C83" t="s">
+        <v>177</v>
+      </c>
+      <c r="D83" t="s">
+        <v>159</v>
+      </c>
+      <c r="E83" t="s">
+        <v>153</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <v>50</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="J83"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B84" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C84" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="D84" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E84" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="F84" s="43">
-        <v>1</v>
-      </c>
-      <c r="G84" s="43">
-        <v>50</v>
-      </c>
-      <c r="H84" s="43">
-        <v>1</v>
-      </c>
+      <c r="B84" t="s">
+        <v>166</v>
+      </c>
+      <c r="C84" t="s">
+        <v>205</v>
+      </c>
+      <c r="D84" t="s">
+        <v>202</v>
+      </c>
+      <c r="E84" t="s">
+        <v>153</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>50</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="J84"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B85" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C85" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D85" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E85" s="43" t="s">
+      <c r="B85" t="s">
+        <v>167</v>
+      </c>
+      <c r="C85" t="s">
+        <v>175</v>
+      </c>
+      <c r="D85" t="s">
+        <v>202</v>
+      </c>
+      <c r="E85" t="s">
         <v>157</v>
       </c>
-      <c r="F85" s="43">
-        <v>7</v>
-      </c>
-      <c r="G85" s="43">
-        <v>50</v>
-      </c>
-      <c r="H85" s="43">
-        <v>9</v>
-      </c>
-      <c r="J85" s="43" t="s">
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>50</v>
+      </c>
+      <c r="H85">
+        <v>9</v>
+      </c>
+      <c r="J85" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5322,309 +5356,310 @@
       <c r="A86" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B86" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C86" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D86" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E86" s="43" t="s">
+      <c r="B86" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" t="s">
+        <v>175</v>
+      </c>
+      <c r="D86" t="s">
+        <v>202</v>
+      </c>
+      <c r="E86" t="s">
+        <v>200</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>50</v>
+      </c>
+      <c r="H86">
+        <v>9</v>
+      </c>
+      <c r="J86" t="s">
         <v>155</v>
-      </c>
-      <c r="F86" s="43">
-        <v>1</v>
-      </c>
-      <c r="G86" s="43">
-        <v>50</v>
-      </c>
-      <c r="H86" s="43">
-        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B87" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C87" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="D87" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E87" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F87" s="43">
-        <v>1</v>
-      </c>
-      <c r="G87" s="43">
-        <v>50</v>
-      </c>
-      <c r="H87" s="43">
-        <v>9</v>
-      </c>
-      <c r="J87" s="43" t="s">
-        <v>158</v>
-      </c>
+      <c r="B87" t="s">
+        <v>167</v>
+      </c>
+      <c r="C87" t="s">
+        <v>175</v>
+      </c>
+      <c r="D87" t="s">
+        <v>202</v>
+      </c>
+      <c r="E87" t="s">
+        <v>153</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>50</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="J87"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B88" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="C88" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="D88" s="43" t="s">
+      <c r="B88" t="s">
+        <v>167</v>
+      </c>
+      <c r="C88" t="s">
+        <v>176</v>
+      </c>
+      <c r="D88" t="s">
         <v>154</v>
       </c>
-      <c r="E88" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F88" s="43">
-        <v>1</v>
-      </c>
-      <c r="G88" s="43">
-        <v>50</v>
-      </c>
-      <c r="H88" s="43">
-        <v>9</v>
-      </c>
-      <c r="J88" s="43" t="s">
-        <v>161</v>
+      <c r="E88" t="s">
+        <v>157</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="G88">
+        <v>50</v>
+      </c>
+      <c r="H88">
+        <v>9</v>
+      </c>
+      <c r="J88" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B89" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="C89" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D89" s="43" t="s">
+      <c r="B89" t="s">
+        <v>167</v>
+      </c>
+      <c r="C89" t="s">
+        <v>176</v>
+      </c>
+      <c r="D89" t="s">
         <v>154</v>
       </c>
-      <c r="E89" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F89" s="43">
-        <v>2</v>
-      </c>
-      <c r="G89" s="43">
-        <v>50</v>
-      </c>
-      <c r="H89" s="43">
-        <v>9</v>
-      </c>
-      <c r="J89" s="43" t="s">
-        <v>158</v>
+      <c r="E89" t="s">
+        <v>200</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>50</v>
+      </c>
+      <c r="H89">
+        <v>9</v>
+      </c>
+      <c r="J89" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B90" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="C90" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D90" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E90" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F90" s="43">
-        <v>1</v>
-      </c>
-      <c r="G90" s="43">
-        <v>50</v>
-      </c>
-      <c r="H90" s="43">
-        <v>9</v>
-      </c>
-      <c r="J90" s="43" t="s">
-        <v>161</v>
-      </c>
+      <c r="B90" t="s">
+        <v>167</v>
+      </c>
+      <c r="C90" t="s">
+        <v>176</v>
+      </c>
+      <c r="D90" t="s">
+        <v>154</v>
+      </c>
+      <c r="E90" t="s">
+        <v>153</v>
+      </c>
+      <c r="F90">
+        <v>34</v>
+      </c>
+      <c r="G90">
+        <v>50</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="J90"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B91" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="C91" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D91" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E91" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F91" s="43">
-        <v>3</v>
-      </c>
-      <c r="G91" s="43">
-        <v>50</v>
-      </c>
-      <c r="H91" s="43">
-        <v>9</v>
-      </c>
-      <c r="J91" s="43" t="s">
-        <v>158</v>
+      <c r="B91" t="s">
+        <v>167</v>
+      </c>
+      <c r="C91" t="s">
+        <v>182</v>
+      </c>
+      <c r="D91" t="s">
+        <v>159</v>
+      </c>
+      <c r="E91" t="s">
+        <v>200</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>50</v>
+      </c>
+      <c r="H91">
+        <v>9</v>
+      </c>
+      <c r="J91" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B92" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="C92" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D92" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="F92" s="43">
-        <v>9</v>
-      </c>
-      <c r="G92" s="43">
-        <v>50</v>
-      </c>
-      <c r="H92" s="43">
-        <v>1</v>
-      </c>
+      <c r="B92" t="s">
+        <v>167</v>
+      </c>
+      <c r="C92" t="s">
+        <v>182</v>
+      </c>
+      <c r="D92" t="s">
+        <v>159</v>
+      </c>
+      <c r="E92" t="s">
+        <v>153</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>50</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="J92"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B93" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="C93" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D93" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E93" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F93" s="43">
-        <v>19</v>
-      </c>
-      <c r="G93" s="43">
-        <v>50</v>
-      </c>
-      <c r="H93" s="43">
-        <v>9</v>
-      </c>
-      <c r="J93" s="43" t="s">
-        <v>158</v>
+      <c r="B93" t="s">
+        <v>167</v>
+      </c>
+      <c r="C93" t="s">
+        <v>177</v>
+      </c>
+      <c r="D93" t="s">
+        <v>159</v>
+      </c>
+      <c r="E93" t="s">
+        <v>200</v>
+      </c>
+      <c r="F93">
+        <v>7</v>
+      </c>
+      <c r="G93">
+        <v>50</v>
+      </c>
+      <c r="H93">
+        <v>9</v>
+      </c>
+      <c r="J93" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B94" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="C94" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D94" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E94" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="F94" s="43">
-        <v>3</v>
-      </c>
-      <c r="G94" s="43">
-        <v>50</v>
-      </c>
-      <c r="H94" s="43">
-        <v>1</v>
-      </c>
+      <c r="B94" t="s">
+        <v>167</v>
+      </c>
+      <c r="C94" t="s">
+        <v>177</v>
+      </c>
+      <c r="D94" t="s">
+        <v>159</v>
+      </c>
+      <c r="E94" t="s">
+        <v>153</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>50</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="J94"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B95" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="C95" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="D95" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E95" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F95" s="43">
-        <v>1</v>
-      </c>
-      <c r="G95" s="43">
-        <v>50</v>
-      </c>
-      <c r="H95" s="43">
-        <v>9</v>
-      </c>
-      <c r="J95" s="43" t="s">
-        <v>161</v>
+      <c r="B95" t="s">
+        <v>167</v>
+      </c>
+      <c r="C95" t="s">
+        <v>190</v>
+      </c>
+      <c r="D95" t="s">
+        <v>202</v>
+      </c>
+      <c r="E95" t="s">
+        <v>200</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>50</v>
+      </c>
+      <c r="H95">
+        <v>9</v>
+      </c>
+      <c r="J95" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B96" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="C96" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="D96" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E96" s="43" t="s">
+      <c r="B96" t="s">
+        <v>168</v>
+      </c>
+      <c r="C96" t="s">
+        <v>175</v>
+      </c>
+      <c r="D96" t="s">
+        <v>202</v>
+      </c>
+      <c r="E96" t="s">
         <v>157</v>
       </c>
-      <c r="F96" s="43">
-        <v>1</v>
-      </c>
-      <c r="G96" s="43">
-        <v>50</v>
-      </c>
-      <c r="H96" s="43">
-        <v>9</v>
-      </c>
-      <c r="J96" s="43" t="s">
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>50</v>
+      </c>
+      <c r="H96">
+        <v>9</v>
+      </c>
+      <c r="J96" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5632,57 +5667,57 @@
       <c r="A97" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B97" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="C97" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D97" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E97" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F97" s="43">
-        <v>2</v>
-      </c>
-      <c r="G97" s="43">
-        <v>50</v>
-      </c>
-      <c r="H97" s="43">
-        <v>9</v>
-      </c>
-      <c r="J97" s="43" t="s">
-        <v>161</v>
+      <c r="B97" t="s">
+        <v>168</v>
+      </c>
+      <c r="C97" t="s">
+        <v>178</v>
+      </c>
+      <c r="D97" t="s">
+        <v>202</v>
+      </c>
+      <c r="E97" t="s">
+        <v>200</v>
+      </c>
+      <c r="F97">
+        <v>3</v>
+      </c>
+      <c r="G97">
+        <v>50</v>
+      </c>
+      <c r="H97">
+        <v>9</v>
+      </c>
+      <c r="J97" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B98" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="C98" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D98" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E98" s="43" t="s">
+      <c r="B98" t="s">
+        <v>168</v>
+      </c>
+      <c r="C98" t="s">
+        <v>176</v>
+      </c>
+      <c r="D98" t="s">
+        <v>154</v>
+      </c>
+      <c r="E98" t="s">
         <v>157</v>
       </c>
-      <c r="F98" s="43">
-        <v>3</v>
-      </c>
-      <c r="G98" s="43">
-        <v>50</v>
-      </c>
-      <c r="H98" s="43">
-        <v>9</v>
-      </c>
-      <c r="J98" s="43" t="s">
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>50</v>
+      </c>
+      <c r="H98">
+        <v>9</v>
+      </c>
+      <c r="J98" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5690,138 +5725,140 @@
       <c r="A99" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B99" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="C99" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D99" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E99" s="43" t="s">
+      <c r="B99" t="s">
+        <v>168</v>
+      </c>
+      <c r="C99" t="s">
+        <v>176</v>
+      </c>
+      <c r="D99" t="s">
+        <v>154</v>
+      </c>
+      <c r="E99" t="s">
+        <v>200</v>
+      </c>
+      <c r="F99">
+        <v>4</v>
+      </c>
+      <c r="G99">
+        <v>50</v>
+      </c>
+      <c r="H99">
+        <v>9</v>
+      </c>
+      <c r="J99" t="s">
         <v>155</v>
-      </c>
-      <c r="F99" s="43">
-        <v>10</v>
-      </c>
-      <c r="G99" s="43">
-        <v>50</v>
-      </c>
-      <c r="H99" s="43">
-        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B100" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="C100" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="D100" s="43" t="s">
+      <c r="B100" t="s">
+        <v>168</v>
+      </c>
+      <c r="C100" t="s">
+        <v>176</v>
+      </c>
+      <c r="D100" t="s">
         <v>154</v>
       </c>
-      <c r="E100" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="F100" s="43">
-        <v>1</v>
-      </c>
-      <c r="G100" s="43">
-        <v>50</v>
-      </c>
-      <c r="H100" s="43">
-        <v>1</v>
-      </c>
+      <c r="E100" t="s">
+        <v>153</v>
+      </c>
+      <c r="F100">
+        <v>62</v>
+      </c>
+      <c r="G100">
+        <v>50</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="J100"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B101" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="C101" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="D101" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E101" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F101" s="43">
-        <v>1</v>
-      </c>
-      <c r="G101" s="43">
-        <v>50</v>
-      </c>
-      <c r="H101" s="43">
-        <v>9</v>
-      </c>
-      <c r="J101" s="43" t="s">
-        <v>161</v>
+      <c r="B101" t="s">
+        <v>168</v>
+      </c>
+      <c r="C101" t="s">
+        <v>177</v>
+      </c>
+      <c r="D101" t="s">
+        <v>159</v>
+      </c>
+      <c r="E101" t="s">
+        <v>200</v>
+      </c>
+      <c r="F101">
+        <v>20</v>
+      </c>
+      <c r="G101">
+        <v>50</v>
+      </c>
+      <c r="H101">
+        <v>9</v>
+      </c>
+      <c r="J101" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B102" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="C102" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="D102" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E102" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F102" s="43">
-        <v>1</v>
-      </c>
-      <c r="G102" s="43">
-        <v>50</v>
-      </c>
-      <c r="H102" s="43">
-        <v>9</v>
-      </c>
-      <c r="J102" s="43" t="s">
-        <v>161</v>
-      </c>
+      <c r="B102" t="s">
+        <v>168</v>
+      </c>
+      <c r="C102" t="s">
+        <v>177</v>
+      </c>
+      <c r="D102" t="s">
+        <v>159</v>
+      </c>
+      <c r="E102" t="s">
+        <v>153</v>
+      </c>
+      <c r="F102">
+        <v>13</v>
+      </c>
+      <c r="G102">
+        <v>50</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="J102"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B103" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="C103" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D103" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E103" s="43" t="s">
+      <c r="B103" t="s">
+        <v>168</v>
+      </c>
+      <c r="C103" t="s">
+        <v>211</v>
+      </c>
+      <c r="D103" t="s">
+        <v>202</v>
+      </c>
+      <c r="E103" t="s">
         <v>157</v>
       </c>
-      <c r="F103" s="43">
-        <v>1</v>
-      </c>
-      <c r="G103" s="43">
-        <v>50</v>
-      </c>
-      <c r="H103" s="43">
-        <v>9</v>
-      </c>
-      <c r="J103" s="43" t="s">
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>50</v>
+      </c>
+      <c r="H103">
+        <v>9</v>
+      </c>
+      <c r="J103" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5829,83 +5866,86 @@
       <c r="A104" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B104" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="C104" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D104" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E104" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F104" s="43">
-        <v>1</v>
-      </c>
-      <c r="G104" s="43">
-        <v>50</v>
-      </c>
-      <c r="H104" s="43">
-        <v>9</v>
-      </c>
-      <c r="J104" s="43" t="s">
-        <v>161</v>
+      <c r="B104" t="s">
+        <v>168</v>
+      </c>
+      <c r="C104" t="s">
+        <v>212</v>
+      </c>
+      <c r="D104" t="s">
+        <v>202</v>
+      </c>
+      <c r="E104" t="s">
+        <v>157</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>50</v>
+      </c>
+      <c r="H104">
+        <v>9</v>
+      </c>
+      <c r="J104" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B105" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="C105" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D105" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E105" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="F105" s="43">
-        <v>7</v>
-      </c>
-      <c r="G105" s="43">
-        <v>50</v>
-      </c>
-      <c r="H105" s="43">
-        <v>1</v>
+      <c r="B105" t="s">
+        <v>168</v>
+      </c>
+      <c r="C105" t="s">
+        <v>207</v>
+      </c>
+      <c r="D105" t="s">
+        <v>202</v>
+      </c>
+      <c r="E105" t="s">
+        <v>157</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>50</v>
+      </c>
+      <c r="H105">
+        <v>9</v>
+      </c>
+      <c r="J105" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B106" s="43" t="s">
+      <c r="B106" t="s">
+        <v>169</v>
+      </c>
+      <c r="C106" t="s">
         <v>175</v>
       </c>
-      <c r="C106" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="D106" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E106" s="43" t="s">
+      <c r="D106" t="s">
+        <v>202</v>
+      </c>
+      <c r="E106" t="s">
         <v>157</v>
       </c>
-      <c r="F106" s="43">
-        <v>3</v>
-      </c>
-      <c r="G106" s="43">
-        <v>50</v>
-      </c>
-      <c r="H106" s="43">
-        <v>9</v>
-      </c>
-      <c r="J106" s="43" t="s">
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>50</v>
+      </c>
+      <c r="H106">
+        <v>9</v>
+      </c>
+      <c r="J106" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5913,83 +5953,86 @@
       <c r="A107" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B107" s="43" t="s">
+      <c r="B107" t="s">
+        <v>169</v>
+      </c>
+      <c r="C107" t="s">
         <v>175</v>
       </c>
-      <c r="C107" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D107" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E107" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F107" s="43">
+      <c r="D107" t="s">
+        <v>202</v>
+      </c>
+      <c r="E107" t="s">
+        <v>200</v>
+      </c>
+      <c r="F107">
         <v>2</v>
       </c>
-      <c r="G107" s="43">
-        <v>50</v>
-      </c>
-      <c r="H107" s="43">
-        <v>9</v>
-      </c>
-      <c r="J107" s="43" t="s">
-        <v>158</v>
+      <c r="G107">
+        <v>50</v>
+      </c>
+      <c r="H107">
+        <v>9</v>
+      </c>
+      <c r="J107" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B108" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="C108" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D108" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E108" s="43" t="s">
+      <c r="B108" t="s">
+        <v>169</v>
+      </c>
+      <c r="C108" t="s">
+        <v>178</v>
+      </c>
+      <c r="D108" t="s">
+        <v>202</v>
+      </c>
+      <c r="E108" t="s">
+        <v>200</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>50</v>
+      </c>
+      <c r="H108">
+        <v>9</v>
+      </c>
+      <c r="J108" t="s">
         <v>155</v>
-      </c>
-      <c r="F108" s="43">
-        <v>1</v>
-      </c>
-      <c r="G108" s="43">
-        <v>50</v>
-      </c>
-      <c r="H108" s="43">
-        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B109" s="43" t="s">
+      <c r="B109" t="s">
+        <v>169</v>
+      </c>
+      <c r="C109" t="s">
         <v>176</v>
       </c>
-      <c r="C109" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="D109" s="43" t="s">
+      <c r="D109" t="s">
         <v>154</v>
       </c>
-      <c r="E109" s="43" t="s">
+      <c r="E109" t="s">
         <v>157</v>
       </c>
-      <c r="F109" s="43">
-        <v>1</v>
-      </c>
-      <c r="G109" s="43">
-        <v>50</v>
-      </c>
-      <c r="H109" s="43">
-        <v>9</v>
-      </c>
-      <c r="J109" s="43" t="s">
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109">
+        <v>50</v>
+      </c>
+      <c r="H109">
+        <v>9</v>
+      </c>
+      <c r="J109" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5997,170 +6040,165 @@
       <c r="A110" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B110" s="43" t="s">
+      <c r="B110" t="s">
+        <v>169</v>
+      </c>
+      <c r="C110" t="s">
         <v>176</v>
       </c>
-      <c r="C110" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D110" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E110" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F110" s="43">
-        <v>2</v>
-      </c>
-      <c r="G110" s="43">
-        <v>50</v>
-      </c>
-      <c r="H110" s="43">
-        <v>9</v>
-      </c>
-      <c r="J110" s="43" t="s">
-        <v>161</v>
+      <c r="D110" t="s">
+        <v>154</v>
+      </c>
+      <c r="E110" t="s">
+        <v>200</v>
+      </c>
+      <c r="F110">
+        <v>6</v>
+      </c>
+      <c r="G110">
+        <v>50</v>
+      </c>
+      <c r="H110">
+        <v>9</v>
+      </c>
+      <c r="J110" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B111" s="43" t="s">
+      <c r="B111" t="s">
+        <v>169</v>
+      </c>
+      <c r="C111" t="s">
         <v>176</v>
       </c>
-      <c r="C111" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D111" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E111" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F111" s="43">
-        <v>6</v>
-      </c>
-      <c r="G111" s="43">
-        <v>50</v>
-      </c>
-      <c r="H111" s="43">
-        <v>9</v>
-      </c>
-      <c r="J111" s="43" t="s">
-        <v>158</v>
-      </c>
+      <c r="D111" t="s">
+        <v>154</v>
+      </c>
+      <c r="E111" t="s">
+        <v>153</v>
+      </c>
+      <c r="F111">
+        <v>29</v>
+      </c>
+      <c r="G111">
+        <v>50</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="J111"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B112" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="C112" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D112" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E112" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="F112" s="43">
-        <v>44</v>
-      </c>
-      <c r="G112" s="43">
-        <v>50</v>
-      </c>
-      <c r="H112" s="43">
-        <v>1</v>
-      </c>
+      <c r="B112" t="s">
+        <v>169</v>
+      </c>
+      <c r="C112" t="s">
+        <v>182</v>
+      </c>
+      <c r="D112" t="s">
+        <v>159</v>
+      </c>
+      <c r="E112" t="s">
+        <v>153</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>50</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="J112"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B113" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="C113" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D113" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E113" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F113" s="43">
-        <v>3</v>
-      </c>
-      <c r="G113" s="43">
-        <v>50</v>
-      </c>
-      <c r="H113" s="43">
-        <v>9</v>
-      </c>
-      <c r="J113" s="43" t="s">
-        <v>158</v>
-      </c>
+      <c r="B113" t="s">
+        <v>169</v>
+      </c>
+      <c r="C113" t="s">
+        <v>177</v>
+      </c>
+      <c r="D113" t="s">
+        <v>159</v>
+      </c>
+      <c r="E113" t="s">
+        <v>153</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>50</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="J113"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B114" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="C114" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="D114" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E114" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F114" s="43">
-        <v>1</v>
-      </c>
-      <c r="G114" s="43">
-        <v>50</v>
-      </c>
-      <c r="H114" s="43">
-        <v>9</v>
-      </c>
-      <c r="J114" s="43" t="s">
-        <v>161</v>
-      </c>
+      <c r="B114" t="s">
+        <v>169</v>
+      </c>
+      <c r="C114" t="s">
+        <v>181</v>
+      </c>
+      <c r="D114" t="s">
+        <v>202</v>
+      </c>
+      <c r="E114" t="s">
+        <v>153</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>50</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="J114"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B115" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="C115" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="D115" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E115" s="43" t="s">
+      <c r="B115" t="s">
+        <v>169</v>
+      </c>
+      <c r="C115" t="s">
+        <v>191</v>
+      </c>
+      <c r="D115" t="s">
+        <v>202</v>
+      </c>
+      <c r="E115" t="s">
         <v>157</v>
       </c>
-      <c r="F115" s="43">
-        <v>3</v>
-      </c>
-      <c r="G115" s="43">
-        <v>50</v>
-      </c>
-      <c r="H115" s="43">
-        <v>9</v>
-      </c>
-      <c r="J115" s="43" t="s">
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>50</v>
+      </c>
+      <c r="H115">
+        <v>9</v>
+      </c>
+      <c r="J115" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6168,419 +6206,426 @@
       <c r="A116" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B116" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="C116" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D116" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E116" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F116" s="43">
-        <v>1</v>
-      </c>
-      <c r="G116" s="43">
-        <v>50</v>
-      </c>
-      <c r="H116" s="43">
-        <v>9</v>
-      </c>
-      <c r="J116" s="43" t="s">
-        <v>161</v>
+      <c r="B116" t="s">
+        <v>169</v>
+      </c>
+      <c r="C116" t="s">
+        <v>188</v>
+      </c>
+      <c r="D116" t="s">
+        <v>202</v>
+      </c>
+      <c r="E116" t="s">
+        <v>157</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>50</v>
+      </c>
+      <c r="H116">
+        <v>9</v>
+      </c>
+      <c r="J116" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B117" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="C117" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D117" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E117" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F117" s="43">
-        <v>6</v>
-      </c>
-      <c r="G117" s="43">
-        <v>50</v>
-      </c>
-      <c r="H117" s="43">
-        <v>9</v>
-      </c>
-      <c r="J117" s="43" t="s">
-        <v>158</v>
+      <c r="B117" t="s">
+        <v>170</v>
+      </c>
+      <c r="C117" t="s">
+        <v>175</v>
+      </c>
+      <c r="D117" t="s">
+        <v>202</v>
+      </c>
+      <c r="E117" t="s">
+        <v>200</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>50</v>
+      </c>
+      <c r="H117">
+        <v>9</v>
+      </c>
+      <c r="J117" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B118" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="C118" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D118" s="43" t="s">
+      <c r="B118" t="s">
+        <v>170</v>
+      </c>
+      <c r="C118" t="s">
+        <v>176</v>
+      </c>
+      <c r="D118" t="s">
         <v>154</v>
       </c>
-      <c r="E118" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="F118" s="43">
+      <c r="E118" t="s">
+        <v>157</v>
+      </c>
+      <c r="F118">
         <v>2</v>
       </c>
-      <c r="G118" s="43">
-        <v>50</v>
-      </c>
-      <c r="H118" s="43">
-        <v>1</v>
+      <c r="G118">
+        <v>50</v>
+      </c>
+      <c r="H118">
+        <v>9</v>
+      </c>
+      <c r="J118" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B119" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="C119" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D119" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E119" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F119" s="43">
+      <c r="B119" t="s">
+        <v>170</v>
+      </c>
+      <c r="C119" t="s">
+        <v>176</v>
+      </c>
+      <c r="D119" t="s">
+        <v>154</v>
+      </c>
+      <c r="E119" t="s">
+        <v>200</v>
+      </c>
+      <c r="F119">
         <v>7</v>
       </c>
-      <c r="G119" s="43">
-        <v>50</v>
-      </c>
-      <c r="H119" s="43">
-        <v>9</v>
-      </c>
-      <c r="J119" s="43" t="s">
-        <v>161</v>
+      <c r="G119">
+        <v>50</v>
+      </c>
+      <c r="H119">
+        <v>9</v>
+      </c>
+      <c r="J119" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B120" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="C120" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D120" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E120" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F120" s="43">
-        <v>7</v>
-      </c>
-      <c r="G120" s="43">
-        <v>50</v>
-      </c>
-      <c r="H120" s="43">
-        <v>9</v>
-      </c>
-      <c r="J120" s="43" t="s">
-        <v>158</v>
-      </c>
+      <c r="B120" t="s">
+        <v>170</v>
+      </c>
+      <c r="C120" t="s">
+        <v>176</v>
+      </c>
+      <c r="D120" t="s">
+        <v>154</v>
+      </c>
+      <c r="E120" t="s">
+        <v>153</v>
+      </c>
+      <c r="F120">
+        <v>57</v>
+      </c>
+      <c r="G120">
+        <v>50</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="J120"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B121" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="C121" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D121" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E121" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="F121" s="43">
-        <v>12</v>
-      </c>
-      <c r="G121" s="43">
-        <v>50</v>
-      </c>
-      <c r="H121" s="43">
-        <v>1</v>
-      </c>
+      <c r="B121" t="s">
+        <v>170</v>
+      </c>
+      <c r="C121" t="s">
+        <v>204</v>
+      </c>
+      <c r="D121" t="s">
+        <v>159</v>
+      </c>
+      <c r="E121" t="s">
+        <v>153</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>50</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="J121"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B122" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="C122" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D122" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E122" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F122" s="43">
-        <v>1</v>
-      </c>
-      <c r="G122" s="43">
-        <v>50</v>
-      </c>
-      <c r="H122" s="43">
-        <v>9</v>
-      </c>
-      <c r="J122" s="43" t="s">
-        <v>161</v>
+      <c r="B122" t="s">
+        <v>170</v>
+      </c>
+      <c r="C122" t="s">
+        <v>177</v>
+      </c>
+      <c r="D122" t="s">
+        <v>159</v>
+      </c>
+      <c r="E122" t="s">
+        <v>200</v>
+      </c>
+      <c r="F122">
+        <v>3</v>
+      </c>
+      <c r="G122">
+        <v>50</v>
+      </c>
+      <c r="H122">
+        <v>9</v>
+      </c>
+      <c r="J122" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B123" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="C123" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D123" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E123" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F123" s="43">
-        <v>1</v>
-      </c>
-      <c r="G123" s="43">
-        <v>50</v>
-      </c>
-      <c r="H123" s="43">
-        <v>9</v>
-      </c>
-      <c r="J123" s="43" t="s">
-        <v>158</v>
-      </c>
+      <c r="B123" t="s">
+        <v>170</v>
+      </c>
+      <c r="C123" t="s">
+        <v>177</v>
+      </c>
+      <c r="D123" t="s">
+        <v>159</v>
+      </c>
+      <c r="E123" t="s">
+        <v>153</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>50</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="J123"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B124" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="C124" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D124" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E124" s="43" t="s">
+      <c r="B124" t="s">
+        <v>170</v>
+      </c>
+      <c r="C124" t="s">
+        <v>188</v>
+      </c>
+      <c r="D124" t="s">
+        <v>202</v>
+      </c>
+      <c r="E124" t="s">
+        <v>200</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>50</v>
+      </c>
+      <c r="H124">
+        <v>9</v>
+      </c>
+      <c r="J124" t="s">
         <v>155</v>
-      </c>
-      <c r="F124" s="43">
-        <v>14</v>
-      </c>
-      <c r="G124" s="43">
-        <v>50</v>
-      </c>
-      <c r="H124" s="43">
-        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B125" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="C125" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D125" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E125" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F125" s="43">
-        <v>1</v>
-      </c>
-      <c r="G125" s="43">
-        <v>50</v>
-      </c>
-      <c r="H125" s="43">
-        <v>9</v>
-      </c>
-      <c r="J125" s="43" t="s">
-        <v>161</v>
+      <c r="B125" t="s">
+        <v>171</v>
+      </c>
+      <c r="C125" t="s">
+        <v>175</v>
+      </c>
+      <c r="D125" t="s">
+        <v>202</v>
+      </c>
+      <c r="E125" t="s">
+        <v>157</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>50</v>
+      </c>
+      <c r="H125">
+        <v>9</v>
+      </c>
+      <c r="J125" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B126" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="C126" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D126" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E126" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F126" s="43">
-        <v>5</v>
-      </c>
-      <c r="G126" s="43">
-        <v>50</v>
-      </c>
-      <c r="H126" s="43">
-        <v>9</v>
-      </c>
-      <c r="J126" s="43" t="s">
-        <v>158</v>
+      <c r="B126" t="s">
+        <v>171</v>
+      </c>
+      <c r="C126" t="s">
+        <v>175</v>
+      </c>
+      <c r="D126" t="s">
+        <v>202</v>
+      </c>
+      <c r="E126" t="s">
+        <v>200</v>
+      </c>
+      <c r="F126">
+        <v>3</v>
+      </c>
+      <c r="G126">
+        <v>50</v>
+      </c>
+      <c r="H126">
+        <v>9</v>
+      </c>
+      <c r="J126" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B127" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="C127" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D127" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E127" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="F127" s="43">
-        <v>10</v>
-      </c>
-      <c r="G127" s="43">
-        <v>50</v>
-      </c>
-      <c r="H127" s="43">
-        <v>1</v>
+      <c r="B127" t="s">
+        <v>171</v>
+      </c>
+      <c r="C127" t="s">
+        <v>178</v>
+      </c>
+      <c r="D127" t="s">
+        <v>202</v>
+      </c>
+      <c r="E127" t="s">
+        <v>157</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>50</v>
+      </c>
+      <c r="H127">
+        <v>9</v>
+      </c>
+      <c r="J127" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B128" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="C128" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="D128" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E128" s="43" t="s">
+      <c r="B128" t="s">
+        <v>171</v>
+      </c>
+      <c r="C128" t="s">
+        <v>178</v>
+      </c>
+      <c r="D128" t="s">
+        <v>202</v>
+      </c>
+      <c r="E128" t="s">
+        <v>200</v>
+      </c>
+      <c r="F128">
+        <v>6</v>
+      </c>
+      <c r="G128">
+        <v>50</v>
+      </c>
+      <c r="H128">
+        <v>9</v>
+      </c>
+      <c r="J128" t="s">
         <v>155</v>
-      </c>
-      <c r="F128" s="43">
-        <v>2</v>
-      </c>
-      <c r="G128" s="43">
-        <v>50</v>
-      </c>
-      <c r="H128" s="43">
-        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B129" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="C129" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="D129" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E129" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F129" s="43">
-        <v>1</v>
-      </c>
-      <c r="G129" s="43">
-        <v>50</v>
-      </c>
-      <c r="H129" s="43">
-        <v>9</v>
-      </c>
-      <c r="J129" s="43" t="s">
-        <v>158</v>
-      </c>
+      <c r="B129" t="s">
+        <v>171</v>
+      </c>
+      <c r="C129" t="s">
+        <v>178</v>
+      </c>
+      <c r="D129" t="s">
+        <v>202</v>
+      </c>
+      <c r="E129" t="s">
+        <v>153</v>
+      </c>
+      <c r="F129">
+        <v>2</v>
+      </c>
+      <c r="G129">
+        <v>50</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="J129"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B130" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="C130" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="D130" s="43" t="s">
+      <c r="B130" t="s">
+        <v>171</v>
+      </c>
+      <c r="C130" t="s">
+        <v>176</v>
+      </c>
+      <c r="D130" t="s">
         <v>154</v>
       </c>
-      <c r="E130" s="43" t="s">
+      <c r="E130" t="s">
         <v>157</v>
       </c>
-      <c r="F130" s="43">
-        <v>3</v>
-      </c>
-      <c r="G130" s="43">
-        <v>50</v>
-      </c>
-      <c r="H130" s="43">
-        <v>9</v>
-      </c>
-      <c r="J130" s="43" t="s">
+      <c r="F130">
+        <v>7</v>
+      </c>
+      <c r="G130">
+        <v>50</v>
+      </c>
+      <c r="H130">
+        <v>9</v>
+      </c>
+      <c r="J130" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6588,141 +6633,142 @@
       <c r="A131" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B131" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="C131" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D131" s="43" t="s">
+      <c r="B131" t="s">
+        <v>171</v>
+      </c>
+      <c r="C131" t="s">
+        <v>176</v>
+      </c>
+      <c r="D131" t="s">
         <v>154</v>
       </c>
-      <c r="E131" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F131" s="43">
-        <v>1</v>
-      </c>
-      <c r="G131" s="43">
-        <v>50</v>
-      </c>
-      <c r="H131" s="43">
-        <v>9</v>
-      </c>
-      <c r="J131" s="43" t="s">
-        <v>161</v>
+      <c r="E131" t="s">
+        <v>200</v>
+      </c>
+      <c r="F131">
+        <v>7</v>
+      </c>
+      <c r="G131">
+        <v>50</v>
+      </c>
+      <c r="H131">
+        <v>9</v>
+      </c>
+      <c r="J131" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B132" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="C132" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D132" s="43" t="s">
+      <c r="B132" t="s">
+        <v>171</v>
+      </c>
+      <c r="C132" t="s">
+        <v>176</v>
+      </c>
+      <c r="D132" t="s">
         <v>154</v>
       </c>
-      <c r="E132" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F132" s="43">
-        <v>1</v>
-      </c>
-      <c r="G132" s="43">
-        <v>50</v>
-      </c>
-      <c r="H132" s="43">
-        <v>9</v>
-      </c>
-      <c r="J132" s="43" t="s">
-        <v>158</v>
-      </c>
+      <c r="E132" t="s">
+        <v>153</v>
+      </c>
+      <c r="F132">
+        <v>27</v>
+      </c>
+      <c r="G132">
+        <v>50</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="J132"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B133" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="C133" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D133" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E133" s="43" t="s">
+      <c r="B133" t="s">
+        <v>171</v>
+      </c>
+      <c r="C133" t="s">
+        <v>182</v>
+      </c>
+      <c r="D133" t="s">
+        <v>159</v>
+      </c>
+      <c r="E133" t="s">
+        <v>200</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>50</v>
+      </c>
+      <c r="H133">
+        <v>9</v>
+      </c>
+      <c r="J133" t="s">
         <v>155</v>
-      </c>
-      <c r="F133" s="43">
-        <v>2</v>
-      </c>
-      <c r="G133" s="43">
-        <v>50</v>
-      </c>
-      <c r="H133" s="43">
-        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B134" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="C134" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D134" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E134" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F134" s="43">
-        <v>1</v>
-      </c>
-      <c r="G134" s="43">
-        <v>50</v>
-      </c>
-      <c r="H134" s="43">
-        <v>9</v>
-      </c>
-      <c r="J134" s="43" t="s">
-        <v>161</v>
+      <c r="B134" t="s">
+        <v>171</v>
+      </c>
+      <c r="C134" t="s">
+        <v>179</v>
+      </c>
+      <c r="D134" t="s">
+        <v>159</v>
+      </c>
+      <c r="E134" t="s">
+        <v>157</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>50</v>
+      </c>
+      <c r="H134">
+        <v>9</v>
+      </c>
+      <c r="J134" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B135" s="43" t="s">
+      <c r="B135" t="s">
+        <v>171</v>
+      </c>
+      <c r="C135" t="s">
         <v>180</v>
       </c>
-      <c r="C135" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D135" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E135" s="43" t="s">
+      <c r="D135" t="s">
+        <v>202</v>
+      </c>
+      <c r="E135" t="s">
         <v>157</v>
       </c>
-      <c r="F135" s="43">
-        <v>6</v>
-      </c>
-      <c r="G135" s="43">
-        <v>50</v>
-      </c>
-      <c r="H135" s="43">
-        <v>9</v>
-      </c>
-      <c r="J135" s="43" t="s">
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>50</v>
+      </c>
+      <c r="H135">
+        <v>9</v>
+      </c>
+      <c r="J135" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6730,190 +6776,198 @@
       <c r="A136" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B136" s="43" t="s">
+      <c r="B136" t="s">
+        <v>171</v>
+      </c>
+      <c r="C136" t="s">
         <v>180</v>
       </c>
-      <c r="C136" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D136" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E136" s="43" t="s">
+      <c r="D136" t="s">
+        <v>202</v>
+      </c>
+      <c r="E136" t="s">
+        <v>200</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>50</v>
+      </c>
+      <c r="H136">
+        <v>9</v>
+      </c>
+      <c r="J136" t="s">
         <v>155</v>
-      </c>
-      <c r="F136" s="43">
-        <v>14</v>
-      </c>
-      <c r="G136" s="43">
-        <v>50</v>
-      </c>
-      <c r="H136" s="43">
-        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B137" s="43" t="s">
+      <c r="B137" t="s">
+        <v>171</v>
+      </c>
+      <c r="C137" t="s">
         <v>180</v>
       </c>
-      <c r="C137" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D137" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E137" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="F137" s="43">
-        <v>1</v>
-      </c>
-      <c r="G137" s="43">
-        <v>50</v>
-      </c>
-      <c r="H137" s="43">
-        <v>1</v>
-      </c>
+      <c r="D137" t="s">
+        <v>202</v>
+      </c>
+      <c r="E137" t="s">
+        <v>153</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>50</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="J137"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B138" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="C138" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="D138" s="43" t="s">
+      <c r="B138" t="s">
+        <v>172</v>
+      </c>
+      <c r="C138" t="s">
+        <v>176</v>
+      </c>
+      <c r="D138" t="s">
         <v>154</v>
       </c>
-      <c r="E138" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="F138" s="43">
-        <v>1</v>
-      </c>
-      <c r="G138" s="43">
-        <v>50</v>
-      </c>
-      <c r="H138" s="43">
-        <v>1</v>
+      <c r="E138" t="s">
+        <v>157</v>
+      </c>
+      <c r="F138">
+        <v>2</v>
+      </c>
+      <c r="G138">
+        <v>50</v>
+      </c>
+      <c r="H138">
+        <v>9</v>
+      </c>
+      <c r="J138" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B139" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="C139" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D139" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E139" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F139" s="43">
-        <v>1</v>
-      </c>
-      <c r="G139" s="43">
-        <v>50</v>
-      </c>
-      <c r="H139" s="43">
-        <v>9</v>
-      </c>
-      <c r="J139" s="43" t="s">
-        <v>161</v>
+      <c r="B139" t="s">
+        <v>172</v>
+      </c>
+      <c r="C139" t="s">
+        <v>176</v>
+      </c>
+      <c r="D139" t="s">
+        <v>154</v>
+      </c>
+      <c r="E139" t="s">
+        <v>200</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <v>50</v>
+      </c>
+      <c r="H139">
+        <v>9</v>
+      </c>
+      <c r="J139" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B140" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="C140" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D140" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E140" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F140" s="43">
-        <v>2</v>
-      </c>
-      <c r="G140" s="43">
-        <v>50</v>
-      </c>
-      <c r="H140" s="43">
-        <v>9</v>
-      </c>
-      <c r="J140" s="43" t="s">
-        <v>158</v>
-      </c>
+      <c r="B140" t="s">
+        <v>172</v>
+      </c>
+      <c r="C140" t="s">
+        <v>176</v>
+      </c>
+      <c r="D140" t="s">
+        <v>154</v>
+      </c>
+      <c r="E140" t="s">
+        <v>153</v>
+      </c>
+      <c r="F140">
+        <v>35</v>
+      </c>
+      <c r="G140">
+        <v>50</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="J140"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B141" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="C141" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D141" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E141" s="43" t="s">
+      <c r="B141" t="s">
+        <v>173</v>
+      </c>
+      <c r="C141" t="s">
+        <v>175</v>
+      </c>
+      <c r="D141" t="s">
+        <v>202</v>
+      </c>
+      <c r="E141" t="s">
+        <v>200</v>
+      </c>
+      <c r="F141">
+        <v>5</v>
+      </c>
+      <c r="G141">
+        <v>50</v>
+      </c>
+      <c r="H141">
+        <v>9</v>
+      </c>
+      <c r="J141" t="s">
         <v>155</v>
-      </c>
-      <c r="F141" s="43">
-        <v>4</v>
-      </c>
-      <c r="G141" s="43">
-        <v>50</v>
-      </c>
-      <c r="H141" s="43">
-        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B142" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="C142" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D142" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E142" s="43" t="s">
+      <c r="B142" t="s">
+        <v>173</v>
+      </c>
+      <c r="C142" t="s">
+        <v>178</v>
+      </c>
+      <c r="D142" t="s">
+        <v>202</v>
+      </c>
+      <c r="E142" t="s">
         <v>157</v>
       </c>
-      <c r="F142" s="43">
-        <v>1</v>
-      </c>
-      <c r="G142" s="43">
-        <v>50</v>
-      </c>
-      <c r="H142" s="43">
-        <v>9</v>
-      </c>
-      <c r="J142" s="43" t="s">
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>50</v>
+      </c>
+      <c r="H142">
+        <v>9</v>
+      </c>
+      <c r="J142" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6921,83 +6975,84 @@
       <c r="A143" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B143" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="C143" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D143" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E143" s="43" t="s">
+      <c r="B143" t="s">
+        <v>173</v>
+      </c>
+      <c r="C143" t="s">
+        <v>178</v>
+      </c>
+      <c r="D143" t="s">
+        <v>202</v>
+      </c>
+      <c r="E143" t="s">
+        <v>200</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>50</v>
+      </c>
+      <c r="H143">
+        <v>9</v>
+      </c>
+      <c r="J143" t="s">
         <v>155</v>
-      </c>
-      <c r="F143" s="43">
-        <v>1</v>
-      </c>
-      <c r="G143" s="43">
-        <v>50</v>
-      </c>
-      <c r="H143" s="43">
-        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B144" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="C144" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D144" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E144" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F144" s="43">
-        <v>3</v>
-      </c>
-      <c r="G144" s="43">
-        <v>50</v>
-      </c>
-      <c r="H144" s="43">
-        <v>9</v>
-      </c>
-      <c r="J144" s="43" t="s">
-        <v>161</v>
-      </c>
+      <c r="B144" t="s">
+        <v>173</v>
+      </c>
+      <c r="C144" t="s">
+        <v>178</v>
+      </c>
+      <c r="D144" t="s">
+        <v>202</v>
+      </c>
+      <c r="E144" t="s">
+        <v>153</v>
+      </c>
+      <c r="F144">
+        <v>4</v>
+      </c>
+      <c r="G144">
+        <v>50</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="J144"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B145" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="C145" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D145" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E145" s="43" t="s">
+      <c r="B145" t="s">
+        <v>173</v>
+      </c>
+      <c r="C145" t="s">
+        <v>176</v>
+      </c>
+      <c r="D145" t="s">
+        <v>154</v>
+      </c>
+      <c r="E145" t="s">
         <v>157</v>
       </c>
-      <c r="F145" s="43">
-        <v>4</v>
-      </c>
-      <c r="G145" s="43">
-        <v>50</v>
-      </c>
-      <c r="H145" s="43">
-        <v>9</v>
-      </c>
-      <c r="J145" s="43" t="s">
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <v>50</v>
+      </c>
+      <c r="H145">
+        <v>9</v>
+      </c>
+      <c r="J145" t="s">
         <v>158</v>
       </c>
     </row>
@@ -7005,82 +7060,447 @@
       <c r="A146" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B146" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="C146" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D146" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E146" s="43" t="s">
+      <c r="B146" t="s">
+        <v>173</v>
+      </c>
+      <c r="C146" t="s">
+        <v>176</v>
+      </c>
+      <c r="D146" t="s">
+        <v>154</v>
+      </c>
+      <c r="E146" t="s">
+        <v>200</v>
+      </c>
+      <c r="F146">
+        <v>6</v>
+      </c>
+      <c r="G146">
+        <v>50</v>
+      </c>
+      <c r="H146">
+        <v>9</v>
+      </c>
+      <c r="J146" t="s">
         <v>155</v>
-      </c>
-      <c r="F146" s="43">
-        <v>9</v>
-      </c>
-      <c r="G146" s="43">
-        <v>50</v>
-      </c>
-      <c r="H146" s="43">
-        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B147" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="C147" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D147" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E147" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F147" s="43">
-        <v>6</v>
-      </c>
-      <c r="G147" s="43">
-        <v>50</v>
-      </c>
-      <c r="H147" s="43">
-        <v>9</v>
-      </c>
-      <c r="J147" s="43" t="s">
-        <v>158</v>
-      </c>
+      <c r="B147" t="s">
+        <v>173</v>
+      </c>
+      <c r="C147" t="s">
+        <v>176</v>
+      </c>
+      <c r="D147" t="s">
+        <v>154</v>
+      </c>
+      <c r="E147" t="s">
+        <v>153</v>
+      </c>
+      <c r="F147">
+        <v>59</v>
+      </c>
+      <c r="G147">
+        <v>50</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="J147"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B148" s="43" t="s">
+      <c r="B148" t="s">
+        <v>173</v>
+      </c>
+      <c r="C148" t="s">
+        <v>177</v>
+      </c>
+      <c r="D148" t="s">
+        <v>159</v>
+      </c>
+      <c r="E148" t="s">
+        <v>153</v>
+      </c>
+      <c r="F148">
+        <v>3</v>
+      </c>
+      <c r="G148">
+        <v>50</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="J148"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149" t="s">
+        <v>173</v>
+      </c>
+      <c r="C149" t="s">
+        <v>213</v>
+      </c>
+      <c r="D149" t="s">
+        <v>202</v>
+      </c>
+      <c r="E149" t="s">
+        <v>200</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>50</v>
+      </c>
+      <c r="H149">
+        <v>9</v>
+      </c>
+      <c r="J149" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B150" t="s">
+        <v>173</v>
+      </c>
+      <c r="C150" t="s">
+        <v>181</v>
+      </c>
+      <c r="D150" t="s">
+        <v>202</v>
+      </c>
+      <c r="E150" t="s">
+        <v>153</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>50</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="J150"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151" t="s">
+        <v>173</v>
+      </c>
+      <c r="C151" t="s">
+        <v>192</v>
+      </c>
+      <c r="D151" t="s">
+        <v>202</v>
+      </c>
+      <c r="E151" t="s">
+        <v>153</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>50</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="J151"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" t="s">
+        <v>174</v>
+      </c>
+      <c r="C152" t="s">
+        <v>175</v>
+      </c>
+      <c r="D152" t="s">
+        <v>202</v>
+      </c>
+      <c r="E152" t="s">
+        <v>200</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>50</v>
+      </c>
+      <c r="H152">
+        <v>9</v>
+      </c>
+      <c r="J152" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>174</v>
+      </c>
+      <c r="C153" t="s">
+        <v>178</v>
+      </c>
+      <c r="D153" t="s">
+        <v>202</v>
+      </c>
+      <c r="E153" t="s">
+        <v>200</v>
+      </c>
+      <c r="F153">
+        <v>6</v>
+      </c>
+      <c r="G153">
+        <v>50</v>
+      </c>
+      <c r="H153">
+        <v>9</v>
+      </c>
+      <c r="J153" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>174</v>
+      </c>
+      <c r="C154" t="s">
+        <v>178</v>
+      </c>
+      <c r="D154" t="s">
+        <v>202</v>
+      </c>
+      <c r="E154" t="s">
+        <v>153</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>50</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="J154"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B155" t="s">
+        <v>174</v>
+      </c>
+      <c r="C155" t="s">
+        <v>176</v>
+      </c>
+      <c r="D155" t="s">
+        <v>154</v>
+      </c>
+      <c r="E155" t="s">
+        <v>157</v>
+      </c>
+      <c r="F155">
+        <v>3</v>
+      </c>
+      <c r="G155">
+        <v>50</v>
+      </c>
+      <c r="H155">
+        <v>9</v>
+      </c>
+      <c r="J155" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B156" t="s">
+        <v>174</v>
+      </c>
+      <c r="C156" t="s">
+        <v>176</v>
+      </c>
+      <c r="D156" t="s">
+        <v>154</v>
+      </c>
+      <c r="E156" t="s">
+        <v>200</v>
+      </c>
+      <c r="F156">
+        <v>6</v>
+      </c>
+      <c r="G156">
+        <v>50</v>
+      </c>
+      <c r="H156">
+        <v>9</v>
+      </c>
+      <c r="J156" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B157" t="s">
+        <v>174</v>
+      </c>
+      <c r="C157" t="s">
+        <v>176</v>
+      </c>
+      <c r="D157" t="s">
+        <v>154</v>
+      </c>
+      <c r="E157" t="s">
+        <v>153</v>
+      </c>
+      <c r="F157">
+        <v>18</v>
+      </c>
+      <c r="G157">
+        <v>50</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="J157"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B158" t="s">
+        <v>174</v>
+      </c>
+      <c r="C158" t="s">
         <v>182</v>
       </c>
-      <c r="C148" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D148" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E148" s="43" t="s">
+      <c r="D158" t="s">
+        <v>159</v>
+      </c>
+      <c r="E158" t="s">
+        <v>153</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>50</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="J158"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B159" t="s">
+        <v>174</v>
+      </c>
+      <c r="C159" t="s">
+        <v>179</v>
+      </c>
+      <c r="D159" t="s">
+        <v>159</v>
+      </c>
+      <c r="E159" t="s">
+        <v>153</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159">
+        <v>50</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="J159"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B160" t="s">
+        <v>174</v>
+      </c>
+      <c r="C160" t="s">
+        <v>177</v>
+      </c>
+      <c r="D160" t="s">
+        <v>159</v>
+      </c>
+      <c r="E160" t="s">
+        <v>200</v>
+      </c>
+      <c r="F160">
+        <v>6</v>
+      </c>
+      <c r="G160">
+        <v>50</v>
+      </c>
+      <c r="H160">
+        <v>9</v>
+      </c>
+      <c r="J160" t="s">
         <v>155</v>
       </c>
-      <c r="F148" s="43">
-        <v>3</v>
-      </c>
-      <c r="G148" s="43">
-        <v>50</v>
-      </c>
-      <c r="H148" s="43">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B161" t="s">
+        <v>174</v>
+      </c>
+      <c r="C161" t="s">
+        <v>177</v>
+      </c>
+      <c r="D161" t="s">
+        <v>159</v>
+      </c>
+      <c r="E161" t="s">
+        <v>153</v>
+      </c>
+      <c r="F161">
+        <v>8</v>
+      </c>
+      <c r="G161">
+        <v>50</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="J161"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -7096,7 +7516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMH33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AB20" sqref="AB20"/>
     </sheetView>
   </sheetViews>
@@ -7148,173 +7568,173 @@
     <col min="71" max="1022" width="11.5546875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="63" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:56" s="61" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="51" t="s">
+      <c r="K1" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="N1" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="O1" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="P1" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="52" t="s">
+      <c r="Q1" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="52" t="s">
+      <c r="R1" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="52" t="s">
+      <c r="S1" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="52" t="s">
+      <c r="T1" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="53" t="s">
+      <c r="U1" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="V1" s="53" t="s">
+      <c r="V1" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="W1" s="53" t="s">
+      <c r="W1" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="X1" s="54" t="s">
+      <c r="X1" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="Y1" s="54" t="s">
+      <c r="Y1" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="Z1" s="55" t="s">
+      <c r="Z1" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="56" t="s">
+      <c r="AA1" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="AB1" s="56" t="s">
-        <v>206</v>
-      </c>
-      <c r="AC1" s="57" t="s">
+      <c r="AB1" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC1" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="57" t="s">
+      <c r="AD1" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="AE1" s="57" t="s">
+      <c r="AE1" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="AF1" s="57" t="s">
+      <c r="AF1" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="AG1" s="57" t="s">
+      <c r="AG1" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="AH1" s="58" t="s">
+      <c r="AH1" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="AI1" s="58" t="s">
+      <c r="AI1" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="AJ1" s="58" t="s">
+      <c r="AJ1" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="AK1" s="58" t="s">
+      <c r="AK1" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="AL1" s="58" t="s">
+      <c r="AL1" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="AM1" s="56" t="s">
+      <c r="AM1" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="AN1" s="59" t="s">
+      <c r="AN1" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="AO1" s="59" t="s">
+      <c r="AO1" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="AP1" s="60" t="s">
+      <c r="AP1" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="AQ1" s="60" t="s">
+      <c r="AQ1" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="AR1" s="61" t="s">
+      <c r="AR1" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="AS1" s="61" t="s">
+      <c r="AS1" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="AT1" s="61" t="s">
+      <c r="AT1" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="AU1" s="61" t="s">
+      <c r="AU1" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="AV1" s="54" t="s">
+      <c r="AV1" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="AW1" s="54" t="s">
+      <c r="AW1" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="AX1" s="61" t="s">
+      <c r="AX1" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="AY1" s="54" t="s">
+      <c r="AY1" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="AZ1" s="54" t="s">
+      <c r="AZ1" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="BA1" s="60" t="s">
+      <c r="BA1" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="BB1" s="62" t="s">
+      <c r="BB1" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="BC1" s="62" t="s">
+      <c r="BC1" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="BD1" s="62" t="s">
+      <c r="BD1" s="60" t="s">
         <v>150</v>
       </c>
     </row>
@@ -7323,19 +7743,19 @@
         <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G2">
         <v>47.57</v>
@@ -7353,20 +7773,20 @@
         <v>2016</v>
       </c>
       <c r="L2"/>
-      <c r="M2" s="67">
+      <c r="M2" s="62">
         <v>5.6118857142857141</v>
       </c>
       <c r="N2" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q2" s="67">
+        <v>197</v>
+      </c>
+      <c r="Q2" s="62">
         <v>6.1421888888888887</v>
       </c>
-      <c r="U2" s="67">
+      <c r="U2" s="62">
         <v>1.1875</v>
       </c>
       <c r="AB2" s="47" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AC2" s="47">
         <v>14</v>
@@ -7386,19 +7806,19 @@
         <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G3">
         <v>47.57</v>
@@ -7416,20 +7836,20 @@
         <v>2016</v>
       </c>
       <c r="L3"/>
-      <c r="M3" s="67">
+      <c r="M3" s="62">
         <v>10.862214285714286</v>
       </c>
       <c r="N3" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q3" s="67">
+        <v>197</v>
+      </c>
+      <c r="Q3" s="62">
         <v>7.7476750000000001</v>
       </c>
-      <c r="U3" s="67">
+      <c r="U3" s="62">
         <v>1.2666666666666666</v>
       </c>
       <c r="AB3" s="47" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AC3" s="47">
         <v>69</v>
@@ -7449,19 +7869,19 @@
         <v>152</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F4" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G4">
         <v>47.057000000000002</v>
@@ -7479,20 +7899,20 @@
         <v>2016</v>
       </c>
       <c r="L4"/>
-      <c r="M4" s="67">
+      <c r="M4" s="62">
         <v>5.8545222222222213</v>
       </c>
       <c r="N4" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q4" s="67">
+        <v>197</v>
+      </c>
+      <c r="Q4" s="62">
         <v>5.2898111111111108</v>
       </c>
-      <c r="U4" s="67">
+      <c r="U4" s="62">
         <v>1.2777777777777777</v>
       </c>
       <c r="AB4" s="47" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AC4" s="47">
         <v>37</v>
@@ -7513,19 +7933,19 @@
         <v>152</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E5" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F5" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G5">
         <v>47.057000000000002</v>
@@ -7543,20 +7963,20 @@
         <v>2016</v>
       </c>
       <c r="L5"/>
-      <c r="M5" s="67">
+      <c r="M5" s="62">
         <v>8.8196363636363646</v>
       </c>
       <c r="N5" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q5" s="67">
+        <v>197</v>
+      </c>
+      <c r="Q5" s="62">
         <v>6.2266999999999992</v>
       </c>
-      <c r="U5" s="67">
+      <c r="U5" s="62">
         <v>1.2380952380952381</v>
       </c>
       <c r="AB5" s="47" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AC5" s="47">
         <v>20</v>
@@ -7576,19 +7996,19 @@
         <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E6" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F6" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G6">
         <v>47.677999999999997</v>
@@ -7606,20 +8026,20 @@
         <v>2016</v>
       </c>
       <c r="L6"/>
-      <c r="M6" s="67">
+      <c r="M6" s="62">
         <v>9.2455200000000008</v>
       </c>
       <c r="N6" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q6" s="67">
+        <v>197</v>
+      </c>
+      <c r="Q6" s="62">
         <v>10.522675</v>
       </c>
-      <c r="U6" s="67">
+      <c r="U6" s="62">
         <v>1.3333333333333333</v>
       </c>
       <c r="AB6" s="47" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AC6" s="47">
         <v>104</v>
@@ -7639,19 +8059,19 @@
         <v>152</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G7">
         <v>47.677999999999997</v>
@@ -7669,20 +8089,20 @@
         <v>2016</v>
       </c>
       <c r="L7"/>
-      <c r="M7" s="67">
+      <c r="M7" s="62">
         <v>3.8835888888888892</v>
       </c>
       <c r="N7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q7" s="67">
+        <v>197</v>
+      </c>
+      <c r="Q7" s="62">
         <v>6.7374714285714292</v>
       </c>
-      <c r="U7" s="67">
+      <c r="U7" s="62">
         <v>1.125</v>
       </c>
       <c r="AB7" s="47" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AC7" s="47">
         <v>19</v>
@@ -7702,19 +8122,19 @@
         <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E8" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F8" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G8">
         <v>47.063000000000002</v>
@@ -7732,20 +8152,20 @@
         <v>2016</v>
       </c>
       <c r="L8"/>
-      <c r="M8" s="67">
+      <c r="M8" s="62">
         <v>3.768675</v>
       </c>
       <c r="N8" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q8" s="67">
+        <v>197</v>
+      </c>
+      <c r="Q8" s="62">
         <v>3.5709999999999997</v>
       </c>
-      <c r="U8" s="67">
+      <c r="U8" s="62">
         <v>1</v>
       </c>
       <c r="AB8" s="47" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AC8" s="47">
         <v>14</v>
@@ -7765,19 +8185,19 @@
         <v>152</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E9" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F9" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G9">
         <v>47.063000000000002</v>
@@ -7795,20 +8215,20 @@
         <v>2016</v>
       </c>
       <c r="L9"/>
-      <c r="M9" s="67">
+      <c r="M9" s="62">
         <v>7.9502777777777789</v>
       </c>
       <c r="N9" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q9" s="67">
+        <v>197</v>
+      </c>
+      <c r="Q9" s="62">
         <v>6.390371428571429</v>
       </c>
-      <c r="U9" s="67">
+      <c r="U9" s="62">
         <v>1.1875</v>
       </c>
       <c r="AB9" s="47" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AC9" s="47">
         <v>41</v>
@@ -7828,19 +8248,19 @@
         <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E10" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F10" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G10">
         <v>48.542999999999999</v>
@@ -7858,20 +8278,20 @@
         <v>2016</v>
       </c>
       <c r="L10"/>
-      <c r="M10" s="67">
+      <c r="M10" s="62">
         <v>5.2620499999999995</v>
       </c>
       <c r="N10" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q10" s="67">
+        <v>197</v>
+      </c>
+      <c r="Q10" s="62">
         <v>3.910571428571429</v>
       </c>
-      <c r="U10" s="67">
+      <c r="U10" s="62">
         <v>1</v>
       </c>
       <c r="AB10" s="47" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AC10" s="47">
         <v>51</v>
@@ -7891,19 +8311,19 @@
         <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E11" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F11" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G11">
         <v>48.542999999999999</v>
@@ -7921,20 +8341,20 @@
         <v>2016</v>
       </c>
       <c r="L11"/>
-      <c r="M11" s="67">
+      <c r="M11" s="62">
         <v>10.254822222222224</v>
       </c>
       <c r="N11" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q11" s="67">
+        <v>197</v>
+      </c>
+      <c r="Q11" s="62">
         <v>6.5193111111111115</v>
       </c>
-      <c r="U11" s="67">
+      <c r="U11" s="62">
         <v>1.2777777777777777</v>
       </c>
       <c r="AB11" s="47" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AC11" s="47">
         <v>38</v>
@@ -7954,19 +8374,19 @@
         <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C12" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E12" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F12" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G12">
         <v>47.561999999999998</v>
@@ -7984,20 +8404,20 @@
         <v>2016</v>
       </c>
       <c r="L12"/>
-      <c r="M12" s="67">
+      <c r="M12" s="62">
         <v>6.5736363636363624</v>
       </c>
       <c r="N12" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q12" s="67">
+        <v>197</v>
+      </c>
+      <c r="Q12" s="62">
         <v>6.0828181818181823</v>
       </c>
-      <c r="U12" s="67">
+      <c r="U12" s="62">
         <v>1.2727272727272727</v>
       </c>
       <c r="AB12" s="47" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AC12" s="47">
         <v>20</v>
@@ -8017,19 +8437,19 @@
         <v>152</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D13" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E13" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F13" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G13">
         <v>47.561999999999998</v>
@@ -8047,20 +8467,20 @@
         <v>2016</v>
       </c>
       <c r="L13"/>
-      <c r="M13" s="67">
+      <c r="M13" s="62">
         <v>4.5059249999999995</v>
       </c>
       <c r="N13" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q13" s="67">
+        <v>197</v>
+      </c>
+      <c r="Q13" s="62">
         <v>4.3149100000000002</v>
       </c>
-      <c r="U13" s="67">
+      <c r="U13" s="62">
         <v>1.1111111111111112</v>
       </c>
       <c r="AB13" s="47" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AC13" s="47">
         <v>56</v>
@@ -8080,19 +8500,19 @@
         <v>152</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E14" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F14" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G14">
         <v>47.542999999999999</v>
@@ -8110,20 +8530,20 @@
         <v>2016</v>
       </c>
       <c r="L14"/>
-      <c r="M14" s="67">
+      <c r="M14" s="62">
         <v>8.9757142857142842</v>
       </c>
       <c r="N14" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q14" s="67">
+        <v>197</v>
+      </c>
+      <c r="Q14" s="62">
         <v>7.195442857142857</v>
       </c>
-      <c r="U14" s="67">
+      <c r="U14" s="62">
         <v>1.5714285714285714</v>
       </c>
       <c r="AB14" s="47" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AC14" s="47">
         <v>39</v>
@@ -8143,19 +8563,19 @@
         <v>152</v>
       </c>
       <c r="B15" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D15" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E15" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F15" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G15">
         <v>47.542999999999999</v>
@@ -8173,20 +8593,20 @@
         <v>2016</v>
       </c>
       <c r="L15"/>
-      <c r="M15" s="67">
+      <c r="M15" s="62">
         <v>7.0438571428571422</v>
       </c>
       <c r="N15" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q15" s="67">
+        <v>197</v>
+      </c>
+      <c r="Q15" s="62">
         <v>7.0031999999999996</v>
       </c>
-      <c r="U15" s="67">
+      <c r="U15" s="62">
         <v>1.0625</v>
       </c>
       <c r="AB15" s="47" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AC15" s="47">
         <v>16</v>
@@ -8206,19 +8626,19 @@
         <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D16" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E16" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F16" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G16">
         <v>47.670999999999999</v>
@@ -8236,20 +8656,20 @@
         <v>2016</v>
       </c>
       <c r="L16"/>
-      <c r="M16" s="67">
+      <c r="M16" s="62">
         <v>8.1656181818181821</v>
       </c>
       <c r="N16" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q16" s="67">
+        <v>197</v>
+      </c>
+      <c r="Q16" s="62">
         <v>6.8472125000000004</v>
       </c>
-      <c r="U16" s="67">
+      <c r="U16" s="62">
         <v>1.5789473684210527</v>
       </c>
       <c r="AB16" s="47" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AC16" s="47">
         <v>30</v>
@@ -8269,19 +8689,19 @@
         <v>152</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E17" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F17" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G17">
         <v>47.670999999999999</v>
@@ -8299,20 +8719,20 @@
         <v>2016</v>
       </c>
       <c r="L17"/>
-      <c r="M17" s="67">
+      <c r="M17" s="62">
         <v>8.4420000000000002</v>
       </c>
       <c r="N17" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q17" s="67">
+        <v>197</v>
+      </c>
+      <c r="Q17" s="62">
         <v>7.9361374999999992</v>
       </c>
-      <c r="U17" s="67">
+      <c r="U17" s="62">
         <v>1.2941176470588236</v>
       </c>
       <c r="AB17" s="47" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AC17" s="47">
         <v>25</v>

--- a/Crop_pollination_database_Bloom-Crowder.xlsx
+++ b/Crop_pollination_database_Bloom-Crowder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liesl\Documents\Crowder_Lab_Docs\Bartomeus_crop_pollination_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4969D30C-15DB-4840-9017-8EA72004B858}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1144FB0E-E457-418F-8702-2FAFD21B2D99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -928,7 +928,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1113,6 +1113,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel Built-in Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
@@ -2929,7 +2933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BL161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="L158" sqref="L158"/>
     </sheetView>
   </sheetViews>
@@ -7514,10 +7518,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMH33"/>
+  <dimension ref="A1:AMH127"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB20"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AE26" sqref="AE26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7785,28 +7789,33 @@
       <c r="U2" s="62">
         <v>1.1875</v>
       </c>
+      <c r="AA2">
+        <v>7</v>
+      </c>
       <c r="AB2" s="47" t="s">
         <v>199</v>
       </c>
       <c r="AC2" s="47">
-        <v>14</v>
-      </c>
-      <c r="AD2">
-        <v>9</v>
-      </c>
-      <c r="AE2">
-        <v>5</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
+        <f>SUM(AD2:AF2)</f>
+        <v>44</v>
+      </c>
+      <c r="AD2" s="67">
+        <v>21</v>
+      </c>
+      <c r="AE2" s="67">
+        <v>21</v>
+      </c>
+      <c r="AF2" s="67">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="66"/>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
         <v>193</v>
@@ -7848,28 +7857,33 @@
       <c r="U3" s="62">
         <v>1.2666666666666666</v>
       </c>
+      <c r="AA3">
+        <v>11.5</v>
+      </c>
       <c r="AB3" s="47" t="s">
         <v>199</v>
       </c>
       <c r="AC3" s="47">
-        <v>69</v>
-      </c>
-      <c r="AD3">
+        <f t="shared" ref="AC3:AC17" si="0">SUM(AD3:AF3)</f>
+        <v>70</v>
+      </c>
+      <c r="AD3" s="67">
         <v>34</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="67">
         <v>29</v>
       </c>
-      <c r="AF3">
-        <v>6</v>
-      </c>
+      <c r="AF3" s="67">
+        <v>7</v>
+      </c>
+      <c r="AH3" s="67"/>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>152</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
         <v>193</v>
@@ -7911,20 +7925,24 @@
       <c r="U4" s="62">
         <v>1.2777777777777777</v>
       </c>
+      <c r="AA4">
+        <v>7</v>
+      </c>
       <c r="AB4" s="47" t="s">
         <v>199</v>
       </c>
       <c r="AC4" s="47">
-        <v>37</v>
-      </c>
-      <c r="AD4">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="AD4" s="67">
+        <v>59</v>
+      </c>
+      <c r="AE4" s="67">
         <v>31</v>
       </c>
-      <c r="AE4">
-        <v>6</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
+      <c r="AF4" s="67">
+        <v>3</v>
       </c>
       <c r="AN4" s="7"/>
     </row>
@@ -7933,7 +7951,7 @@
         <v>152</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
         <v>193</v>
@@ -7975,28 +7993,33 @@
       <c r="U5" s="62">
         <v>1.2380952380952381</v>
       </c>
+      <c r="AA5">
+        <v>6</v>
+      </c>
       <c r="AB5" s="47" t="s">
         <v>199</v>
       </c>
       <c r="AC5" s="47">
-        <v>20</v>
-      </c>
-      <c r="AD5">
-        <v>15</v>
-      </c>
-      <c r="AE5">
-        <v>3</v>
-      </c>
-      <c r="AF5">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="AD5" s="67">
+        <v>30</v>
+      </c>
+      <c r="AE5" s="67">
+        <v>9</v>
+      </c>
+      <c r="AF5" s="67">
         <v>2</v>
       </c>
+      <c r="AH5" s="67"/>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
         <v>193</v>
@@ -8038,28 +8061,33 @@
       <c r="U6" s="62">
         <v>1.3333333333333333</v>
       </c>
+      <c r="AA6">
+        <v>34.5</v>
+      </c>
       <c r="AB6" s="47" t="s">
         <v>199</v>
       </c>
       <c r="AC6" s="47">
+        <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="67">
         <v>92</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="67">
         <v>5</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="67">
         <v>7</v>
       </c>
+      <c r="AH6" s="67"/>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>152</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
         <v>193</v>
@@ -8101,28 +8129,33 @@
       <c r="U7" s="62">
         <v>1.125</v>
       </c>
+      <c r="AA7">
+        <v>16</v>
+      </c>
       <c r="AB7" s="47" t="s">
         <v>199</v>
       </c>
       <c r="AC7" s="47">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="AD7" s="67">
         <v>19</v>
       </c>
-      <c r="AD7">
-        <v>10</v>
-      </c>
-      <c r="AE7">
-        <v>6</v>
-      </c>
-      <c r="AF7">
-        <v>3</v>
-      </c>
+      <c r="AE7" s="67">
+        <v>24</v>
+      </c>
+      <c r="AF7" s="67">
+        <v>7</v>
+      </c>
+      <c r="AH7" s="67"/>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
         <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C8" t="s">
         <v>193</v>
@@ -8164,20 +8197,24 @@
       <c r="U8" s="62">
         <v>1</v>
       </c>
+      <c r="AA8">
+        <v>8</v>
+      </c>
       <c r="AB8" s="47" t="s">
         <v>199</v>
       </c>
       <c r="AC8" s="47">
-        <v>14</v>
-      </c>
-      <c r="AD8">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="AD8" s="67">
+        <v>9</v>
+      </c>
+      <c r="AE8" s="67">
+        <v>15</v>
+      </c>
+      <c r="AF8" s="67">
         <v>8</v>
-      </c>
-      <c r="AE8">
-        <v>2</v>
-      </c>
-      <c r="AF8">
-        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.25">
@@ -8185,7 +8222,7 @@
         <v>152</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C9" t="s">
         <v>193</v>
@@ -8227,28 +8264,33 @@
       <c r="U9" s="62">
         <v>1.1875</v>
       </c>
+      <c r="AA9">
+        <v>4.5</v>
+      </c>
       <c r="AB9" s="47" t="s">
         <v>199</v>
       </c>
       <c r="AC9" s="47">
-        <v>41</v>
-      </c>
-      <c r="AD9">
-        <v>38</v>
-      </c>
-      <c r="AE9">
-        <v>3</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="AD9" s="67">
+        <v>53</v>
+      </c>
+      <c r="AE9" s="67">
+        <v>6</v>
+      </c>
+      <c r="AF9" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="67"/>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
         <v>193</v>
@@ -8290,28 +8332,33 @@
       <c r="U10" s="62">
         <v>1</v>
       </c>
+      <c r="AA10">
+        <v>5.5</v>
+      </c>
       <c r="AB10" s="47" t="s">
         <v>199</v>
       </c>
       <c r="AC10" s="47">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="67">
         <v>37</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" s="67">
         <v>10</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="67">
         <v>4</v>
       </c>
+      <c r="AH10" s="67"/>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
         <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s">
         <v>193</v>
@@ -8353,20 +8400,24 @@
       <c r="U11" s="62">
         <v>1.2777777777777777</v>
       </c>
+      <c r="AA11">
+        <v>11.5</v>
+      </c>
       <c r="AB11" s="47" t="s">
         <v>199</v>
       </c>
       <c r="AC11" s="47">
-        <v>38</v>
-      </c>
-      <c r="AD11">
-        <v>13</v>
-      </c>
-      <c r="AE11">
-        <v>22</v>
-      </c>
-      <c r="AF11">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="AD11" s="67">
+        <v>67</v>
+      </c>
+      <c r="AE11" s="67">
+        <v>33</v>
+      </c>
+      <c r="AF11" s="67">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
@@ -8374,7 +8425,7 @@
         <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C12" t="s">
         <v>193</v>
@@ -8416,28 +8467,33 @@
       <c r="U12" s="62">
         <v>1.2727272727272727</v>
       </c>
+      <c r="AA12">
+        <v>8</v>
+      </c>
       <c r="AB12" s="47" t="s">
         <v>199</v>
       </c>
       <c r="AC12" s="47">
-        <v>20</v>
-      </c>
-      <c r="AD12">
-        <v>15</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>5</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="AD12" s="67">
+        <v>37</v>
+      </c>
+      <c r="AE12" s="67">
+        <v>2</v>
+      </c>
+      <c r="AF12" s="67">
+        <v>7</v>
+      </c>
+      <c r="AH12" s="67"/>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
         <v>152</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C13" t="s">
         <v>193</v>
@@ -8479,28 +8535,33 @@
       <c r="U13" s="62">
         <v>1.1111111111111112</v>
       </c>
+      <c r="AA13">
+        <v>5</v>
+      </c>
       <c r="AB13" s="47" t="s">
         <v>199</v>
       </c>
       <c r="AC13" s="47">
-        <v>56</v>
-      </c>
-      <c r="AD13">
-        <v>52</v>
-      </c>
-      <c r="AE13">
-        <v>3</v>
-      </c>
-      <c r="AF13">
-        <v>1</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="AD13" s="67">
+        <v>66</v>
+      </c>
+      <c r="AE13" s="67">
+        <v>5</v>
+      </c>
+      <c r="AF13" s="67">
+        <v>2</v>
+      </c>
+      <c r="AH13" s="66"/>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
         <v>152</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C14" t="s">
         <v>193</v>
@@ -8542,28 +8603,33 @@
       <c r="U14" s="62">
         <v>1.5714285714285714</v>
       </c>
+      <c r="AA14">
+        <v>6</v>
+      </c>
       <c r="AB14" s="47" t="s">
         <v>199</v>
       </c>
       <c r="AC14" s="47">
-        <v>39</v>
-      </c>
-      <c r="AD14">
-        <v>26</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>13</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="AD14" s="67">
+        <v>41</v>
+      </c>
+      <c r="AE14" s="67">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="67">
+        <v>16</v>
+      </c>
+      <c r="AH14" s="67"/>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
         <v>152</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s">
         <v>193</v>
@@ -8605,28 +8671,33 @@
       <c r="U15" s="62">
         <v>1.0625</v>
       </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
       <c r="AB15" s="47" t="s">
         <v>199</v>
       </c>
       <c r="AC15" s="47">
-        <v>16</v>
-      </c>
-      <c r="AD15">
-        <v>16</v>
-      </c>
-      <c r="AE15">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="AD15" s="67">
+        <v>38</v>
+      </c>
+      <c r="AE15" s="67">
         <v>0</v>
       </c>
-      <c r="AF15">
+      <c r="AF15" s="67">
         <v>0</v>
       </c>
+      <c r="AH15" s="67"/>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
         <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C16" t="s">
         <v>193</v>
@@ -8668,28 +8739,33 @@
       <c r="U16" s="62">
         <v>1.5789473684210527</v>
       </c>
+      <c r="AA16">
+        <v>7</v>
+      </c>
       <c r="AB16" s="47" t="s">
         <v>199</v>
       </c>
       <c r="AC16" s="47">
-        <v>30</v>
-      </c>
-      <c r="AD16">
-        <v>21</v>
-      </c>
-      <c r="AE16">
-        <v>1</v>
-      </c>
-      <c r="AF16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="AD16" s="67">
+        <v>66</v>
+      </c>
+      <c r="AE16" s="67">
+        <v>3</v>
+      </c>
+      <c r="AF16" s="67">
+        <v>14</v>
+      </c>
+      <c r="AH16" s="66"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
         <v>152</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C17" t="s">
         <v>193</v>
@@ -8731,23 +8807,28 @@
       <c r="U17" s="62">
         <v>1.2941176470588236</v>
       </c>
+      <c r="AA17">
+        <v>6</v>
+      </c>
       <c r="AB17" s="47" t="s">
         <v>199</v>
       </c>
       <c r="AC17" s="47">
-        <v>25</v>
-      </c>
-      <c r="AD17">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="AD17" s="67">
         <v>16</v>
       </c>
-      <c r="AE17">
-        <v>9</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE17" s="67">
+        <v>27</v>
+      </c>
+      <c r="AF17" s="67">
+        <v>8</v>
+      </c>
+      <c r="AH17" s="67"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="43"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -8761,8 +8842,9 @@
       <c r="K18"/>
       <c r="L18"/>
       <c r="N18"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH18" s="67"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -8776,8 +8858,9 @@
       <c r="K19"/>
       <c r="L19"/>
       <c r="N19"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH19" s="66"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -8791,8 +8874,9 @@
       <c r="K20"/>
       <c r="L20"/>
       <c r="N20"/>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH20" s="67"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="43"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -8806,8 +8890,9 @@
       <c r="K21"/>
       <c r="L21"/>
       <c r="N21"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH21" s="66"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="43"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -8821,8 +8906,9 @@
       <c r="K22"/>
       <c r="L22"/>
       <c r="N22"/>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH22" s="67"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="43"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -8836,8 +8922,9 @@
       <c r="K23"/>
       <c r="L23"/>
       <c r="N23"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH23" s="66"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="43"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -8851,8 +8938,9 @@
       <c r="K24"/>
       <c r="L24"/>
       <c r="N24"/>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH24" s="67"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="43"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -8866,8 +8954,9 @@
       <c r="K25"/>
       <c r="L25"/>
       <c r="N25"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH25" s="67"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="43"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -8881,8 +8970,9 @@
       <c r="K26"/>
       <c r="L26"/>
       <c r="N26"/>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH26" s="66"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="43"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -8896,8 +8986,9 @@
       <c r="K27"/>
       <c r="L27"/>
       <c r="N27"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH27" s="67"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -8911,8 +9002,9 @@
       <c r="K28"/>
       <c r="L28"/>
       <c r="N28"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH28" s="67"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="43"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -8926,8 +9018,9 @@
       <c r="K29"/>
       <c r="L29"/>
       <c r="N29"/>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH29" s="67"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="43"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -8941,8 +9034,9 @@
       <c r="K30"/>
       <c r="L30"/>
       <c r="N30"/>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH30" s="67"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="43"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -8956,8 +9050,9 @@
       <c r="K31"/>
       <c r="L31"/>
       <c r="N31"/>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH31" s="67"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="43"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -8971,8 +9066,9 @@
       <c r="K32"/>
       <c r="L32"/>
       <c r="N32"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AH32" s="67"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="43"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -8986,6 +9082,289 @@
       <c r="K33"/>
       <c r="L33"/>
       <c r="N33"/>
+      <c r="AH33" s="67"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH34" s="66"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH35" s="67"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH36" s="67"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH37" s="66"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH38" s="66"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH39" s="67"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH40" s="67"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH41" s="66"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH42" s="67"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH43" s="67"/>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH44" s="67"/>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH45" s="67"/>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH46" s="67"/>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH47" s="67"/>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH48" s="66"/>
+    </row>
+    <row r="49" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH49" s="66"/>
+    </row>
+    <row r="50" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH50" s="66"/>
+    </row>
+    <row r="51" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH51" s="66"/>
+    </row>
+    <row r="52" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH52" s="66"/>
+    </row>
+    <row r="53" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH53" s="66"/>
+    </row>
+    <row r="54" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH54" s="66"/>
+    </row>
+    <row r="55" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH55" s="66"/>
+    </row>
+    <row r="56" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH56" s="66"/>
+    </row>
+    <row r="57" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH57" s="66"/>
+    </row>
+    <row r="58" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH58" s="66"/>
+    </row>
+    <row r="59" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH59" s="66"/>
+    </row>
+    <row r="60" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH60" s="66"/>
+    </row>
+    <row r="61" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH61" s="66"/>
+    </row>
+    <row r="62" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH62" s="66"/>
+    </row>
+    <row r="63" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH63" s="66"/>
+    </row>
+    <row r="64" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH64" s="66"/>
+    </row>
+    <row r="65" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH65" s="66"/>
+    </row>
+    <row r="66" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH66" s="66"/>
+    </row>
+    <row r="67" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH67" s="66"/>
+    </row>
+    <row r="68" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH68" s="66"/>
+    </row>
+    <row r="69" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH69" s="66"/>
+    </row>
+    <row r="70" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH70" s="66"/>
+    </row>
+    <row r="71" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH71" s="66"/>
+    </row>
+    <row r="72" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH72" s="66"/>
+    </row>
+    <row r="73" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH73" s="66"/>
+    </row>
+    <row r="74" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH74" s="66"/>
+    </row>
+    <row r="75" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH75" s="66"/>
+    </row>
+    <row r="76" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH76" s="66"/>
+    </row>
+    <row r="77" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH77" s="66"/>
+    </row>
+    <row r="78" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH78" s="66"/>
+    </row>
+    <row r="79" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH79" s="66"/>
+    </row>
+    <row r="80" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH80" s="66"/>
+    </row>
+    <row r="81" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH81" s="66"/>
+    </row>
+    <row r="82" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH82" s="66"/>
+    </row>
+    <row r="83" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH83" s="66"/>
+    </row>
+    <row r="84" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH84" s="66"/>
+    </row>
+    <row r="85" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH85" s="66"/>
+    </row>
+    <row r="86" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH86" s="66"/>
+    </row>
+    <row r="87" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH87" s="66"/>
+    </row>
+    <row r="88" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH88" s="66"/>
+    </row>
+    <row r="89" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH89" s="66"/>
+    </row>
+    <row r="90" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH90" s="66"/>
+    </row>
+    <row r="91" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH91" s="66"/>
+    </row>
+    <row r="92" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH92" s="66"/>
+    </row>
+    <row r="93" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH93" s="66"/>
+    </row>
+    <row r="94" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH94" s="66"/>
+    </row>
+    <row r="95" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH95" s="66"/>
+    </row>
+    <row r="96" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH96" s="66"/>
+    </row>
+    <row r="97" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH97" s="66"/>
+    </row>
+    <row r="98" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH98" s="66"/>
+    </row>
+    <row r="99" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH99" s="66"/>
+    </row>
+    <row r="100" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH100" s="66"/>
+    </row>
+    <row r="101" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH101" s="66"/>
+    </row>
+    <row r="102" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH102" s="66"/>
+    </row>
+    <row r="103" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH103" s="66"/>
+    </row>
+    <row r="104" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH104" s="66"/>
+    </row>
+    <row r="105" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH105" s="66"/>
+    </row>
+    <row r="106" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH106" s="66"/>
+    </row>
+    <row r="107" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH107" s="66"/>
+    </row>
+    <row r="108" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH108" s="66"/>
+    </row>
+    <row r="109" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH109" s="66"/>
+    </row>
+    <row r="110" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH110" s="66"/>
+    </row>
+    <row r="111" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH111" s="66"/>
+    </row>
+    <row r="112" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH112" s="66"/>
+    </row>
+    <row r="113" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH113" s="66"/>
+    </row>
+    <row r="114" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH114" s="66"/>
+    </row>
+    <row r="115" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH115" s="66"/>
+    </row>
+    <row r="116" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH116" s="66"/>
+    </row>
+    <row r="117" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH117" s="66"/>
+    </row>
+    <row r="118" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH118" s="66"/>
+    </row>
+    <row r="119" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH119" s="66"/>
+    </row>
+    <row r="120" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH120" s="66"/>
+    </row>
+    <row r="121" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH121" s="66"/>
+    </row>
+    <row r="122" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH122" s="66"/>
+    </row>
+    <row r="123" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH123" s="66"/>
+    </row>
+    <row r="124" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH124" s="66"/>
+    </row>
+    <row r="125" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH125" s="66"/>
+    </row>
+    <row r="126" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH126" s="66"/>
+    </row>
+    <row r="127" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH127" s="66"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/Crop_pollination_database_Bloom-Crowder.xlsx
+++ b/Crop_pollination_database_Bloom-Crowder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liesl\Documents\Crowder_Lab_Docs\Bartomeus_crop_pollination_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1144FB0E-E457-418F-8702-2FAFD21B2D99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8BDEEE-AD42-4F78-82A7-EAB94EEC1B09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2928" yWindow="1068" windowWidth="7500" windowHeight="11292" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="174">
   <si>
     <t>Color code for variables</t>
   </si>
@@ -73,19 +73,12 @@
     <t>study_id</t>
   </si>
   <si>
-    <t>field identifier</t>
-  </si>
-  <si>
     <t>Insect sampling</t>
   </si>
   <si>
     <t>site_id</t>
   </si>
   <si>
-    <t xml:space="preserve">a unique identifier for each of your sites. This ID should match exactly the name of the sites in the
-“Field sampling” worksheet. </t>
-  </si>
-  <si>
     <t>pollinator</t>
   </si>
   <si>
@@ -101,36 +94,16 @@
     <t>sampling_method</t>
   </si>
   <si>
-    <t>Please indicate how organisms were sampled: Transects / plant observations / Pan traps / unestructured sweep netting.
-Add independent rows for each method if multiple methods were used per organism.</t>
-  </si>
-  <si>
     <t>abundance</t>
   </si>
   <si>
-    <t>number of individuals observed/collected. In the case of performing several censuses (transect walks/plant observations),
-please, indicate the sum of the individuals collected.</t>
-  </si>
-  <si>
     <t>total_sampled_area</t>
   </si>
   <si>
-    <t>area sampled during the census (e.g. transect walk) in [square meters]. In the case of performing 
-several censuses, please, indicate the sum of their respective areas.</t>
-  </si>
-  <si>
     <t>total_sampled_time</t>
   </si>
   <si>
-    <t>time spent to sample [minutes]. In the case of performing several censuses (transect walks/plant observations),
-please, indicate the sum of their respective durations.</t>
-  </si>
-  <si>
     <t>total_sampled_flowers</t>
-  </si>
-  <si>
-    <t>number of flowers present along the census (transect walks/plant observations) in flowers per census [counts/m2].
-In the case of performing several censuses, please, indicate the sum of the respective counts.</t>
   </si>
   <si>
     <t>Description</t>
@@ -143,65 +116,33 @@
     <t>Field sampling</t>
   </si>
   <si>
-    <t xml:space="preserve">a unique identifier for each of your sites. This ID should match exactly the name of the sites in the
-“Insect sampling” worksheet. </t>
-  </si>
-  <si>
     <t>crop</t>
   </si>
   <si>
-    <t>crop name [latin name prefered]</t>
-  </si>
-  <si>
     <t>variety</t>
   </si>
   <si>
-    <t>crop variety name</t>
-  </si>
-  <si>
     <t>management</t>
   </si>
   <si>
-    <t>One of the following management categories: (1) Organic Certified Agriculture, (2) Integrated pest management, and
-(3) Other Conventional Practices [organic, IPM, conventional]</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
-    <t>name of the country where the crop field is located</t>
-  </si>
-  <si>
     <t>latitude</t>
   </si>
   <si>
-    <t>degrees (43.040833° N for 43°2’27” N) [°] [at least three decimal numbers]</t>
-  </si>
-  <si>
     <t>longitude</t>
   </si>
   <si>
-    <t>Degrees [°] [at least three decimal numbers]</t>
-  </si>
-  <si>
     <t>sampling_start_month</t>
   </si>
   <si>
-    <t>numeric format (for example, 1 for January, 2 for February and so on)</t>
-  </si>
-  <si>
     <t>sampling_end_month</t>
   </si>
   <si>
-    <t>numeric format (see description for sampling_start_month)</t>
-  </si>
-  <si>
     <t>sampling_year</t>
   </si>
   <si>
-    <t>four digits format, YYYY (e.g., 2019)</t>
-  </si>
-  <si>
     <t>field size</t>
   </si>
   <si>
@@ -211,85 +152,46 @@
     <t>yield</t>
   </si>
   <si>
-    <t>yield weight per unit area of land cultivation [kg per hectare] is preferred, but other metrics are appropiate for different crops.</t>
-  </si>
-  <si>
     <t>yield_units</t>
   </si>
   <si>
-    <t>e.g., [kg per hectare], [Fruit set (%)], mean weight per plant [g per plant], dry weight per berry [g per berry],etc.</t>
-  </si>
-  <si>
     <t>yield2</t>
   </si>
   <si>
-    <t>If you collected two metrics of yield or plant reproductive success (e.g. fruit set and fruit weight), you can add a second one here.</t>
-  </si>
-  <si>
     <t>yield2_units</t>
   </si>
   <si>
     <t>yield_treatments_no_pollinators</t>
   </si>
   <si>
-    <t>If your results for yield involved exclosures (e.g., bags, etc.), fill this columns with such results. (measured as the first unit )</t>
-  </si>
-  <si>
     <t>yield_treatments_pollen_supplement</t>
   </si>
   <si>
-    <t>If your results for yield were obtained by using an additional treatment (e.g., hand-pollination, etc.), fill this columns with such results. (measured as the first unit )</t>
-  </si>
-  <si>
     <t>yield_treatments_no_pollinators2</t>
   </si>
   <si>
-    <t>If your results for yield involved exclosures (e.g., bags, etc.), fill this columns with such results. (second yield unit)</t>
-  </si>
-  <si>
     <t>yield_treatments_pollen_supplement2</t>
   </si>
   <si>
-    <t>If your results for yield were obtained by using an additional treatment (e.g., hand-pollination, etc.), fill this columns with such results. (second yield unit)</t>
-  </si>
-  <si>
     <t>Useful information to estimate “total_yield” from fruit set data. We are looking for average values here for your system.</t>
   </si>
   <si>
     <t>fruits_per_plant</t>
   </si>
   <si>
-    <t>average number of fruits per plant [count per plant]</t>
-  </si>
-  <si>
     <t>fruit_weight</t>
   </si>
   <si>
-    <t>average fruit weight [grams per fruit]</t>
-  </si>
-  <si>
     <t>plant_density</t>
   </si>
   <si>
-    <t>number of crop plants per unit area of crop field [individuals per square meter]</t>
-  </si>
-  <si>
     <t>seeds_per_fruit</t>
   </si>
   <si>
-    <t>average number of seeds per fruit [count per fruit]</t>
-  </si>
-  <si>
     <t>seeds_per_plant</t>
   </si>
   <si>
-    <t>average number of seeds per plant or pod [count per plant]</t>
-  </si>
-  <si>
     <t>seed_weight</t>
-  </si>
-  <si>
-    <t>average seed weight [grams per 100 seeds]</t>
   </si>
   <si>
     <t>No needed if worksheet on Insect
@@ -299,47 +201,13 @@
     <t>observed_pollinator_richness</t>
   </si>
   <si>
-    <t>number of different pollinator species observed [counts]</t>
-  </si>
-  <si>
-    <t>other_pollinator_richness</t>
-  </si>
-  <si>
-    <t>estimated number of different species [counts]</t>
-  </si>
-  <si>
-    <t>other_richness_estimator_method</t>
-  </si>
-  <si>
-    <t>method used for estimating “other_pollinator_richness”, preferably Chao1.</t>
-  </si>
-  <si>
-    <t>richness_restriction</t>
-  </si>
-  <si>
-    <t>free text to describe constraints on richness/abundance measurements, such as “only bees”, “only non-managed bees”, etc.</t>
-  </si>
-  <si>
-    <t>no needed if sheet on insect sampling is provided. Total amount of counts along transect lines [counts]. In the case of performing several transect walks,
-Please, indicate the sum of the individuals collected.</t>
-  </si>
-  <si>
     <t>ab_honeybee</t>
   </si>
   <si>
-    <t>total amount of transect counts for honey bees [counts]</t>
-  </si>
-  <si>
     <t>ab_bombus</t>
   </si>
   <si>
-    <t>total amount of transect counts for bumble bees [counts]</t>
-  </si>
-  <si>
     <t>ab_wildbees</t>
-  </si>
-  <si>
-    <t>total amount of transect counts for other wild bees [counts]</t>
   </si>
   <si>
     <t>ab_syrphids</t>
@@ -398,78 +266,42 @@
     <t>visitation_rate_units</t>
   </si>
   <si>
-    <t>Number of legitimate visits (i.e. contacting reproductive structures) to crop units (flowers, branches,etc.), per unit time. Preferred units: [visits in 100 flowers during one hour].</t>
-  </si>
-  <si>
     <t>visitation_rate</t>
   </si>
   <si>
-    <t>Total visitation rate to crop units (flowers, branches,etc.) [use visitation_rate_units].</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Sampling is provided</t>
   </si>
   <si>
     <t>visit_honeybee</t>
   </si>
   <si>
-    <t>guild (honey bees) visitation rate to crop units (flowers, branches,etc.) [use visitation_rate_units].</t>
-  </si>
-  <si>
     <t>visit_bombus</t>
   </si>
   <si>
-    <t>guild (bumble bees) visitation rate to crop units (flowers, branches,etc.) [use visitation_rate_units].</t>
-  </si>
-  <si>
     <t>visit_wildbees</t>
   </si>
   <si>
-    <t>guild (other wild bees) visitation rate to crop units (flowers, branches,etc.) [use visitation_rate_units].</t>
-  </si>
-  <si>
     <t>visit_syrphids</t>
   </si>
   <si>
-    <t>guild (syrphids) visitation rate to crop units (flowers, branches,etc.) [use visitation_rate_units].</t>
-  </si>
-  <si>
     <t>visit_humbleflies</t>
   </si>
   <si>
-    <t>guild (bombyliidae) visitation rate to crop units (flowers, branches,etc.) [use visitation_rate_units].</t>
-  </si>
-  <si>
     <t>visit_other_flies</t>
   </si>
   <si>
-    <t>guild (non syrphid or bombilida diptera) visitation rate to crop units (flowers, branches,etc.) [use visitation_rate_units].</t>
-  </si>
-  <si>
     <t>visit_beetles</t>
   </si>
   <si>
-    <t>guild (coleoptera) visitation rate to crop units (flowers, branches,etc.) [use visitation_rate_units].</t>
-  </si>
-  <si>
     <t>visit_lepidoptera</t>
   </si>
   <si>
-    <t>guild (lepidoptera: butterflies and moths) visitation rate to crop units (flowers, branches,etc.) [use visitation_rate_units].</t>
-  </si>
-  <si>
     <t>visit_nonbee_hymenoptera</t>
   </si>
   <si>
-    <t>guild (nonbee hymenoptera: sawflies, wasps, ants, etc.) visitation rate to crop units (flowers, branches,etc.) [use visitation_rate_units].</t>
-  </si>
-  <si>
     <t>visit_others</t>
   </si>
   <si>
-    <t>guild (other) visitation rate to crop units (flowers, branches,etc.) [use visitation_rate_units].</t>
-  </si>
-  <si>
     <t>Publication</t>
   </si>
   <si>
@@ -479,15 +311,9 @@
     <t>Credit</t>
   </si>
   <si>
-    <t>List all authors who need to be given credit</t>
-  </si>
-  <si>
     <t>Email contact</t>
   </si>
   <si>
-    <t>email for contacting purposes.</t>
-  </si>
-  <si>
     <t xml:space="preserve">abundance </t>
   </si>
   <si>
@@ -503,9 +329,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>Bloom_Crowder</t>
-  </si>
-  <si>
     <t>Bloom_Crowder_Strawberry</t>
   </si>
   <si>
@@ -635,9 +458,6 @@
     <t>Albion</t>
   </si>
   <si>
-    <t>Organic</t>
-  </si>
-  <si>
     <t>United States</t>
   </si>
   <si>
@@ -690,6 +510,57 @@
   </si>
   <si>
     <t>Halictus_spH5</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>dcrowder@wsu.edu</t>
+  </si>
+  <si>
+    <t>Elias H. Bloom (bloomel1@msu.edu), Elisabeth C. Oeller (elisabeth.oeller@wsu.edu)</t>
+  </si>
+  <si>
+    <t>pollinator_richness</t>
+  </si>
+  <si>
+    <t>Provided on worksheets</t>
+  </si>
+  <si>
+    <t>16 total fields with unique site IDs</t>
+  </si>
+  <si>
+    <t>Frangaria x ananassa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organic Certified Agriculture, Other conventional Practices </t>
+  </si>
+  <si>
+    <t>8,9,10</t>
+  </si>
+  <si>
+    <t>mean total fruit weight of non-bagged plants</t>
+  </si>
+  <si>
+    <t>mean total fruit weight of bagged plants</t>
+  </si>
+  <si>
+    <t>16 total field with unique site IDs</t>
+  </si>
+  <si>
+    <t>Organisms were samples with sweep nets and traps (15 bee bowls and 3 blue vane traps per site)</t>
+  </si>
+  <si>
+    <t>Both traps and sweep nets were conducted over a 50m transect</t>
+  </si>
+  <si>
+    <t>Traps were left for 9 hours, sweeping was done for 1 hour</t>
+  </si>
+  <si>
+    <t>Organic Practices</t>
+  </si>
+  <si>
+    <t>Cerified Organic</t>
   </si>
 </sst>
 </file>
@@ -699,7 +570,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-300A]#,##0.00;[Red][$$-300A]\-#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -743,6 +614,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -914,7 +792,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -927,8 +805,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1104,6 +983,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1113,15 +996,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="8" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Excel Built-in Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Heading1" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Heading1 1" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Result" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Result 1" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
@@ -1506,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BL94"/>
+  <dimension ref="A1:BL92"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2208,7 +2092,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -2272,87 +2156,87 @@
       <c r="BK11" s="7"/>
       <c r="BL11" s="7"/>
     </row>
-    <row r="12" spans="1:64" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>14</v>
-      </c>
       <c r="C12" s="22" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:64" ht="26.4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:64" ht="26.4" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="C16" s="22">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="24" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="24" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="B19" s="25" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="24" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2378,548 +2262,533 @@
         <v>11</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
       <c r="B26" s="24" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="24" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
       <c r="B28" s="24" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
       <c r="B29" s="24" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
       <c r="B30" s="24" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
       <c r="B31" s="24" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
       <c r="B32" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>47</v>
+        <v>32</v>
+      </c>
+      <c r="C32" s="20">
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
       <c r="B33" s="24" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
       <c r="B34" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>51</v>
+        <v>34</v>
+      </c>
+      <c r="C34" s="20">
+        <v>2016</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
       <c r="B35" s="24" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
       <c r="B36" s="19" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
       <c r="B37" s="19" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
       <c r="B38" s="19" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
       <c r="B39" s="19" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
       <c r="B40" s="19" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
       <c r="B41" s="19" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>64</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="28"/>
       <c r="B42" s="19" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="20">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="65"/>
+      <c r="B45" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="65"/>
+      <c r="B46" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="65"/>
+      <c r="B47" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="65"/>
+      <c r="B48" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="65"/>
+      <c r="B49" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="66"/>
+      <c r="B51" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="66"/>
+      <c r="B52" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="66"/>
+      <c r="B53" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="66"/>
+      <c r="B54" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="66"/>
+      <c r="B55" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="66"/>
+      <c r="B56" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="66"/>
+      <c r="B57" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="66"/>
+      <c r="B58" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="66"/>
+      <c r="B59" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="66"/>
+      <c r="B60" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="66"/>
+      <c r="B61" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C61" s="20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="63" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="66"/>
+      <c r="B62" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="C62" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="20" t="s">
+    </row>
+    <row r="63" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A63" s="66"/>
+      <c r="B63" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
-      <c r="B45" s="30" t="s">
+    <row r="64" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A64" s="66"/>
+      <c r="B64" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="20" t="s">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="67" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="63"/>
-      <c r="B46" s="31" t="s">
+      <c r="B65" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C65" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="67"/>
+      <c r="B66" s="38" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="63"/>
-      <c r="B47" s="31" t="s">
+      <c r="C66" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="B67" s="39" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="63"/>
-      <c r="B48" s="31" t="s">
+      <c r="C67" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="67"/>
+      <c r="B68" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C68" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="67"/>
+      <c r="B69" s="39" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="63"/>
-      <c r="B49" s="32" t="s">
+      <c r="C69" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="67"/>
+      <c r="B70" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C70" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="67"/>
+      <c r="B71" s="39" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="64" t="s">
+      <c r="C71" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="67"/>
+      <c r="B72" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="B50" s="33" t="s">
+      <c r="C72" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="67"/>
+      <c r="B73" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C73" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="67"/>
+      <c r="B74" s="39" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="64"/>
-      <c r="B51" s="34" t="s">
+      <c r="C74" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="67"/>
+      <c r="B75" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C75" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="67"/>
+      <c r="B76" s="40" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="64"/>
-      <c r="B52" s="34" t="s">
+      <c r="C76" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="41"/>
+      <c r="B77" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C77" s="20" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="64"/>
-      <c r="B53" s="34" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="41"/>
+      <c r="B78" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="64"/>
-      <c r="B54" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="64"/>
-      <c r="B55" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="64"/>
-      <c r="B56" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="64"/>
-      <c r="B57" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="64"/>
-      <c r="B58" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="64"/>
-      <c r="B59" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="64"/>
-      <c r="B60" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="64"/>
-      <c r="B61" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="64"/>
-      <c r="B62" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="64"/>
-      <c r="B63" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="64"/>
-      <c r="B64" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A65" s="64"/>
-      <c r="B65" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A66" s="64"/>
-      <c r="B66" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A67" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="B67" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="65"/>
-      <c r="B68" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="B69" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="65"/>
-      <c r="B70" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="65"/>
-      <c r="B71" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="65"/>
-      <c r="B72" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="65"/>
-      <c r="B73" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="65"/>
-      <c r="B74" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="65"/>
-      <c r="B75" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="65"/>
-      <c r="B76" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="C76" s="22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="65"/>
-      <c r="B77" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="C77" s="22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="65"/>
-      <c r="B78" s="40" t="s">
-        <v>138</v>
-      </c>
       <c r="C78" s="20" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="41"/>
       <c r="B79" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>141</v>
+        <v>90</v>
+      </c>
+      <c r="C79" s="68" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="41"/>
-      <c r="B80" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="41"/>
-      <c r="B81" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="42"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="42"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A50:A66"/>
-    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="A50:A64"/>
+    <mergeCell ref="A65:A76"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C79" r:id="rId1" xr:uid="{B08B02B2-C002-41B2-94E3-71B5E05B9170}"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -2933,8 +2802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BL161"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L158" sqref="L158"/>
+    <sheetView topLeftCell="A127" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F163" sqref="F163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2958,31 +2827,31 @@
         <v>11</v>
       </c>
       <c r="B1" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="D1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="E1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="F1" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>24</v>
-      </c>
       <c r="H1" s="44" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I1" s="46" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J1" s="44" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="K1" s="47"/>
       <c r="L1" s="47"/>
@@ -2990,19 +2859,19 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -3014,24 +2883,24 @@
         <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3043,24 +2912,24 @@
         <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F4">
         <v>18</v>
@@ -3075,19 +2944,19 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -3099,24 +2968,24 @@
         <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E6" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F6">
         <v>7</v>
@@ -3128,24 +2997,24 @@
         <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F7">
         <v>12</v>
@@ -3160,19 +3029,19 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -3187,19 +3056,19 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E9" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3211,24 +3080,24 @@
         <v>9</v>
       </c>
       <c r="J9" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -3240,24 +3109,24 @@
         <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3269,24 +3138,24 @@
         <v>9</v>
       </c>
       <c r="J11" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E12" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -3298,24 +3167,24 @@
         <v>9</v>
       </c>
       <c r="J12" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E13" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -3327,24 +3196,24 @@
         <v>9</v>
       </c>
       <c r="J13" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D14" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E14" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -3356,24 +3225,24 @@
         <v>9</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F15">
         <v>30</v>
@@ -3388,19 +3257,19 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -3415,19 +3284,19 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -3439,24 +3308,24 @@
         <v>9</v>
       </c>
       <c r="J17" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F18">
         <v>15</v>
@@ -3468,24 +3337,24 @@
         <v>9</v>
       </c>
       <c r="J18" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F19">
         <v>10</v>
@@ -3500,19 +3369,19 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="D20" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E20" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -3524,24 +3393,24 @@
         <v>9</v>
       </c>
       <c r="J20" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="D21" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E21" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -3556,19 +3425,19 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -3580,24 +3449,24 @@
         <v>9</v>
       </c>
       <c r="J22" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F23">
         <v>5</v>
@@ -3609,24 +3478,24 @@
         <v>9</v>
       </c>
       <c r="J23" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F24">
         <v>49</v>
@@ -3641,19 +3510,19 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -3665,24 +3534,24 @@
         <v>9</v>
       </c>
       <c r="J25" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="D26" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F26">
         <v>18</v>
@@ -3697,19 +3566,19 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="D27" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F27">
         <v>7</v>
@@ -3724,19 +3593,19 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E28" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F28">
         <v>5</v>
@@ -3751,19 +3620,19 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="D29" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E29" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -3778,19 +3647,19 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B30" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="D30" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E30" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -3805,19 +3674,19 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="D31" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E31" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -3829,24 +3698,24 @@
         <v>9</v>
       </c>
       <c r="J31" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B32" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D32" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -3858,24 +3727,24 @@
         <v>9</v>
       </c>
       <c r="J32" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -3887,24 +3756,24 @@
         <v>9</v>
       </c>
       <c r="J33" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D34" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F34">
         <v>21</v>
@@ -3919,19 +3788,19 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="D35" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E35" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F35">
         <v>4</v>
@@ -3946,19 +3815,19 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="D36" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E36" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -3973,19 +3842,19 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B37" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="D37" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E37" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -3997,24 +3866,24 @@
         <v>9</v>
       </c>
       <c r="J37" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E38" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -4029,19 +3898,19 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="C39" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="D39" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E39" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -4053,24 +3922,24 @@
         <v>9</v>
       </c>
       <c r="J39" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B40" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="D40" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E40" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -4082,24 +3951,24 @@
         <v>9</v>
       </c>
       <c r="J40" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B41" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="D41" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E41" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -4111,24 +3980,24 @@
         <v>9</v>
       </c>
       <c r="J41" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B42" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="C42" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="D42" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E42" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -4140,24 +4009,24 @@
         <v>9</v>
       </c>
       <c r="J42" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B43" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="C43" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="D43" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E43" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -4169,24 +4038,24 @@
         <v>9</v>
       </c>
       <c r="J43" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="C44" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D44" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E44" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F44">
         <v>19</v>
@@ -4198,24 +4067,24 @@
         <v>9</v>
       </c>
       <c r="J44" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B45" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="C45" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D45" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E45" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F45">
         <v>17</v>
@@ -4227,24 +4096,24 @@
         <v>9</v>
       </c>
       <c r="J45" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="C46" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D46" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E46" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F46">
         <v>56</v>
@@ -4259,19 +4128,19 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="C47" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="D47" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E47" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -4283,24 +4152,24 @@
         <v>9</v>
       </c>
       <c r="J47" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="C48" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="D48" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E48" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -4312,24 +4181,24 @@
         <v>9</v>
       </c>
       <c r="J48" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="D49" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E49" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -4344,19 +4213,19 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="D50" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E50" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -4368,24 +4237,24 @@
         <v>9</v>
       </c>
       <c r="J50" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="D51" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E51" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -4400,19 +4269,19 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="C52" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="D52" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E52" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -4424,24 +4293,24 @@
         <v>9</v>
       </c>
       <c r="J52" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="C53" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="D53" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E53" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -4453,24 +4322,24 @@
         <v>9</v>
       </c>
       <c r="J53" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B54" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="C54" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="D54" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E54" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -4482,24 +4351,24 @@
         <v>9</v>
       </c>
       <c r="J54" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B55" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="C55" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="D55" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E55" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F55">
         <v>2</v>
@@ -4511,24 +4380,24 @@
         <v>9</v>
       </c>
       <c r="J55" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B56" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="C56" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D56" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E56" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F56">
         <v>2</v>
@@ -4540,24 +4409,24 @@
         <v>9</v>
       </c>
       <c r="J56" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="C57" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D57" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E57" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -4569,24 +4438,24 @@
         <v>9</v>
       </c>
       <c r="J57" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B58" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="C58" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D58" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E58" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F58">
         <v>16</v>
@@ -4601,19 +4470,19 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B59" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="C59" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="D59" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E59" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F59">
         <v>5</v>
@@ -4628,19 +4497,19 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B60" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="C60" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="D60" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E60" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -4652,24 +4521,24 @@
         <v>9</v>
       </c>
       <c r="J60" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B61" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="C61" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="D61" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E61" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F61">
         <v>7</v>
@@ -4681,24 +4550,24 @@
         <v>9</v>
       </c>
       <c r="J61" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B62" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="C62" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="D62" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E62" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F62">
         <v>11</v>
@@ -4713,19 +4582,19 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B63" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="C63" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="D63" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E63" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -4740,19 +4609,19 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B64" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="C64" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="D64" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E64" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -4764,24 +4633,24 @@
         <v>9</v>
       </c>
       <c r="J64" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B65" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="D65" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E65" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -4793,24 +4662,24 @@
         <v>9</v>
       </c>
       <c r="J65" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B66" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="C66" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="D66" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E66" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -4825,19 +4694,19 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B67" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="C67" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="D67" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E67" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F67">
         <v>4</v>
@@ -4849,24 +4718,24 @@
         <v>9</v>
       </c>
       <c r="J67" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" t="s">
         <v>152</v>
       </c>
-      <c r="B68" t="s">
-        <v>165</v>
-      </c>
-      <c r="C68" t="s">
-        <v>209</v>
-      </c>
       <c r="D68" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E68" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -4878,24 +4747,24 @@
         <v>9</v>
       </c>
       <c r="J68" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B69" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="C69" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D69" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E69" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F69">
         <v>9</v>
@@ -4910,19 +4779,19 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B70" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="C70" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="D70" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E70" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -4937,19 +4806,19 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B71" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="C71" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="D71" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E71" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F71">
         <v>3</v>
@@ -4961,24 +4830,24 @@
         <v>9</v>
       </c>
       <c r="J71" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B72" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="C72" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="D72" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E72" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F72">
         <v>11</v>
@@ -4993,19 +4862,19 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B73" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="C73" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="D73" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E73" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -5020,19 +4889,19 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B74" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="C74" t="s">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="D74" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E74" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -5047,19 +4916,19 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B75" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="C75" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="D75" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E75" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -5071,24 +4940,24 @@
         <v>9</v>
       </c>
       <c r="J75" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B76" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="C76" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D76" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E76" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F76">
         <v>2</v>
@@ -5100,24 +4969,24 @@
         <v>9</v>
       </c>
       <c r="J76" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B77" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="C77" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D77" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E77" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F77">
         <v>3</v>
@@ -5129,24 +4998,24 @@
         <v>9</v>
       </c>
       <c r="J77" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B78" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D78" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F78">
         <v>48</v>
@@ -5161,19 +5030,19 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B79" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="C79" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="D79" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E79" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -5185,24 +5054,24 @@
         <v>9</v>
       </c>
       <c r="J79" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B80" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="C80" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="D80" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -5217,19 +5086,19 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B81" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="C81" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="D81" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -5241,24 +5110,24 @@
         <v>9</v>
       </c>
       <c r="J81" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B82" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="C82" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="D82" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E82" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -5270,24 +5139,24 @@
         <v>9</v>
       </c>
       <c r="J82" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="C83" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="D83" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E83" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F83">
         <v>2</v>
@@ -5302,19 +5171,19 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B84" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="C84" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="D84" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E84" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -5329,19 +5198,19 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="C85" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="D85" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E85" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -5353,24 +5222,24 @@
         <v>9</v>
       </c>
       <c r="J85" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B86" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="C86" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="D86" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E86" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -5382,24 +5251,24 @@
         <v>9</v>
       </c>
       <c r="J86" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B87" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="C87" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="D87" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E87" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -5414,19 +5283,19 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="C88" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D88" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E88" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F88">
         <v>2</v>
@@ -5438,24 +5307,24 @@
         <v>9</v>
       </c>
       <c r="J88" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="C89" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D89" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E89" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -5467,24 +5336,24 @@
         <v>9</v>
       </c>
       <c r="J89" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="C90" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D90" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E90" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F90">
         <v>34</v>
@@ -5499,19 +5368,19 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B91" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="C91" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="D91" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E91" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -5523,24 +5392,24 @@
         <v>9</v>
       </c>
       <c r="J91" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="C92" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="D92" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E92" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -5555,19 +5424,19 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="C93" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="D93" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E93" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F93">
         <v>7</v>
@@ -5579,24 +5448,24 @@
         <v>9</v>
       </c>
       <c r="J93" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="C94" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="D94" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E94" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -5611,19 +5480,19 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="C95" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="D95" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E95" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -5635,24 +5504,24 @@
         <v>9</v>
       </c>
       <c r="J95" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="C96" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="D96" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E96" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F96">
         <v>2</v>
@@ -5664,24 +5533,24 @@
         <v>9</v>
       </c>
       <c r="J96" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="C97" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="D97" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E97" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F97">
         <v>3</v>
@@ -5693,24 +5562,24 @@
         <v>9</v>
       </c>
       <c r="J97" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="C98" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D98" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E98" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -5722,24 +5591,24 @@
         <v>9</v>
       </c>
       <c r="J98" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="C99" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D99" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F99">
         <v>4</v>
@@ -5751,24 +5620,24 @@
         <v>9</v>
       </c>
       <c r="J99" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="C100" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D100" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E100" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F100">
         <v>62</v>
@@ -5783,19 +5652,19 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B101" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="C101" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="D101" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E101" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F101">
         <v>20</v>
@@ -5807,24 +5676,24 @@
         <v>9</v>
       </c>
       <c r="J101" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B102" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="C102" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="D102" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E102" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F102">
         <v>13</v>
@@ -5839,19 +5708,19 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B103" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="C103" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="D103" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E103" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -5863,24 +5732,24 @@
         <v>9</v>
       </c>
       <c r="J103" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B104" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="C104" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="D104" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E104" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -5892,24 +5761,24 @@
         <v>9</v>
       </c>
       <c r="J104" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B105" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="C105" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="D105" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E105" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -5921,24 +5790,24 @@
         <v>9</v>
       </c>
       <c r="J105" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B106" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="C106" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="D106" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E106" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -5950,24 +5819,24 @@
         <v>9</v>
       </c>
       <c r="J106" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B107" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="C107" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="D107" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E107" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F107">
         <v>2</v>
@@ -5979,24 +5848,24 @@
         <v>9</v>
       </c>
       <c r="J107" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B108" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="C108" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="D108" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E108" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -6008,24 +5877,24 @@
         <v>9</v>
       </c>
       <c r="J108" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B109" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="C109" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D109" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E109" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F109">
         <v>2</v>
@@ -6037,24 +5906,24 @@
         <v>9</v>
       </c>
       <c r="J109" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B110" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D110" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E110" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F110">
         <v>6</v>
@@ -6066,24 +5935,24 @@
         <v>9</v>
       </c>
       <c r="J110" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B111" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D111" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E111" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F111">
         <v>29</v>
@@ -6098,19 +5967,19 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B112" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="D112" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E112" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -6125,19 +5994,19 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B113" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="D113" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E113" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -6152,19 +6021,19 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B114" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="D114" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E114" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -6179,19 +6048,19 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B115" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="C115" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="D115" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E115" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -6203,24 +6072,24 @@
         <v>9</v>
       </c>
       <c r="J115" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B116" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="C116" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="D116" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E116" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -6232,24 +6101,24 @@
         <v>9</v>
       </c>
       <c r="J116" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B117" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="C117" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="D117" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E117" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -6261,24 +6130,24 @@
         <v>9</v>
       </c>
       <c r="J117" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B118" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="C118" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D118" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E118" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F118">
         <v>2</v>
@@ -6290,24 +6159,24 @@
         <v>9</v>
       </c>
       <c r="J118" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B119" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="C119" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D119" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E119" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F119">
         <v>7</v>
@@ -6319,24 +6188,24 @@
         <v>9</v>
       </c>
       <c r="J119" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B120" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="C120" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D120" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E120" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F120">
         <v>57</v>
@@ -6351,19 +6220,19 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B121" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="C121" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="D121" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E121" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -6378,19 +6247,19 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B122" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="C122" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="D122" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E122" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F122">
         <v>3</v>
@@ -6402,24 +6271,24 @@
         <v>9</v>
       </c>
       <c r="J122" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B123" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="C123" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="D123" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E123" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -6434,19 +6303,19 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B124" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="C124" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="D124" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E124" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -6458,24 +6327,24 @@
         <v>9</v>
       </c>
       <c r="J124" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B125" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="C125" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="D125" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E125" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -6487,24 +6356,24 @@
         <v>9</v>
       </c>
       <c r="J125" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B126" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="C126" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="D126" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E126" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F126">
         <v>3</v>
@@ -6516,24 +6385,24 @@
         <v>9</v>
       </c>
       <c r="J126" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B127" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="C127" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="D127" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E127" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -6545,24 +6414,24 @@
         <v>9</v>
       </c>
       <c r="J127" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B128" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="C128" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="D128" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E128" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F128">
         <v>6</v>
@@ -6574,24 +6443,24 @@
         <v>9</v>
       </c>
       <c r="J128" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B129" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="C129" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="D129" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E129" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F129">
         <v>2</v>
@@ -6606,19 +6475,19 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B130" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="C130" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D130" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E130" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F130">
         <v>7</v>
@@ -6630,24 +6499,24 @@
         <v>9</v>
       </c>
       <c r="J130" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B131" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="C131" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D131" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E131" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F131">
         <v>7</v>
@@ -6659,24 +6528,24 @@
         <v>9</v>
       </c>
       <c r="J131" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B132" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="C132" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D132" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E132" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F132">
         <v>27</v>
@@ -6691,19 +6560,19 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B133" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="C133" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="D133" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E133" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -6715,24 +6584,24 @@
         <v>9</v>
       </c>
       <c r="J133" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B134" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="C134" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="D134" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E134" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -6744,24 +6613,24 @@
         <v>9</v>
       </c>
       <c r="J134" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B135" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="C135" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="D135" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E135" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -6773,24 +6642,24 @@
         <v>9</v>
       </c>
       <c r="J135" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B136" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="C136" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="D136" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E136" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -6802,24 +6671,24 @@
         <v>9</v>
       </c>
       <c r="J136" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B137" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="C137" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="D137" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E137" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F137">
         <v>1</v>
@@ -6834,19 +6703,19 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B138" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="C138" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D138" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E138" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F138">
         <v>2</v>
@@ -6858,24 +6727,24 @@
         <v>9</v>
       </c>
       <c r="J138" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B139" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="C139" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D139" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E139" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -6887,24 +6756,24 @@
         <v>9</v>
       </c>
       <c r="J139" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B140" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="C140" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D140" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E140" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F140">
         <v>35</v>
@@ -6919,19 +6788,19 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B141" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="C141" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="D141" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E141" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F141">
         <v>5</v>
@@ -6943,24 +6812,24 @@
         <v>9</v>
       </c>
       <c r="J141" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B142" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="C142" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="D142" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E142" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F142">
         <v>1</v>
@@ -6972,24 +6841,24 @@
         <v>9</v>
       </c>
       <c r="J142" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B143" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="C143" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="D143" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E143" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -7001,24 +6870,24 @@
         <v>9</v>
       </c>
       <c r="J143" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B144" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="C144" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="D144" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E144" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F144">
         <v>4</v>
@@ -7033,19 +6902,19 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B145" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="C145" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D145" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E145" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -7057,24 +6926,24 @@
         <v>9</v>
       </c>
       <c r="J145" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B146" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="C146" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D146" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E146" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F146">
         <v>6</v>
@@ -7086,24 +6955,24 @@
         <v>9</v>
       </c>
       <c r="J146" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B147" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="C147" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D147" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E147" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F147">
         <v>59</v>
@@ -7118,19 +6987,19 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B148" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="C148" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="D148" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E148" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F148">
         <v>3</v>
@@ -7145,19 +7014,19 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B149" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="C149" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="D149" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E149" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F149">
         <v>1</v>
@@ -7169,24 +7038,24 @@
         <v>9</v>
       </c>
       <c r="J149" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B150" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="C150" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="D150" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E150" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -7201,19 +7070,19 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B151" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="C151" t="s">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="D151" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E151" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -7228,19 +7097,19 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B152" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="C152" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="D152" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E152" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F152">
         <v>1</v>
@@ -7252,24 +7121,24 @@
         <v>9</v>
       </c>
       <c r="J152" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B153" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="C153" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="D153" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E153" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F153">
         <v>6</v>
@@ -7281,24 +7150,24 @@
         <v>9</v>
       </c>
       <c r="J153" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B154" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="C154" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="D154" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E154" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -7313,19 +7182,19 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B155" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="C155" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D155" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E155" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F155">
         <v>3</v>
@@ -7337,24 +7206,24 @@
         <v>9</v>
       </c>
       <c r="J155" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B156" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="C156" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D156" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E156" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F156">
         <v>6</v>
@@ -7366,24 +7235,24 @@
         <v>9</v>
       </c>
       <c r="J156" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B157" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="C157" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D157" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E157" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F157">
         <v>18</v>
@@ -7398,19 +7267,19 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B158" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="C158" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="D158" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E158" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F158">
         <v>1</v>
@@ -7425,19 +7294,19 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B159" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="C159" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="D159" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E159" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F159">
         <v>1</v>
@@ -7452,19 +7321,19 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B160" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="C160" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="D160" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E160" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F160">
         <v>6</v>
@@ -7476,24 +7345,24 @@
         <v>9</v>
       </c>
       <c r="J160" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B161" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="C161" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="D161" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E161" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F161">
         <v>8</v>
@@ -7520,8 +7389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMH127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AE26" sqref="AE26"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7577,189 +7446,189 @@
         <v>11</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="49" t="s">
+      <c r="L1" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="O1" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="Q1" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="S1" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="49" t="s">
+      <c r="U1" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="V1" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="M1" s="50" t="s">
+      <c r="X1" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z1" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA1" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC1" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="50" t="s">
+      <c r="AE1" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF1" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="P1" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q1" s="50" t="s">
+      <c r="AG1" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH1" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI1" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="50" t="s">
+      <c r="AJ1" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="AK1" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="50" t="s">
+      <c r="AL1" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="V1" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="W1" s="51" t="s">
+      <c r="AM1" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN1" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO1" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP1" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="X1" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y1" s="52" t="s">
+      <c r="AQ1" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR1" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS1" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="Z1" s="53" t="s">
+      <c r="AT1" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU1" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="54" t="s">
+      <c r="AV1" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW1" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX1" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="AB1" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC1" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE1" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF1" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG1" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH1" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI1" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ1" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK1" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL1" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="AM1" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN1" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO1" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="AP1" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="AQ1" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="AR1" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS1" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT1" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="AU1" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="AV1" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="AW1" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="AX1" s="59" t="s">
-        <v>132</v>
-      </c>
       <c r="AY1" s="52" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="AZ1" s="52" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="BA1" s="58" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="BB1" s="60" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="BC1" s="60" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="BD1" s="60" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="G2">
         <v>47.57</v>
@@ -7781,7 +7650,7 @@
         <v>5.6118857142857141</v>
       </c>
       <c r="N2" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="Q2" s="62">
         <v>6.1421888888888887</v>
@@ -7793,41 +7662,41 @@
         <v>7</v>
       </c>
       <c r="AB2" s="47" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="AC2" s="47">
         <f>SUM(AD2:AF2)</f>
         <v>44</v>
       </c>
-      <c r="AD2" s="67">
+      <c r="AD2" s="64">
         <v>21</v>
       </c>
-      <c r="AE2" s="67">
+      <c r="AE2" s="64">
         <v>21</v>
       </c>
-      <c r="AF2" s="67">
+      <c r="AF2" s="64">
         <v>2</v>
       </c>
-      <c r="AH2" s="66"/>
+      <c r="AH2" s="63"/>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="G3">
         <v>47.57</v>
@@ -7849,7 +7718,7 @@
         <v>10.862214285714286</v>
       </c>
       <c r="N3" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="Q3" s="62">
         <v>7.7476750000000001</v>
@@ -7861,41 +7730,41 @@
         <v>11.5</v>
       </c>
       <c r="AB3" s="47" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="AC3" s="47">
         <f t="shared" ref="AC3:AC17" si="0">SUM(AD3:AF3)</f>
         <v>70</v>
       </c>
-      <c r="AD3" s="67">
+      <c r="AD3" s="64">
         <v>34</v>
       </c>
-      <c r="AE3" s="67">
+      <c r="AE3" s="64">
         <v>29</v>
       </c>
-      <c r="AF3" s="67">
+      <c r="AF3" s="64">
         <v>7</v>
       </c>
-      <c r="AH3" s="67"/>
+      <c r="AH3" s="64"/>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="F4" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="G4">
         <v>47.057000000000002</v>
@@ -7917,7 +7786,7 @@
         <v>5.8545222222222213</v>
       </c>
       <c r="N4" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="Q4" s="62">
         <v>5.2898111111111108</v>
@@ -7925,45 +7794,46 @@
       <c r="U4" s="62">
         <v>1.2777777777777777</v>
       </c>
+      <c r="W4" s="69"/>
       <c r="AA4">
         <v>7</v>
       </c>
       <c r="AB4" s="47" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="AC4" s="47">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="AD4" s="67">
+      <c r="AD4" s="64">
         <v>59</v>
       </c>
-      <c r="AE4" s="67">
+      <c r="AE4" s="64">
         <v>31</v>
       </c>
-      <c r="AF4" s="67">
+      <c r="AF4" s="64">
         <v>3</v>
       </c>
       <c r="AN4" s="7"/>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="G5">
         <v>47.057000000000002</v>
@@ -7985,7 +7855,7 @@
         <v>8.8196363636363646</v>
       </c>
       <c r="N5" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="62">
         <v>6.2266999999999992</v>
@@ -7997,41 +7867,41 @@
         <v>6</v>
       </c>
       <c r="AB5" s="47" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="AC5" s="47">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="AD5" s="67">
+      <c r="AD5" s="64">
         <v>30</v>
       </c>
-      <c r="AE5" s="67">
-        <v>9</v>
-      </c>
-      <c r="AF5" s="67">
+      <c r="AE5" s="64">
+        <v>9</v>
+      </c>
+      <c r="AF5" s="64">
         <v>2</v>
       </c>
-      <c r="AH5" s="67"/>
+      <c r="AH5" s="64"/>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="F6" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="G6">
         <v>47.677999999999997</v>
@@ -8053,7 +7923,7 @@
         <v>9.2455200000000008</v>
       </c>
       <c r="N6" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="Q6" s="62">
         <v>10.522675</v>
@@ -8065,41 +7935,41 @@
         <v>34.5</v>
       </c>
       <c r="AB6" s="47" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="AC6" s="47">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="AD6" s="67">
+      <c r="AD6" s="64">
         <v>92</v>
       </c>
-      <c r="AE6" s="67">
+      <c r="AE6" s="64">
         <v>5</v>
       </c>
-      <c r="AF6" s="67">
+      <c r="AF6" s="64">
         <v>7</v>
       </c>
-      <c r="AH6" s="67"/>
+      <c r="AH6" s="64"/>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="F7" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="G7">
         <v>47.677999999999997</v>
@@ -8121,7 +7991,7 @@
         <v>3.8835888888888892</v>
       </c>
       <c r="N7" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="Q7" s="62">
         <v>6.7374714285714292</v>
@@ -8133,41 +8003,41 @@
         <v>16</v>
       </c>
       <c r="AB7" s="47" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="AC7" s="47">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="AD7" s="67">
+      <c r="AD7" s="64">
         <v>19</v>
       </c>
-      <c r="AE7" s="67">
+      <c r="AE7" s="64">
         <v>24</v>
       </c>
-      <c r="AF7" s="67">
+      <c r="AF7" s="64">
         <v>7</v>
       </c>
-      <c r="AH7" s="67"/>
+      <c r="AH7" s="64"/>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="E8" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="F8" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="G8">
         <v>47.063000000000002</v>
@@ -8189,7 +8059,7 @@
         <v>3.768675</v>
       </c>
       <c r="N8" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="62">
         <v>3.5709999999999997</v>
@@ -8201,40 +8071,40 @@
         <v>8</v>
       </c>
       <c r="AB8" s="47" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="AC8" s="47">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="AD8" s="67">
-        <v>9</v>
-      </c>
-      <c r="AE8" s="67">
+      <c r="AD8" s="64">
+        <v>9</v>
+      </c>
+      <c r="AE8" s="64">
         <v>15</v>
       </c>
-      <c r="AF8" s="67">
+      <c r="AF8" s="64">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="D9" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="E9" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="F9" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="G9">
         <v>47.063000000000002</v>
@@ -8256,7 +8126,7 @@
         <v>7.9502777777777789</v>
       </c>
       <c r="N9" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="Q9" s="62">
         <v>6.390371428571429</v>
@@ -8268,41 +8138,41 @@
         <v>4.5</v>
       </c>
       <c r="AB9" s="47" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="AC9" s="47">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="AD9" s="67">
+      <c r="AD9" s="64">
         <v>53</v>
       </c>
-      <c r="AE9" s="67">
+      <c r="AE9" s="64">
         <v>6</v>
       </c>
-      <c r="AF9" s="67">
-        <v>1</v>
-      </c>
-      <c r="AH9" s="67"/>
+      <c r="AF9" s="64">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="64"/>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="E10" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="F10" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="G10">
         <v>48.542999999999999</v>
@@ -8324,7 +8194,7 @@
         <v>5.2620499999999995</v>
       </c>
       <c r="N10" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="Q10" s="62">
         <v>3.910571428571429</v>
@@ -8336,41 +8206,41 @@
         <v>5.5</v>
       </c>
       <c r="AB10" s="47" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="AC10" s="47">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="AD10" s="67">
+      <c r="AD10" s="64">
         <v>37</v>
       </c>
-      <c r="AE10" s="67">
+      <c r="AE10" s="64">
         <v>10</v>
       </c>
-      <c r="AF10" s="67">
+      <c r="AF10" s="64">
         <v>4</v>
       </c>
-      <c r="AH10" s="67"/>
+      <c r="AH10" s="64"/>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="F11" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="G11">
         <v>48.542999999999999</v>
@@ -8392,7 +8262,7 @@
         <v>10.254822222222224</v>
       </c>
       <c r="N11" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="Q11" s="62">
         <v>6.5193111111111115</v>
@@ -8404,40 +8274,40 @@
         <v>11.5</v>
       </c>
       <c r="AB11" s="47" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="AC11" s="47">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="AD11" s="67">
+      <c r="AD11" s="64">
         <v>67</v>
       </c>
-      <c r="AE11" s="67">
+      <c r="AE11" s="64">
         <v>33</v>
       </c>
-      <c r="AF11" s="67">
+      <c r="AF11" s="64">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="F12" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="G12">
         <v>47.561999999999998</v>
@@ -8459,7 +8329,7 @@
         <v>6.5736363636363624</v>
       </c>
       <c r="N12" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="Q12" s="62">
         <v>6.0828181818181823</v>
@@ -8471,41 +8341,41 @@
         <v>8</v>
       </c>
       <c r="AB12" s="47" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="AC12" s="47">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="AD12" s="67">
+      <c r="AD12" s="64">
         <v>37</v>
       </c>
-      <c r="AE12" s="67">
+      <c r="AE12" s="64">
         <v>2</v>
       </c>
-      <c r="AF12" s="67">
+      <c r="AF12" s="64">
         <v>7</v>
       </c>
-      <c r="AH12" s="67"/>
+      <c r="AH12" s="64"/>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="E13" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="F13" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="G13">
         <v>47.561999999999998</v>
@@ -8527,7 +8397,7 @@
         <v>4.5059249999999995</v>
       </c>
       <c r="N13" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="Q13" s="62">
         <v>4.3149100000000002</v>
@@ -8539,41 +8409,41 @@
         <v>5</v>
       </c>
       <c r="AB13" s="47" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="AC13" s="47">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="AD13" s="67">
+      <c r="AD13" s="64">
         <v>66</v>
       </c>
-      <c r="AE13" s="67">
+      <c r="AE13" s="64">
         <v>5</v>
       </c>
-      <c r="AF13" s="67">
+      <c r="AF13" s="64">
         <v>2</v>
       </c>
-      <c r="AH13" s="66"/>
+      <c r="AH13" s="63"/>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="D14" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="F14" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="G14">
         <v>47.542999999999999</v>
@@ -8595,7 +8465,7 @@
         <v>8.9757142857142842</v>
       </c>
       <c r="N14" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="Q14" s="62">
         <v>7.195442857142857</v>
@@ -8607,41 +8477,41 @@
         <v>6</v>
       </c>
       <c r="AB14" s="47" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="AC14" s="47">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="AD14" s="67">
+      <c r="AD14" s="64">
         <v>41</v>
       </c>
-      <c r="AE14" s="67">
+      <c r="AE14" s="64">
         <v>2</v>
       </c>
-      <c r="AF14" s="67">
+      <c r="AF14" s="64">
         <v>16</v>
       </c>
-      <c r="AH14" s="67"/>
+      <c r="AH14" s="64"/>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="E15" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="F15" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="G15">
         <v>47.542999999999999</v>
@@ -8663,7 +8533,7 @@
         <v>7.0438571428571422</v>
       </c>
       <c r="N15" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="Q15" s="62">
         <v>7.0031999999999996</v>
@@ -8675,41 +8545,41 @@
         <v>1</v>
       </c>
       <c r="AB15" s="47" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="AC15" s="47">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="AD15" s="67">
+      <c r="AD15" s="64">
         <v>38</v>
       </c>
-      <c r="AE15" s="67">
+      <c r="AE15" s="64">
         <v>0</v>
       </c>
-      <c r="AF15" s="67">
+      <c r="AF15" s="64">
         <v>0</v>
       </c>
-      <c r="AH15" s="67"/>
+      <c r="AH15" s="64"/>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="E16" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="F16" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="G16">
         <v>47.670999999999999</v>
@@ -8731,7 +8601,7 @@
         <v>8.1656181818181821</v>
       </c>
       <c r="N16" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="Q16" s="62">
         <v>6.8472125000000004</v>
@@ -8743,41 +8613,41 @@
         <v>7</v>
       </c>
       <c r="AB16" s="47" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="AC16" s="47">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="AD16" s="67">
+      <c r="AD16" s="64">
         <v>66</v>
       </c>
-      <c r="AE16" s="67">
+      <c r="AE16" s="64">
         <v>3</v>
       </c>
-      <c r="AF16" s="67">
+      <c r="AF16" s="64">
         <v>14</v>
       </c>
-      <c r="AH16" s="66"/>
+      <c r="AH16" s="63"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="D17" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="E17" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="F17" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="G17">
         <v>47.670999999999999</v>
@@ -8799,7 +8669,7 @@
         <v>8.4420000000000002</v>
       </c>
       <c r="N17" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="Q17" s="62">
         <v>7.9361374999999992</v>
@@ -8811,22 +8681,22 @@
         <v>6</v>
       </c>
       <c r="AB17" s="47" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="AC17" s="47">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="AD17" s="67">
+      <c r="AD17" s="64">
         <v>16</v>
       </c>
-      <c r="AE17" s="67">
+      <c r="AE17" s="64">
         <v>27</v>
       </c>
-      <c r="AF17" s="67">
+      <c r="AF17" s="64">
         <v>8</v>
       </c>
-      <c r="AH17" s="67"/>
+      <c r="AH17" s="64"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="43"/>
@@ -8842,7 +8712,7 @@
       <c r="K18"/>
       <c r="L18"/>
       <c r="N18"/>
-      <c r="AH18" s="67"/>
+      <c r="AH18" s="64"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
@@ -8858,7 +8728,7 @@
       <c r="K19"/>
       <c r="L19"/>
       <c r="N19"/>
-      <c r="AH19" s="66"/>
+      <c r="AH19" s="63"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
@@ -8874,7 +8744,7 @@
       <c r="K20"/>
       <c r="L20"/>
       <c r="N20"/>
-      <c r="AH20" s="67"/>
+      <c r="AH20" s="64"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="43"/>
@@ -8890,7 +8760,7 @@
       <c r="K21"/>
       <c r="L21"/>
       <c r="N21"/>
-      <c r="AH21" s="66"/>
+      <c r="AH21" s="63"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="43"/>
@@ -8906,7 +8776,7 @@
       <c r="K22"/>
       <c r="L22"/>
       <c r="N22"/>
-      <c r="AH22" s="67"/>
+      <c r="AH22" s="64"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="43"/>
@@ -8922,7 +8792,7 @@
       <c r="K23"/>
       <c r="L23"/>
       <c r="N23"/>
-      <c r="AH23" s="66"/>
+      <c r="AH23" s="63"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="43"/>
@@ -8938,7 +8808,7 @@
       <c r="K24"/>
       <c r="L24"/>
       <c r="N24"/>
-      <c r="AH24" s="67"/>
+      <c r="AH24" s="64"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="43"/>
@@ -8954,7 +8824,7 @@
       <c r="K25"/>
       <c r="L25"/>
       <c r="N25"/>
-      <c r="AH25" s="67"/>
+      <c r="AH25" s="64"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="43"/>
@@ -8970,7 +8840,7 @@
       <c r="K26"/>
       <c r="L26"/>
       <c r="N26"/>
-      <c r="AH26" s="66"/>
+      <c r="AH26" s="63"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="43"/>
@@ -8986,7 +8856,7 @@
       <c r="K27"/>
       <c r="L27"/>
       <c r="N27"/>
-      <c r="AH27" s="67"/>
+      <c r="AH27" s="64"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
@@ -9002,7 +8872,7 @@
       <c r="K28"/>
       <c r="L28"/>
       <c r="N28"/>
-      <c r="AH28" s="67"/>
+      <c r="AH28" s="64"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="43"/>
@@ -9018,7 +8888,7 @@
       <c r="K29"/>
       <c r="L29"/>
       <c r="N29"/>
-      <c r="AH29" s="67"/>
+      <c r="AH29" s="64"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="43"/>
@@ -9034,7 +8904,7 @@
       <c r="K30"/>
       <c r="L30"/>
       <c r="N30"/>
-      <c r="AH30" s="67"/>
+      <c r="AH30" s="64"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="43"/>
@@ -9050,7 +8920,7 @@
       <c r="K31"/>
       <c r="L31"/>
       <c r="N31"/>
-      <c r="AH31" s="67"/>
+      <c r="AH31" s="64"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="43"/>
@@ -9066,7 +8936,7 @@
       <c r="K32"/>
       <c r="L32"/>
       <c r="N32"/>
-      <c r="AH32" s="67"/>
+      <c r="AH32" s="64"/>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="43"/>
@@ -9082,289 +8952,289 @@
       <c r="K33"/>
       <c r="L33"/>
       <c r="N33"/>
-      <c r="AH33" s="67"/>
+      <c r="AH33" s="64"/>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AH34" s="66"/>
+      <c r="AH34" s="63"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AH35" s="67"/>
+      <c r="AH35" s="64"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AH36" s="67"/>
+      <c r="AH36" s="64"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AH37" s="66"/>
+      <c r="AH37" s="63"/>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AH38" s="66"/>
+      <c r="AH38" s="63"/>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AH39" s="67"/>
+      <c r="AH39" s="64"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AH40" s="67"/>
+      <c r="AH40" s="64"/>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AH41" s="66"/>
+      <c r="AH41" s="63"/>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AH42" s="67"/>
+      <c r="AH42" s="64"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AH43" s="67"/>
+      <c r="AH43" s="64"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AH44" s="67"/>
+      <c r="AH44" s="64"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AH45" s="67"/>
+      <c r="AH45" s="64"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AH46" s="67"/>
+      <c r="AH46" s="64"/>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AH47" s="67"/>
+      <c r="AH47" s="64"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AH48" s="66"/>
+      <c r="AH48" s="63"/>
     </row>
     <row r="49" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH49" s="66"/>
+      <c r="AH49" s="63"/>
     </row>
     <row r="50" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH50" s="66"/>
+      <c r="AH50" s="63"/>
     </row>
     <row r="51" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH51" s="66"/>
+      <c r="AH51" s="63"/>
     </row>
     <row r="52" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH52" s="66"/>
+      <c r="AH52" s="63"/>
     </row>
     <row r="53" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH53" s="66"/>
+      <c r="AH53" s="63"/>
     </row>
     <row r="54" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH54" s="66"/>
+      <c r="AH54" s="63"/>
     </row>
     <row r="55" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH55" s="66"/>
+      <c r="AH55" s="63"/>
     </row>
     <row r="56" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH56" s="66"/>
+      <c r="AH56" s="63"/>
     </row>
     <row r="57" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH57" s="66"/>
+      <c r="AH57" s="63"/>
     </row>
     <row r="58" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH58" s="66"/>
+      <c r="AH58" s="63"/>
     </row>
     <row r="59" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH59" s="66"/>
+      <c r="AH59" s="63"/>
     </row>
     <row r="60" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH60" s="66"/>
+      <c r="AH60" s="63"/>
     </row>
     <row r="61" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH61" s="66"/>
+      <c r="AH61" s="63"/>
     </row>
     <row r="62" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH62" s="66"/>
+      <c r="AH62" s="63"/>
     </row>
     <row r="63" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH63" s="66"/>
+      <c r="AH63" s="63"/>
     </row>
     <row r="64" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH64" s="66"/>
+      <c r="AH64" s="63"/>
     </row>
     <row r="65" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH65" s="66"/>
+      <c r="AH65" s="63"/>
     </row>
     <row r="66" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH66" s="66"/>
+      <c r="AH66" s="63"/>
     </row>
     <row r="67" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH67" s="66"/>
+      <c r="AH67" s="63"/>
     </row>
     <row r="68" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH68" s="66"/>
+      <c r="AH68" s="63"/>
     </row>
     <row r="69" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH69" s="66"/>
+      <c r="AH69" s="63"/>
     </row>
     <row r="70" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH70" s="66"/>
+      <c r="AH70" s="63"/>
     </row>
     <row r="71" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH71" s="66"/>
+      <c r="AH71" s="63"/>
     </row>
     <row r="72" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH72" s="66"/>
+      <c r="AH72" s="63"/>
     </row>
     <row r="73" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH73" s="66"/>
+      <c r="AH73" s="63"/>
     </row>
     <row r="74" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH74" s="66"/>
+      <c r="AH74" s="63"/>
     </row>
     <row r="75" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH75" s="66"/>
+      <c r="AH75" s="63"/>
     </row>
     <row r="76" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH76" s="66"/>
+      <c r="AH76" s="63"/>
     </row>
     <row r="77" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH77" s="66"/>
+      <c r="AH77" s="63"/>
     </row>
     <row r="78" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH78" s="66"/>
+      <c r="AH78" s="63"/>
     </row>
     <row r="79" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH79" s="66"/>
+      <c r="AH79" s="63"/>
     </row>
     <row r="80" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH80" s="66"/>
+      <c r="AH80" s="63"/>
     </row>
     <row r="81" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH81" s="66"/>
+      <c r="AH81" s="63"/>
     </row>
     <row r="82" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH82" s="66"/>
+      <c r="AH82" s="63"/>
     </row>
     <row r="83" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH83" s="66"/>
+      <c r="AH83" s="63"/>
     </row>
     <row r="84" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH84" s="66"/>
+      <c r="AH84" s="63"/>
     </row>
     <row r="85" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH85" s="66"/>
+      <c r="AH85" s="63"/>
     </row>
     <row r="86" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH86" s="66"/>
+      <c r="AH86" s="63"/>
     </row>
     <row r="87" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH87" s="66"/>
+      <c r="AH87" s="63"/>
     </row>
     <row r="88" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH88" s="66"/>
+      <c r="AH88" s="63"/>
     </row>
     <row r="89" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH89" s="66"/>
+      <c r="AH89" s="63"/>
     </row>
     <row r="90" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH90" s="66"/>
+      <c r="AH90" s="63"/>
     </row>
     <row r="91" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH91" s="66"/>
+      <c r="AH91" s="63"/>
     </row>
     <row r="92" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH92" s="66"/>
+      <c r="AH92" s="63"/>
     </row>
     <row r="93" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH93" s="66"/>
+      <c r="AH93" s="63"/>
     </row>
     <row r="94" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH94" s="66"/>
+      <c r="AH94" s="63"/>
     </row>
     <row r="95" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH95" s="66"/>
+      <c r="AH95" s="63"/>
     </row>
     <row r="96" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH96" s="66"/>
+      <c r="AH96" s="63"/>
     </row>
     <row r="97" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH97" s="66"/>
+      <c r="AH97" s="63"/>
     </row>
     <row r="98" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH98" s="66"/>
+      <c r="AH98" s="63"/>
     </row>
     <row r="99" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH99" s="66"/>
+      <c r="AH99" s="63"/>
     </row>
     <row r="100" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH100" s="66"/>
+      <c r="AH100" s="63"/>
     </row>
     <row r="101" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH101" s="66"/>
+      <c r="AH101" s="63"/>
     </row>
     <row r="102" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH102" s="66"/>
+      <c r="AH102" s="63"/>
     </row>
     <row r="103" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH103" s="66"/>
+      <c r="AH103" s="63"/>
     </row>
     <row r="104" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH104" s="66"/>
+      <c r="AH104" s="63"/>
     </row>
     <row r="105" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH105" s="66"/>
+      <c r="AH105" s="63"/>
     </row>
     <row r="106" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH106" s="66"/>
+      <c r="AH106" s="63"/>
     </row>
     <row r="107" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH107" s="66"/>
+      <c r="AH107" s="63"/>
     </row>
     <row r="108" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH108" s="66"/>
+      <c r="AH108" s="63"/>
     </row>
     <row r="109" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH109" s="66"/>
+      <c r="AH109" s="63"/>
     </row>
     <row r="110" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH110" s="66"/>
+      <c r="AH110" s="63"/>
     </row>
     <row r="111" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH111" s="66"/>
+      <c r="AH111" s="63"/>
     </row>
     <row r="112" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH112" s="66"/>
+      <c r="AH112" s="63"/>
     </row>
     <row r="113" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH113" s="66"/>
+      <c r="AH113" s="63"/>
     </row>
     <row r="114" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH114" s="66"/>
+      <c r="AH114" s="63"/>
     </row>
     <row r="115" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH115" s="66"/>
+      <c r="AH115" s="63"/>
     </row>
     <row r="116" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH116" s="66"/>
+      <c r="AH116" s="63"/>
     </row>
     <row r="117" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH117" s="66"/>
+      <c r="AH117" s="63"/>
     </row>
     <row r="118" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH118" s="66"/>
+      <c r="AH118" s="63"/>
     </row>
     <row r="119" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH119" s="66"/>
+      <c r="AH119" s="63"/>
     </row>
     <row r="120" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH120" s="66"/>
+      <c r="AH120" s="63"/>
     </row>
     <row r="121" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH121" s="66"/>
+      <c r="AH121" s="63"/>
     </row>
     <row r="122" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH122" s="66"/>
+      <c r="AH122" s="63"/>
     </row>
     <row r="123" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH123" s="66"/>
+      <c r="AH123" s="63"/>
     </row>
     <row r="124" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH124" s="66"/>
+      <c r="AH124" s="63"/>
     </row>
     <row r="125" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH125" s="66"/>
+      <c r="AH125" s="63"/>
     </row>
     <row r="126" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH126" s="66"/>
+      <c r="AH126" s="63"/>
     </row>
     <row r="127" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH127" s="66"/>
+      <c r="AH127" s="63"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
